--- a/data/nzd0545/nzd0545.xlsx
+++ b/data/nzd0545/nzd0545.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R429"/>
+  <dimension ref="A1:R434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22888,7 +22888,9 @@
       <c r="E429" t="n">
         <v>319.79</v>
       </c>
-      <c r="F429" t="inlineStr"/>
+      <c r="F429" t="n">
+        <v>335.0733333333333</v>
+      </c>
       <c r="G429" t="n">
         <v>326.58</v>
       </c>
@@ -22919,6 +22921,292 @@
         <v>291.9077777777778</v>
       </c>
       <c r="R429" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:15:12+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>422.65</v>
+      </c>
+      <c r="C430" t="n">
+        <v>500.73</v>
+      </c>
+      <c r="D430" t="n">
+        <v>288.62</v>
+      </c>
+      <c r="E430" t="n">
+        <v>301.89</v>
+      </c>
+      <c r="F430" t="n">
+        <v>309</v>
+      </c>
+      <c r="G430" t="n">
+        <v>290.23</v>
+      </c>
+      <c r="H430" t="n">
+        <v>277.2533333333333</v>
+      </c>
+      <c r="I430" t="n">
+        <v>273.34</v>
+      </c>
+      <c r="J430" t="n">
+        <v>269.11</v>
+      </c>
+      <c r="K430" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="L430" t="n">
+        <v>258.61</v>
+      </c>
+      <c r="M430" t="n">
+        <v>259.63</v>
+      </c>
+      <c r="N430" t="n">
+        <v>256.22</v>
+      </c>
+      <c r="O430" t="n">
+        <v>244.1966666666666</v>
+      </c>
+      <c r="P430" t="n">
+        <v>248.7266666666666</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>249.3766666666666</v>
+      </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>445.19</v>
+      </c>
+      <c r="C431" t="n">
+        <v>535.37</v>
+      </c>
+      <c r="D431" t="n">
+        <v>338.14</v>
+      </c>
+      <c r="E431" t="n">
+        <v>325.08</v>
+      </c>
+      <c r="F431" t="n">
+        <v>309.73</v>
+      </c>
+      <c r="G431" t="n">
+        <v>302.2</v>
+      </c>
+      <c r="H431" t="n">
+        <v>290.77</v>
+      </c>
+      <c r="I431" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="J431" t="n">
+        <v>276.13</v>
+      </c>
+      <c r="K431" t="n">
+        <v>287.12</v>
+      </c>
+      <c r="L431" t="n">
+        <v>288.14</v>
+      </c>
+      <c r="M431" t="n">
+        <v>288.83</v>
+      </c>
+      <c r="N431" t="n">
+        <v>287.07</v>
+      </c>
+      <c r="O431" t="n">
+        <v>288.19</v>
+      </c>
+      <c r="P431" t="n">
+        <v>267.4</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>266.73</v>
+      </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:15:06+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>466.34</v>
+      </c>
+      <c r="C432" t="n">
+        <v>528.58</v>
+      </c>
+      <c r="D432" t="n">
+        <v>326.66</v>
+      </c>
+      <c r="E432" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="F432" t="n">
+        <v>297.1266666666667</v>
+      </c>
+      <c r="G432" t="n">
+        <v>294.12</v>
+      </c>
+      <c r="H432" t="n">
+        <v>289.6911111111111</v>
+      </c>
+      <c r="I432" t="n">
+        <v>281.76</v>
+      </c>
+      <c r="J432" t="n">
+        <v>270.5366666666667</v>
+      </c>
+      <c r="K432" t="n">
+        <v>270.73</v>
+      </c>
+      <c r="L432" t="n">
+        <v>271.0966666666667</v>
+      </c>
+      <c r="M432" t="n">
+        <v>271.7</v>
+      </c>
+      <c r="N432" t="n">
+        <v>274.95</v>
+      </c>
+      <c r="O432" t="n">
+        <v>264.4422222222223</v>
+      </c>
+      <c r="P432" t="n">
+        <v>261.8722222222222</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>260.9022222222222</v>
+      </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:15:12+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="n">
+        <v>325.37</v>
+      </c>
+      <c r="F433" t="n">
+        <v>300.7533333333333</v>
+      </c>
+      <c r="G433" t="n">
+        <v>292.51</v>
+      </c>
+      <c r="H433" t="n">
+        <v>287.8722222222222</v>
+      </c>
+      <c r="I433" t="n">
+        <v>281.28</v>
+      </c>
+      <c r="J433" t="n">
+        <v>272.4833333333333</v>
+      </c>
+      <c r="K433" t="n">
+        <v>282.12</v>
+      </c>
+      <c r="L433" t="n">
+        <v>277.7133333333333</v>
+      </c>
+      <c r="M433" t="n">
+        <v>281.48</v>
+      </c>
+      <c r="N433" t="n">
+        <v>290.38</v>
+      </c>
+      <c r="O433" t="n">
+        <v>276.6844444444445</v>
+      </c>
+      <c r="P433" t="n">
+        <v>269.5344444444444</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>268.9544444444444</v>
+      </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:15:04+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>445.15</v>
+      </c>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="n">
+        <v>278.7933333333333</v>
+      </c>
+      <c r="G434" t="n">
+        <v>281.505</v>
+      </c>
+      <c r="H434" t="n">
+        <v>284.3222222222223</v>
+      </c>
+      <c r="I434" t="n">
+        <v>279.1</v>
+      </c>
+      <c r="J434" t="n">
+        <v>280.0333333333334</v>
+      </c>
+      <c r="K434" t="n">
+        <v>269.09</v>
+      </c>
+      <c r="L434" t="n">
+        <v>308.0133333333333</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+      <c r="N434" t="n">
+        <v>298.19</v>
+      </c>
+      <c r="O434" t="n">
+        <v>267.9844444444445</v>
+      </c>
+      <c r="P434" t="n">
+        <v>269.8344444444444</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>288.6044444444445</v>
+      </c>
+      <c r="R434" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -22935,7 +23223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B482"/>
+  <dimension ref="A1:B487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27763,6 +28051,56 @@
       </c>
       <c r="B482" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>-0.79</v>
       </c>
     </row>
   </sheetData>
@@ -27925,28 +28263,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.4246364586015671</v>
+        <v>-0.451624614421539</v>
       </c>
       <c r="J2" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K2" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01223492825897932</v>
+        <v>0.01413854176274587</v>
       </c>
       <c r="M2" t="n">
-        <v>22.15519523906905</v>
+        <v>22.06157688832343</v>
       </c>
       <c r="N2" t="n">
-        <v>786.5540217378671</v>
+        <v>779.6940063491863</v>
       </c>
       <c r="O2" t="n">
-        <v>28.04557044771718</v>
+        <v>27.92300138504431</v>
       </c>
       <c r="P2" t="n">
-        <v>465.2821244565296</v>
+        <v>465.545172376405</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27996,28 +28334,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>2.767589713984678</v>
+        <v>2.780003833632839</v>
       </c>
       <c r="J3" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K3" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08210484660507389</v>
+        <v>0.08452141029629778</v>
       </c>
       <c r="M3" t="n">
-        <v>50.73670284321064</v>
+        <v>50.24268494264428</v>
       </c>
       <c r="N3" t="n">
-        <v>4881.333485787736</v>
+        <v>4818.163296716507</v>
       </c>
       <c r="O3" t="n">
-        <v>69.8665405311279</v>
+        <v>69.41299083540852</v>
       </c>
       <c r="P3" t="n">
-        <v>446.1096102215173</v>
+        <v>445.9888531003636</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28073,28 +28411,28 @@
         <v>0.0276</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5176139349701581</v>
+        <v>-0.5031223472786822</v>
       </c>
       <c r="J4" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K4" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03311182173964367</v>
+        <v>0.03151736177263376</v>
       </c>
       <c r="M4" t="n">
-        <v>16.30034881300991</v>
+        <v>16.34382391120463</v>
       </c>
       <c r="N4" t="n">
-        <v>411.0890277389436</v>
+        <v>412.0594234963885</v>
       </c>
       <c r="O4" t="n">
-        <v>20.27533052107767</v>
+        <v>20.29924687017695</v>
       </c>
       <c r="P4" t="n">
-        <v>321.9500923488553</v>
+        <v>321.8049196819784</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28150,28 +28488,28 @@
         <v>0.0527</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4503118101416977</v>
+        <v>-0.3822560191449471</v>
       </c>
       <c r="J5" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K5" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0300706632698241</v>
+        <v>0.02158782814563409</v>
       </c>
       <c r="M5" t="n">
-        <v>14.34408246374365</v>
+        <v>14.55573027281865</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1984487589039</v>
+        <v>346.3048137051813</v>
       </c>
       <c r="O5" t="n">
-        <v>18.39017261362448</v>
+        <v>18.60926687715508</v>
       </c>
       <c r="P5" t="n">
-        <v>296.8162840464655</v>
+        <v>296.1331717292346</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28221,28 +28559,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4547316815999194</v>
+        <v>-0.3527161412217878</v>
       </c>
       <c r="J6" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K6" t="n">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02317593163085097</v>
+        <v>0.01392118200798442</v>
       </c>
       <c r="M6" t="n">
-        <v>16.03656718483354</v>
+        <v>16.22767996860558</v>
       </c>
       <c r="N6" t="n">
-        <v>426.6445985201083</v>
+        <v>438.6362198839004</v>
       </c>
       <c r="O6" t="n">
-        <v>20.65537698808977</v>
+        <v>20.94364390176409</v>
       </c>
       <c r="P6" t="n">
-        <v>287.597461719929</v>
+        <v>286.5202947354917</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28298,28 +28636,28 @@
         <v>0.1182</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09594800120111656</v>
+        <v>-0.06412173417537079</v>
       </c>
       <c r="J7" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K7" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001399615125039166</v>
+        <v>0.0006389151860481945</v>
       </c>
       <c r="M7" t="n">
-        <v>13.9678127101691</v>
+        <v>13.89899912001008</v>
       </c>
       <c r="N7" t="n">
-        <v>326.5546114752974</v>
+        <v>324.1194591693567</v>
       </c>
       <c r="O7" t="n">
-        <v>18.07082210291766</v>
+        <v>18.00331800445009</v>
       </c>
       <c r="P7" t="n">
-        <v>283.4217609009982</v>
+        <v>283.0880879108535</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28369,28 +28707,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.1107473692813586</v>
+        <v>0.1226444254130476</v>
       </c>
       <c r="J8" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K8" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00317881038047807</v>
+        <v>0.003996768867157496</v>
       </c>
       <c r="M8" t="n">
-        <v>10.47280309192671</v>
+        <v>10.39883675042141</v>
       </c>
       <c r="N8" t="n">
-        <v>197.3968878118252</v>
+        <v>195.1172126602011</v>
       </c>
       <c r="O8" t="n">
-        <v>14.04980027658134</v>
+        <v>13.96843629975099</v>
       </c>
       <c r="P8" t="n">
-        <v>278.9315467687259</v>
+        <v>278.8101910457829</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28446,28 +28784,28 @@
         <v>0.1475</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.00614882736288076</v>
+        <v>0.008977339200228302</v>
       </c>
       <c r="J9" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K9" t="n">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="L9" t="n">
-        <v>8.162802684785753e-06</v>
+        <v>1.783987337722337e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>12.1846542093588</v>
+        <v>12.09259675718165</v>
       </c>
       <c r="N9" t="n">
-        <v>240.5985353037198</v>
+        <v>237.9156771856169</v>
       </c>
       <c r="O9" t="n">
-        <v>15.51123899963248</v>
+        <v>15.42451546031891</v>
       </c>
       <c r="P9" t="n">
-        <v>273.5649947473822</v>
+        <v>273.4131756374676</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28523,28 +28861,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.006800940627633759</v>
+        <v>0.04005101714016755</v>
       </c>
       <c r="J10" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K10" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L10" t="n">
-        <v>4.028387980636872e-06</v>
+        <v>0.0001430442279338751</v>
       </c>
       <c r="M10" t="n">
-        <v>18.27814302049392</v>
+        <v>18.26410161999426</v>
       </c>
       <c r="N10" t="n">
-        <v>558.8677836822089</v>
+        <v>554.4733664291166</v>
       </c>
       <c r="O10" t="n">
-        <v>23.64038459251898</v>
+        <v>23.54725815098472</v>
       </c>
       <c r="P10" t="n">
-        <v>257.9584581360876</v>
+        <v>257.4698122943757</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28600,28 +28938,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4032258134108796</v>
+        <v>-0.3577477345507277</v>
       </c>
       <c r="J11" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K11" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01435257405142176</v>
+        <v>0.01153932020868753</v>
       </c>
       <c r="M11" t="n">
-        <v>18.47660852956314</v>
+        <v>18.4705965525957</v>
       </c>
       <c r="N11" t="n">
-        <v>581.9468807734679</v>
+        <v>579.3294579424421</v>
       </c>
       <c r="O11" t="n">
-        <v>24.12357520711778</v>
+        <v>24.06926375987521</v>
       </c>
       <c r="P11" t="n">
-        <v>266.1546321117438</v>
+        <v>265.6955690743408</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -28671,28 +29009,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.4058077223431617</v>
+        <v>-0.3192854755621582</v>
       </c>
       <c r="J12" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K12" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005196329833429658</v>
+        <v>0.003292705093855264</v>
       </c>
       <c r="M12" t="n">
-        <v>29.73999481253113</v>
+        <v>29.5460929044752</v>
       </c>
       <c r="N12" t="n">
-        <v>1598.570442182673</v>
+        <v>1589.011810283292</v>
       </c>
       <c r="O12" t="n">
-        <v>39.98212653402359</v>
+        <v>39.86241099436024</v>
       </c>
       <c r="P12" t="n">
-        <v>263.3167761427758</v>
+        <v>262.4249774093302</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28748,28 +29086,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3078760880175278</v>
+        <v>-0.251202977374634</v>
       </c>
       <c r="J13" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K13" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002816011429569998</v>
+        <v>0.001921235409075517</v>
       </c>
       <c r="M13" t="n">
-        <v>29.9885871139006</v>
+        <v>29.76429795312483</v>
       </c>
       <c r="N13" t="n">
-        <v>1729.896960864726</v>
+        <v>1713.810181387765</v>
       </c>
       <c r="O13" t="n">
-        <v>41.59203001615485</v>
+        <v>41.39819055692852</v>
       </c>
       <c r="P13" t="n">
-        <v>262.0114563239675</v>
+        <v>261.4421786975492</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -28819,28 +29157,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.153476661106858</v>
+        <v>-0.08576486727414226</v>
       </c>
       <c r="J14" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K14" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00129751079015139</v>
+        <v>0.0004146134155418313</v>
       </c>
       <c r="M14" t="n">
-        <v>20.86414136322871</v>
+        <v>20.83713723011247</v>
       </c>
       <c r="N14" t="n">
-        <v>944.7060154053772</v>
+        <v>940.1470156852668</v>
       </c>
       <c r="O14" t="n">
-        <v>30.73607026614458</v>
+        <v>30.66181690124163</v>
       </c>
       <c r="P14" t="n">
-        <v>263.631623830247</v>
+        <v>262.9594080005056</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -28896,28 +29234,28 @@
         <v>0.0605</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3279113968262185</v>
+        <v>-0.2852408475437494</v>
       </c>
       <c r="J15" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K15" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01561389828479365</v>
+        <v>0.01198467820282134</v>
       </c>
       <c r="M15" t="n">
-        <v>14.9136808299772</v>
+        <v>14.94670233263377</v>
       </c>
       <c r="N15" t="n">
-        <v>353.5412043058843</v>
+        <v>354.9807404571996</v>
       </c>
       <c r="O15" t="n">
-        <v>18.80269141122846</v>
+        <v>18.84093257928597</v>
       </c>
       <c r="P15" t="n">
-        <v>260.5603738884678</v>
+        <v>260.1369990436038</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -28973,28 +29311,28 @@
         <v>0.0532</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3487353052253325</v>
+        <v>-0.3244384402395148</v>
       </c>
       <c r="J16" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K16" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01970394614985171</v>
+        <v>0.01746863419799771</v>
       </c>
       <c r="M16" t="n">
-        <v>14.25129448778799</v>
+        <v>14.20380045743405</v>
       </c>
       <c r="N16" t="n">
-        <v>310.2719416222027</v>
+        <v>308.0463257657509</v>
       </c>
       <c r="O16" t="n">
-        <v>17.614537791898</v>
+        <v>17.55124855290218</v>
       </c>
       <c r="P16" t="n">
-        <v>263.1628998890433</v>
+        <v>262.9186330477882</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -29044,28 +29382,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.4104588450451573</v>
+        <v>-0.3874383910620054</v>
       </c>
       <c r="J17" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K17" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02742295814843509</v>
+        <v>0.02496285017165134</v>
       </c>
       <c r="M17" t="n">
-        <v>13.3791342192553</v>
+        <v>13.34707685246929</v>
       </c>
       <c r="N17" t="n">
-        <v>302.7280555469009</v>
+        <v>301.5606545779282</v>
       </c>
       <c r="O17" t="n">
-        <v>17.3990820317309</v>
+        <v>17.365501852176</v>
       </c>
       <c r="P17" t="n">
-        <v>269.4346813176759</v>
+        <v>269.198569524787</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -29102,7 +29440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R429"/>
+  <dimension ref="A1:R434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61956,7 +62294,11 @@
           <t>-46.56083870120474,169.56020239547053</t>
         </is>
       </c>
-      <c r="F429" t="inlineStr"/>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>-46.56088840703477,169.559279199785</t>
+        </is>
+      </c>
       <c r="G429" t="inlineStr">
         <is>
           <t>-46.560727376505035,169.55840824018765</t>
@@ -62005,6 +62347,438 @@
         </is>
       </c>
       <c r="R429" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:15:12+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>-46.562007627705455,169.56264530582834</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>-46.562613911374335,169.56158415157805</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>-46.560648188341204,169.56116048728424</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>-46.56068005055292,169.56024171937048</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>-46.56065731520601,169.55933648209424</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>-46.56040520157781,169.5584881030507</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>-46.56020497053793,169.55763220470467</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>-46.56007704109407,169.5567593424213</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>-46.55994499256373,169.5558822637249</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>-46.55970963634063,169.55503253191716</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>-46.55966274620295,169.5541319367296</t>
+        </is>
+      </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>-46.5595770488252,169.55324181481157</t>
+        </is>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>-46.559450772565704,169.55234948442487</t>
+        </is>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>-46.55925994349603,169.55143734477141</t>
+        </is>
+      </c>
+      <c r="P430" t="inlineStr">
+        <is>
+          <t>-46.559252980595346,169.55050119783243</t>
+        </is>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>-46.55921371820715,169.54960440985607</t>
+        </is>
+      </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>-46.56220740428503,169.56259579264008</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>-46.56292093195395,169.56150805296218</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>-46.561087093023424,169.56105170305477</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>-46.56088558734262,169.56019077400097</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>-46.560663785305174,169.55933487831413</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>-46.560511293304515,169.55846180444695</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>-46.56032463023988,169.55760134221882</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>-46.56014034221378,169.5567423194248</t>
+        </is>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>-46.56000704857537,169.55586551628116</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>-46.56000948478213,169.55495160671282</t>
+        </is>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>-46.55992378711662,169.55406148221346</t>
+        </is>
+      </c>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>-46.55983517210595,169.5531721448932</t>
+        </is>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>-46.55972408147221,169.55228071390943</t>
+        </is>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>-46.559652111970905,169.5513622314939</t>
+        </is>
+      </c>
+      <c r="P431" t="inlineStr">
+        <is>
+          <t>-46.559419994328195,169.55047614280164</t>
+        </is>
+      </c>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>-46.55936892570659,169.54958112422344</t>
+        </is>
+      </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:15:06+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>-46.562394860979765,169.56254933247044</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>-46.562860750963864,169.5615229695964</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>-46.560985343730955,169.56107692218973</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>-46.560818404558404,169.5602074263077</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>-46.56055208007144,169.559362567262</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>-46.560439679174344,169.55847955656623</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>-46.56031507910431,169.55760380564183</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>-46.560151481795856,169.5567393237533</t>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>-46.55995760413716,169.55587886016426</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>-46.559864599299914,169.55499070955082</t>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>-46.559773126532555,169.55410214535232</t>
+        </is>
+      </c>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>-46.55968374568296,169.55321301640976</t>
+        </is>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>-46.55961670696051,169.55230773178533</t>
+        </is>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>-46.559440417867826,169.55140277809664</t>
+        </is>
+      </c>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t>-46.5593705540511,169.55048355974193</t>
+        </is>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>-46.559316802303215,169.5495889442656</t>
+        </is>
+      </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:15:12+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>-46.56088815766014,169.56019013690653</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>-46.56058422376326,169.5593545996539</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>-46.560425409526545,169.5584830938016</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>-46.56029897693219,169.55760795870194</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>-46.56014723814556,169.55674046496165</t>
+        </is>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>-46.55997481245206,169.55587421605063</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>-46.559965285430536,169.5549635356078</t>
+        </is>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>-46.559831616904916,169.5540863588904</t>
+        </is>
+      </c>
+      <c r="M433" t="inlineStr">
+        <is>
+          <t>-46.559770199300445,169.55318968173927</t>
+        </is>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>-46.55975340569752,169.55227333524454</t>
+        </is>
+      </c>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>-46.55954954834582,169.55138187595364</t>
+        </is>
+      </c>
+      <c r="P433" t="inlineStr">
+        <is>
+          <t>-46.55943908473437,169.55047327888937</t>
+        </is>
+      </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>-46.55938882104534,169.54957813933328</t>
+        </is>
+      </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:15:04+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>-46.562207049756985,169.56259588050767</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>-46.56038958896756,169.55940284453246</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>-46.56032787071779,169.55850727217828</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>-46.56026754966207,169.55761606439177</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>-46.560127964900204,169.55674564794708</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>-46.56004155360192,169.55585620417529</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>-46.55985010191063,169.55499462220777</t>
+        </is>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>-46.56009946445836,169.55401406675523</t>
+        </is>
+      </c>
+      <c r="M434" t="inlineStr"/>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>-46.55982259669115,169.552255925127</t>
+        </is>
+      </c>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>-46.559471994195,169.5513967301821</t>
+        </is>
+      </c>
+      <c r="P434" t="inlineStr">
+        <is>
+          <t>-46.55944176792523,169.55047287636117</t>
+        </is>
+      </c>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>-46.55956456982102,169.5495517716966</t>
+        </is>
+      </c>
+      <c r="R434" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0545/nzd0545.xlsx
+++ b/data/nzd0545/nzd0545.xlsx
@@ -28114,7 +28114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28205,35 +28205,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28286,27 +28291,28 @@
       <c r="P2" t="n">
         <v>465.545172376405</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.56357365812454 -46.55826158840109, 169.56165241884915 -46.56601342462905)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.5635736581245</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.55826158840109</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.5616524188491</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.56601342462905</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.5626130384869</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.56213750651507</v>
       </c>
     </row>
@@ -28357,27 +28363,28 @@
       <c r="P3" t="n">
         <v>445.9888531003636</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.56268406967925 -46.55817584112916, 169.56076274688655 -46.565927667927134)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.5626840696792</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.55817584112916</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.5607627468866</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.56592766792713</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.5617234082829</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.56205175452815</v>
       </c>
     </row>
@@ -28434,27 +28441,28 @@
       <c r="P4" t="n">
         <v>321.8049196819784</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.56179448123365 -46.55809009372217, 169.5598730749245 -46.56584191108883)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.5617944812336</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.55809009372217</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.5598730749245</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.56584191108883</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.5608337780791</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.5619660024055</v>
       </c>
     </row>
@@ -28511,27 +28519,28 @@
       <c r="P5" t="n">
         <v>296.1331717292346</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.56090489278782 -46.55800434618003, 169.55898340296307 -46.5657561541142)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.5609048927878</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.55800434618003</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.5589834029631</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.5657561541142</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.5599441478755</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.56188025014711</v>
       </c>
     </row>
@@ -28582,27 +28591,28 @@
       <c r="P6" t="n">
         <v>286.5202947354917</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.56001530434168 -46.55791859850278, 169.558093731002 -46.565670397003174)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.5600153043417</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.55791859850278</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.558093731002</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.56567039700317</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.5590545176718</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.56179449775298</v>
       </c>
     </row>
@@ -28659,27 +28669,28 @@
       <c r="P7" t="n">
         <v>283.0880879108535</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (169.55912571589525 -46.55783285069046, 169.5572040590417 -46.565584639755784)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>169.5591257158952</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.55783285069046</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>169.5572040590417</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.56558463975578</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>169.5581648874685</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.56170874522312</v>
       </c>
     </row>
@@ -28730,27 +28741,28 @@
       <c r="P8" t="n">
         <v>278.8101910457829</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (169.55826522161394 -46.557750512348406, 169.55626811373597 -46.565493239397725)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>169.5582652216139</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.55775051234841</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>169.556268113736</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.56549323939772</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>169.557266667675</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.56162187587307</v>
       </c>
     </row>
@@ -28807,27 +28819,28 @@
       <c r="P9" t="n">
         <v>273.4131756374676</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (169.5574091792738 -46.55766045583262, 169.55532964796114 -46.56539287204717)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>169.5574091792738</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.55766045583262</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>169.5553296479611</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.56539287204717</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>169.5563694136175</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.56152666393989</v>
       </c>
     </row>
@@ -28884,27 +28897,28 @@
       <c r="P10" t="n">
         <v>257.4698122943757</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (169.55652424115675 -46.557566087336774, 169.5544375657747 -46.565297590213724)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>169.5565242411568</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-46.55756608733677</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>169.5544375657747</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-46.56529759021372</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>169.5554809034657</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-46.56143183877525</v>
       </c>
     </row>
@@ -28961,27 +28975,28 @@
       <c r="P11" t="n">
         <v>265.6955690743408</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (169.5556365769489 -46.557471377892284, 169.55354981901652 -46.5652028709024)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>169.5556365769489</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-46.55747137789228</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>169.5535498190165</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-46.5652028709024</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>169.5545931979827</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-46.56133712439734</v>
       </c>
     </row>
@@ -29032,27 +29047,28 @@
       <c r="P12" t="n">
         <v>262.4249774093302</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (169.5547489127407 -46.55737666828286, 169.55266207225898 -46.565108151424916)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>169.5547489127407</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-46.55737666828286</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>169.552662072259</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-46.56510815142492</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>169.5537054924998</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-46.56124240985389</v>
       </c>
     </row>
@@ -29109,27 +29125,28 @@
       <c r="P13" t="n">
         <v>261.4421786975492</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (169.55386124853223 -46.55728195850852, 169.55177432550204 -46.565013431781324)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>169.5538612485322</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-46.55728195850852</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>169.551774325502</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-46.56501343178132</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>169.5528177870171</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-46.56114769514492</v>
       </c>
     </row>
@@ -29180,27 +29197,28 @@
       <c r="P14" t="n">
         <v>262.9594080005056</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (169.5529206178595 -46.557180844121426, 169.55097081685852 -46.564929299826346)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>169.5529206178595</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-46.55718084412143</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>169.5509708168585</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-46.56492929982635</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>169.551945717359</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-46.56105507197388</v>
       </c>
     </row>
@@ -29257,27 +29275,28 @@
       <c r="P15" t="n">
         <v>260.1369990436038</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (169.55185425835765 -46.55708310651299, 169.55036087812425 -46.56487957609195)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>169.5518542583577</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-46.55708310651299</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>169.5503608781243</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-46.56487957609195</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>169.551107568241</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-46.56098134130247</v>
       </c>
     </row>
@@ -29334,27 +29353,28 @@
       <c r="P16" t="n">
         <v>262.9186330477882</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (169.55083491053728 -46.55702837544999, 169.54966132762948 -46.564850779448136)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>169.5508349105373</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-46.55702837544999</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>169.5496613276295</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-46.56485077944814</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>169.5502481190834</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-46.56093957744906</v>
       </c>
     </row>
@@ -29405,27 +29425,28 @@
       <c r="P17" t="n">
         <v>269.198569524787</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (169.54993901938536 -46.556983302254615, 169.54876534953848 -46.56480569881355)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>169.5499390193854</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-46.55698330225461</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>169.5487653495385</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-46.56480569881355</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>169.5493521844619</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-46.56089450053408</v>
       </c>
     </row>

--- a/data/nzd0545/nzd0545.xlsx
+++ b/data/nzd0545/nzd0545.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R434"/>
+  <dimension ref="A1:R437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23212,6 +23212,182 @@
         </is>
       </c>
     </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>467.79</v>
+      </c>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="n">
+        <v>319.65</v>
+      </c>
+      <c r="E435" t="n">
+        <v>287.82</v>
+      </c>
+      <c r="F435" t="n">
+        <v>274.0533333333333</v>
+      </c>
+      <c r="G435" t="n">
+        <v>285.005</v>
+      </c>
+      <c r="H435" t="n">
+        <v>286.7122222222222</v>
+      </c>
+      <c r="I435" t="n">
+        <v>282.93</v>
+      </c>
+      <c r="J435" t="n">
+        <v>275.5333333333334</v>
+      </c>
+      <c r="K435" t="n">
+        <v>278.14</v>
+      </c>
+      <c r="L435" t="n">
+        <v>266.8333333333333</v>
+      </c>
+      <c r="M435" t="n">
+        <v>263.165</v>
+      </c>
+      <c r="N435" t="n">
+        <v>255.9</v>
+      </c>
+      <c r="O435" t="n">
+        <v>258.4744444444444</v>
+      </c>
+      <c r="P435" t="n">
+        <v>261.5544444444445</v>
+      </c>
+      <c r="Q435" t="n">
+        <v>264.9544444444444</v>
+      </c>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>439.8</v>
+      </c>
+      <c r="C436" t="n">
+        <v>518.0600000000001</v>
+      </c>
+      <c r="D436" t="n">
+        <v>332.56</v>
+      </c>
+      <c r="E436" t="n">
+        <v>309.73</v>
+      </c>
+      <c r="F436" t="n">
+        <v>274.3466666666667</v>
+      </c>
+      <c r="G436" t="n">
+        <v>275.395</v>
+      </c>
+      <c r="H436" t="n">
+        <v>276.2211111111111</v>
+      </c>
+      <c r="I436" t="n">
+        <v>273.64</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>283.4</v>
+      </c>
+      <c r="L436" t="n">
+        <v>286.8566666666667</v>
+      </c>
+      <c r="M436" t="n">
+        <v>274.485</v>
+      </c>
+      <c r="N436" t="n">
+        <v>274.85</v>
+      </c>
+      <c r="O436" t="n">
+        <v>266.9222222222222</v>
+      </c>
+      <c r="P436" t="n">
+        <v>269.0322222222222</v>
+      </c>
+      <c r="Q436" t="n">
+        <v>282.7222222222222</v>
+      </c>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>428.34</v>
+      </c>
+      <c r="C437" t="n">
+        <v>505.81</v>
+      </c>
+      <c r="D437" t="n">
+        <v>327.37</v>
+      </c>
+      <c r="E437" t="n">
+        <v>306.82</v>
+      </c>
+      <c r="F437" t="n">
+        <v>270.8666666666667</v>
+      </c>
+      <c r="G437" t="n">
+        <v>276.695</v>
+      </c>
+      <c r="H437" t="n">
+        <v>278.3877777777778</v>
+      </c>
+      <c r="I437" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="J437" t="n">
+        <v>285.2766666666667</v>
+      </c>
+      <c r="K437" t="n">
+        <v>282.13</v>
+      </c>
+      <c r="L437" t="n">
+        <v>283.6266666666667</v>
+      </c>
+      <c r="M437" t="n">
+        <v>275.505</v>
+      </c>
+      <c r="N437" t="n">
+        <v>271.82</v>
+      </c>
+      <c r="O437" t="n">
+        <v>264.1555555555556</v>
+      </c>
+      <c r="P437" t="n">
+        <v>268.6955555555556</v>
+      </c>
+      <c r="Q437" t="n">
+        <v>277.6555555555556</v>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23223,7 +23399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B487"/>
+  <dimension ref="A1:B490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28101,6 +28277,36 @@
       </c>
       <c r="B487" t="n">
         <v>-0.79</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -28268,28 +28474,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.451624614421539</v>
+        <v>-0.4697135392042951</v>
       </c>
       <c r="J2" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K2" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01413854176274587</v>
+        <v>0.01553738339318933</v>
       </c>
       <c r="M2" t="n">
-        <v>22.06157688832343</v>
+        <v>22.01811598841986</v>
       </c>
       <c r="N2" t="n">
-        <v>779.6940063491863</v>
+        <v>774.8846546426773</v>
       </c>
       <c r="O2" t="n">
-        <v>27.92300138504431</v>
+        <v>27.8367500732876</v>
       </c>
       <c r="P2" t="n">
-        <v>465.545172376405</v>
+        <v>465.7245758425199</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28340,28 +28546,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>2.780003833632839</v>
+        <v>2.771653868725389</v>
       </c>
       <c r="J3" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K3" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08452141029629778</v>
+        <v>0.08527775629191847</v>
       </c>
       <c r="M3" t="n">
-        <v>50.24268494264428</v>
+        <v>49.85454335041784</v>
       </c>
       <c r="N3" t="n">
-        <v>4818.163296716507</v>
+        <v>4775.347244474669</v>
       </c>
       <c r="O3" t="n">
-        <v>69.41299083540852</v>
+        <v>69.10388733258549</v>
       </c>
       <c r="P3" t="n">
-        <v>445.9888531003636</v>
+        <v>446.0710728690745</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28418,28 +28624,28 @@
         <v>0.0276</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5031223472786822</v>
+        <v>-0.474795682339909</v>
       </c>
       <c r="J4" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K4" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03151736177263376</v>
+        <v>0.02844712531505766</v>
       </c>
       <c r="M4" t="n">
-        <v>16.34382391120463</v>
+        <v>16.33531149629688</v>
       </c>
       <c r="N4" t="n">
-        <v>412.0594234963885</v>
+        <v>411.3877207139589</v>
       </c>
       <c r="O4" t="n">
-        <v>20.29924687017695</v>
+        <v>20.28269510479214</v>
       </c>
       <c r="P4" t="n">
-        <v>321.8049196819784</v>
+        <v>321.5180884404055</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28496,28 +28702,28 @@
         <v>0.0527</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3822560191449471</v>
+        <v>-0.3581645900915513</v>
       </c>
       <c r="J5" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K5" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02158782814563409</v>
+        <v>0.01917898370786886</v>
       </c>
       <c r="M5" t="n">
-        <v>14.55573027281865</v>
+        <v>14.56995961403507</v>
       </c>
       <c r="N5" t="n">
-        <v>346.3048137051813</v>
+        <v>346.0733436987948</v>
       </c>
       <c r="O5" t="n">
-        <v>18.60926687715508</v>
+        <v>18.60304662410958</v>
       </c>
       <c r="P5" t="n">
-        <v>296.1331717292346</v>
+        <v>295.8882359505125</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28568,28 +28774,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.3527161412217878</v>
+        <v>-0.3604723190533246</v>
       </c>
       <c r="J6" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K6" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01392118200798442</v>
+        <v>0.01477923233975287</v>
       </c>
       <c r="M6" t="n">
-        <v>16.22767996860558</v>
+        <v>16.12085913031975</v>
       </c>
       <c r="N6" t="n">
-        <v>438.6362198839004</v>
+        <v>434.8529384373314</v>
       </c>
       <c r="O6" t="n">
-        <v>20.94364390176409</v>
+        <v>20.85312778547457</v>
       </c>
       <c r="P6" t="n">
-        <v>286.5202947354917</v>
+        <v>286.6034815142035</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28646,28 +28852,28 @@
         <v>0.1182</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06412173417537079</v>
+        <v>-0.06827348441200973</v>
       </c>
       <c r="J7" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K7" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006389151860481945</v>
+        <v>0.0007363828214260737</v>
       </c>
       <c r="M7" t="n">
-        <v>13.89899912001008</v>
+        <v>13.82122101068643</v>
       </c>
       <c r="N7" t="n">
-        <v>324.1194591693567</v>
+        <v>321.4616313888332</v>
       </c>
       <c r="O7" t="n">
-        <v>18.00331800445009</v>
+        <v>17.9293511145505</v>
       </c>
       <c r="P7" t="n">
-        <v>283.0880879108535</v>
+        <v>283.1322351488245</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28718,28 +28924,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.1226444254130476</v>
+        <v>0.1200960792846636</v>
       </c>
       <c r="J8" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K8" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003996768867157496</v>
+        <v>0.003895884697710739</v>
       </c>
       <c r="M8" t="n">
-        <v>10.39883675042141</v>
+        <v>10.35092037130366</v>
       </c>
       <c r="N8" t="n">
-        <v>195.1172126602011</v>
+        <v>193.6222312705386</v>
       </c>
       <c r="O8" t="n">
-        <v>13.96843629975099</v>
+        <v>13.91482056192384</v>
       </c>
       <c r="P8" t="n">
-        <v>278.8101910457829</v>
+        <v>278.8365130150469</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28796,28 +29002,28 @@
         <v>0.1475</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008977339200228302</v>
+        <v>0.01201700770064989</v>
       </c>
       <c r="J9" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K9" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L9" t="n">
-        <v>1.783987337722337e-05</v>
+        <v>3.246125188438587e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>12.09259675718165</v>
+        <v>12.02873107729143</v>
       </c>
       <c r="N9" t="n">
-        <v>237.9156771856169</v>
+        <v>236.2688302290705</v>
       </c>
       <c r="O9" t="n">
-        <v>15.42451546031891</v>
+        <v>15.37103868413161</v>
       </c>
       <c r="P9" t="n">
-        <v>273.4131756374676</v>
+        <v>273.3823536445898</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28874,28 +29080,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04005101714016755</v>
+        <v>0.06607625726726007</v>
       </c>
       <c r="J10" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K10" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001430442279338751</v>
+        <v>0.0003920264057024614</v>
       </c>
       <c r="M10" t="n">
-        <v>18.26410161999426</v>
+        <v>18.29890645585667</v>
       </c>
       <c r="N10" t="n">
-        <v>554.4733664291166</v>
+        <v>554.1301382284967</v>
       </c>
       <c r="O10" t="n">
-        <v>23.54725815098472</v>
+        <v>23.53996895130698</v>
       </c>
       <c r="P10" t="n">
-        <v>257.4698122943757</v>
+        <v>257.1953157262271</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28952,28 +29158,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3577477345507277</v>
+        <v>-0.3170799464107897</v>
       </c>
       <c r="J11" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K11" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01153932020868753</v>
+        <v>0.009161158406635894</v>
       </c>
       <c r="M11" t="n">
-        <v>18.4705965525957</v>
+        <v>18.5259955733903</v>
       </c>
       <c r="N11" t="n">
-        <v>579.3294579424421</v>
+        <v>579.5045374299226</v>
       </c>
       <c r="O11" t="n">
-        <v>24.06926375987521</v>
+        <v>24.0729004781294</v>
       </c>
       <c r="P11" t="n">
-        <v>265.6955690743408</v>
+        <v>265.2801337157787</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29024,28 +29230,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.3192854755621582</v>
+        <v>-0.2729332313300889</v>
       </c>
       <c r="J12" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K12" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003292705093855264</v>
+        <v>0.002444322129240617</v>
       </c>
       <c r="M12" t="n">
-        <v>29.5460929044752</v>
+        <v>29.42080544244907</v>
       </c>
       <c r="N12" t="n">
-        <v>1589.011810283292</v>
+        <v>1580.22358829491</v>
       </c>
       <c r="O12" t="n">
-        <v>39.86241099436024</v>
+        <v>39.75202621621833</v>
       </c>
       <c r="P12" t="n">
-        <v>262.4249774093302</v>
+        <v>261.9416618072261</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29102,28 +29308,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.251202977374634</v>
+        <v>-0.2192362285316882</v>
       </c>
       <c r="J13" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K13" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001921235409075517</v>
+        <v>0.001492720842460438</v>
       </c>
       <c r="M13" t="n">
-        <v>29.76429795312483</v>
+        <v>29.56995304111804</v>
       </c>
       <c r="N13" t="n">
-        <v>1713.810181387765</v>
+        <v>1699.288410754842</v>
       </c>
       <c r="O13" t="n">
-        <v>41.39819055692852</v>
+        <v>41.22242606585451</v>
       </c>
       <c r="P13" t="n">
-        <v>261.4421786975492</v>
+        <v>261.1170327730705</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29174,28 +29380,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.08576486727414226</v>
+        <v>-0.07315166740578959</v>
       </c>
       <c r="J14" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K14" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004146134155418313</v>
+        <v>0.0003073900989091216</v>
       </c>
       <c r="M14" t="n">
-        <v>20.83713723011247</v>
+        <v>20.72511173219396</v>
       </c>
       <c r="N14" t="n">
-        <v>940.1470156852668</v>
+        <v>932.2991292431672</v>
       </c>
       <c r="O14" t="n">
-        <v>30.66181690124163</v>
+        <v>30.5335738039812</v>
       </c>
       <c r="P14" t="n">
-        <v>262.9594080005056</v>
+        <v>262.8327711907984</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29252,28 +29458,28 @@
         <v>0.0605</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2852408475437494</v>
+        <v>-0.2687750476169901</v>
       </c>
       <c r="J15" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K15" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01198467820282134</v>
+        <v>0.01080779987836167</v>
       </c>
       <c r="M15" t="n">
-        <v>14.94670233263377</v>
+        <v>14.89920572177197</v>
       </c>
       <c r="N15" t="n">
-        <v>354.9807404571996</v>
+        <v>353.0673238230824</v>
       </c>
       <c r="O15" t="n">
-        <v>18.84093257928597</v>
+        <v>18.79008578541041</v>
       </c>
       <c r="P15" t="n">
-        <v>260.1369990436038</v>
+        <v>259.9717859822715</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29330,28 +29536,28 @@
         <v>0.0532</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3244384402395148</v>
+        <v>-0.3056991881378726</v>
       </c>
       <c r="J16" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K16" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01746863419799771</v>
+        <v>0.01573987912319452</v>
       </c>
       <c r="M16" t="n">
-        <v>14.20380045743405</v>
+        <v>14.17626439797775</v>
       </c>
       <c r="N16" t="n">
-        <v>308.0463257657509</v>
+        <v>306.7791947397299</v>
       </c>
       <c r="O16" t="n">
-        <v>17.55124855290218</v>
+        <v>17.51511332363368</v>
       </c>
       <c r="P16" t="n">
-        <v>262.9186330477882</v>
+        <v>262.7283038704725</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29402,28 +29608,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.3874383910620054</v>
+        <v>-0.3599792452973942</v>
       </c>
       <c r="J17" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K17" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02496285017165134</v>
+        <v>0.02181947404907458</v>
       </c>
       <c r="M17" t="n">
-        <v>13.34707685246929</v>
+        <v>13.36293990059062</v>
       </c>
       <c r="N17" t="n">
-        <v>301.5606545779282</v>
+        <v>301.5502638175901</v>
       </c>
       <c r="O17" t="n">
-        <v>17.365501852176</v>
+        <v>17.36520267136523</v>
       </c>
       <c r="P17" t="n">
-        <v>269.198569524787</v>
+        <v>268.9144721130573</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29461,7 +29667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R434"/>
+  <dimension ref="A1:R437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62805,6 +63011,274 @@
         </is>
       </c>
     </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>-46.56240771261958,169.56254614724483</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>-46.56092321284292,169.56109232162737</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>-46.56055534580628,169.56027262909487</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>-46.56034757762726,169.5594132579941</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>-46.560358891693824,169.55849958256417</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>-46.56028870773981,169.55761060732286</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>-46.5601618256934,169.55673654205714</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>-46.5600017741092,169.555866939736</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>-46.559930102745184,169.55497303099295</t>
+        </is>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>-46.559735439283166,169.55411231706287</t>
+        </is>
+      </c>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t>-46.5596082976576,169.55323338049553</t>
+        </is>
+      </c>
+      <c r="N435" t="inlineStr">
+        <is>
+          <t>-46.55944793759452,169.55235019776168</t>
+        </is>
+      </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>-46.55938721948077,169.5514129673348</t>
+        </is>
+      </c>
+      <c r="P435" t="inlineStr">
+        <is>
+          <t>-46.55936771185623,169.55048398612234</t>
+        </is>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>-46.55935304521128,169.54958350676628</t>
+        </is>
+      </c>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>-46.56215963162807,169.56260763278712</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>-46.562767510306884,169.56154608042112</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>-46.56103763648699,169.56106396114916</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>-46.56074953776865,169.56022449597305</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>-46.56035017748521,169.55941261356097</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>-46.56027371695465,169.5585206960241</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>-46.56019583252969,169.5576345615624</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>-46.5600796933757,169.55675862916812</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>-46.55997660046473,169.5549604818127</t>
+        </is>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>-46.55991244263771,169.55406454408566</t>
+        </is>
+      </c>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>-46.5597083646331,169.5532063715247</t>
+        </is>
+      </c>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>-46.55961582103213,169.55230795470462</t>
+        </is>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>-46.55946252525881,169.55139854379846</t>
+        </is>
+      </c>
+      <c r="P436" t="inlineStr">
+        <is>
+          <t>-46.5594345928741,169.5504739527513</t>
+        </is>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>-46.55951195947382,169.54955966486278</t>
+        </is>
+      </c>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>-46.56205805932998,169.562632806752</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>-46.562658936337805,169.56157299167916</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>-46.560991636588156,169.56107536247276</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>-46.56072374595823,169.56023088884695</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>-46.56031933371541,169.55942025887668</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>-46.56028523903214,169.55851783988916</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>-46.56021501349415,169.55762961444344</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>-46.560049280545826,169.5567668077998</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>-46.56008790407544,169.55584369523714</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>-46.559965373829236,169.55496351175006</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>-46.5598838899097,169.55407225045394</t>
+        </is>
+      </c>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>-46.55971738126819,169.55320393784882</t>
+        </is>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>-46.559588977402484,169.5523147091548</t>
+        </is>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>-46.55943786244358,169.55140326754486</t>
+        </is>
+      </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>-46.55943158173769,169.55047440447726</t>
+        </is>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>-46.55946664341998,169.54956646364647</t>
+        </is>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0545/nzd0545.xlsx
+++ b/data/nzd0545/nzd0545.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R437"/>
+  <dimension ref="A1:R440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23388,6 +23388,174 @@
         </is>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>488.25</v>
+      </c>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="n">
+        <v>332.18</v>
+      </c>
+      <c r="E438" t="n">
+        <v>296.38</v>
+      </c>
+      <c r="F438" t="n">
+        <v>276.9133333333333</v>
+      </c>
+      <c r="G438" t="n">
+        <v>284.895</v>
+      </c>
+      <c r="H438" t="n">
+        <v>284.6322222222223</v>
+      </c>
+      <c r="I438" t="n">
+        <v>275.4</v>
+      </c>
+      <c r="J438" t="n">
+        <v>259.7933333333333</v>
+      </c>
+      <c r="K438" t="n">
+        <v>265.45</v>
+      </c>
+      <c r="L438" t="n">
+        <v>250.5733333333333</v>
+      </c>
+      <c r="M438" t="n">
+        <v>243.975</v>
+      </c>
+      <c r="N438" t="n">
+        <v>248.67</v>
+      </c>
+      <c r="O438" t="n">
+        <v>264.3444444444444</v>
+      </c>
+      <c r="P438" t="n">
+        <v>265.4244444444444</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>261.3944444444444</v>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>484.35</v>
+      </c>
+      <c r="C439" t="n">
+        <v>324.57</v>
+      </c>
+      <c r="D439" t="n">
+        <v>299.73</v>
+      </c>
+      <c r="E439" t="n">
+        <v>293.59</v>
+      </c>
+      <c r="F439" t="n">
+        <v>279.25</v>
+      </c>
+      <c r="G439" t="n">
+        <v>290.785</v>
+      </c>
+      <c r="H439" t="n">
+        <v>291.7266666666667</v>
+      </c>
+      <c r="I439" t="n">
+        <v>292.03</v>
+      </c>
+      <c r="J439" t="n">
+        <v>272.24</v>
+      </c>
+      <c r="K439" t="n">
+        <v>266.04</v>
+      </c>
+      <c r="L439" t="n">
+        <v>264.26</v>
+      </c>
+      <c r="M439" t="n">
+        <v>251.745</v>
+      </c>
+      <c r="N439" t="n">
+        <v>256.05</v>
+      </c>
+      <c r="O439" t="n">
+        <v>264.8333333333333</v>
+      </c>
+      <c r="P439" t="n">
+        <v>270.1133333333333</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>269.6733333333333</v>
+      </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:27+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>507.6</v>
+      </c>
+      <c r="C440" t="n">
+        <v>301.68</v>
+      </c>
+      <c r="D440" t="n">
+        <v>279.64</v>
+      </c>
+      <c r="E440" t="n">
+        <v>284.62</v>
+      </c>
+      <c r="F440" t="n">
+        <v>274.39</v>
+      </c>
+      <c r="G440" t="n">
+        <v>284.365</v>
+      </c>
+      <c r="H440" t="n">
+        <v>283.3033333333333</v>
+      </c>
+      <c r="I440" t="n">
+        <v>270.38</v>
+      </c>
+      <c r="J440" t="n">
+        <v>233.03</v>
+      </c>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
+      <c r="M440" t="inlineStr"/>
+      <c r="N440" t="inlineStr"/>
+      <c r="O440" t="inlineStr"/>
+      <c r="P440" t="n">
+        <v>241.8666666666666</v>
+      </c>
+      <c r="Q440" t="n">
+        <v>266.5066666666667</v>
+      </c>
+      <c r="R440" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23399,7 +23567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B490"/>
+  <dimension ref="A1:B493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28307,6 +28475,36 @@
       </c>
       <c r="B490" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -28474,28 +28672,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.4697135392042951</v>
+        <v>-0.3886037049099305</v>
       </c>
       <c r="J2" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K2" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01553738339318933</v>
+        <v>0.01067132990714381</v>
       </c>
       <c r="M2" t="n">
-        <v>22.01811598841986</v>
+        <v>22.19449329721122</v>
       </c>
       <c r="N2" t="n">
-        <v>774.8846546426773</v>
+        <v>784.3257265612929</v>
       </c>
       <c r="O2" t="n">
-        <v>27.8367500732876</v>
+        <v>28.00581594171634</v>
       </c>
       <c r="P2" t="n">
-        <v>465.7245758425199</v>
+        <v>464.9166123655309</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28546,28 +28744,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>2.771653868725389</v>
+        <v>2.457712516970398</v>
       </c>
       <c r="J3" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K3" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08527775629191847</v>
+        <v>0.06466265669564719</v>
       </c>
       <c r="M3" t="n">
-        <v>49.85454335041784</v>
+        <v>51.72217956393623</v>
       </c>
       <c r="N3" t="n">
-        <v>4775.347244474669</v>
+        <v>5097.617319047476</v>
       </c>
       <c r="O3" t="n">
-        <v>69.10388733258549</v>
+        <v>71.39760023311341</v>
       </c>
       <c r="P3" t="n">
-        <v>446.0710728690745</v>
+        <v>449.1817262017661</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28624,28 +28822,28 @@
         <v>0.0276</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.474795682339909</v>
+        <v>-0.4834758524099085</v>
       </c>
       <c r="J4" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K4" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02844712531505766</v>
+        <v>0.02965909731692529</v>
       </c>
       <c r="M4" t="n">
-        <v>16.33531149629688</v>
+        <v>16.37651761356661</v>
       </c>
       <c r="N4" t="n">
-        <v>411.3877207139589</v>
+        <v>412.092027519621</v>
       </c>
       <c r="O4" t="n">
-        <v>20.28269510479214</v>
+        <v>20.30004993884549</v>
       </c>
       <c r="P4" t="n">
-        <v>321.5180884404055</v>
+        <v>321.6067332848526</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28702,28 +28900,28 @@
         <v>0.0527</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3581645900915513</v>
+        <v>-0.3505493439562073</v>
       </c>
       <c r="J5" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K5" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01917898370786886</v>
+        <v>0.01866888512489639</v>
       </c>
       <c r="M5" t="n">
-        <v>14.56995961403507</v>
+        <v>14.50641501824474</v>
       </c>
       <c r="N5" t="n">
-        <v>346.0733436987948</v>
+        <v>343.6902785939522</v>
       </c>
       <c r="O5" t="n">
-        <v>18.60304662410958</v>
+        <v>18.53888558123039</v>
       </c>
       <c r="P5" t="n">
-        <v>295.8882359505125</v>
+        <v>295.8105154551504</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28774,28 +28972,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.3604723190533246</v>
+        <v>-0.3612940364718292</v>
       </c>
       <c r="J6" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K6" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01477923233975287</v>
+        <v>0.01510046671502552</v>
       </c>
       <c r="M6" t="n">
-        <v>16.12085913031975</v>
+        <v>15.99189225598414</v>
       </c>
       <c r="N6" t="n">
-        <v>434.8529384373314</v>
+        <v>430.9843794189392</v>
       </c>
       <c r="O6" t="n">
-        <v>20.85312778547457</v>
+        <v>20.76016328016086</v>
       </c>
       <c r="P6" t="n">
-        <v>286.6034815142035</v>
+        <v>286.6123400530641</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28852,28 +29050,28 @@
         <v>0.1182</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06827348441200973</v>
+        <v>-0.0592910211172513</v>
       </c>
       <c r="J7" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K7" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007363828214260737</v>
+        <v>0.0005644308616581384</v>
       </c>
       <c r="M7" t="n">
-        <v>13.82122101068643</v>
+        <v>13.73935493507139</v>
       </c>
       <c r="N7" t="n">
-        <v>321.4616313888332</v>
+        <v>318.9568430846051</v>
       </c>
       <c r="O7" t="n">
-        <v>17.9293511145505</v>
+        <v>17.85936289694022</v>
       </c>
       <c r="P7" t="n">
-        <v>283.1322351488245</v>
+        <v>283.0363050117809</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28924,28 +29122,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.1200960792846636</v>
+        <v>0.1277397083930411</v>
       </c>
       <c r="J8" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K8" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003895884697710739</v>
+        <v>0.004474054289047569</v>
       </c>
       <c r="M8" t="n">
-        <v>10.35092037130366</v>
+        <v>10.29595066478791</v>
       </c>
       <c r="N8" t="n">
-        <v>193.6222312705386</v>
+        <v>192.2545888133793</v>
       </c>
       <c r="O8" t="n">
-        <v>13.91482056192384</v>
+        <v>13.86559009971733</v>
       </c>
       <c r="P8" t="n">
-        <v>278.8365130150469</v>
+        <v>278.7572559264584</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29002,28 +29200,28 @@
         <v>0.1475</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01201700770064989</v>
+        <v>0.020631234723554</v>
       </c>
       <c r="J9" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K9" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L9" t="n">
-        <v>3.246125188438587e-05</v>
+        <v>9.686363063476922e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>12.02873107729143</v>
+        <v>11.99251860490122</v>
       </c>
       <c r="N9" t="n">
-        <v>236.2688302290705</v>
+        <v>235.311607670881</v>
       </c>
       <c r="O9" t="n">
-        <v>15.37103868413161</v>
+        <v>15.3398698713803</v>
       </c>
       <c r="P9" t="n">
-        <v>273.3823536445898</v>
+        <v>273.2944271204615</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29080,28 +29278,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06607625726726007</v>
+        <v>0.05927218805513472</v>
       </c>
       <c r="J10" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K10" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003920264057024614</v>
+        <v>0.0003198725621744725</v>
       </c>
       <c r="M10" t="n">
-        <v>18.29890645585667</v>
+        <v>18.25304752328634</v>
       </c>
       <c r="N10" t="n">
-        <v>554.1301382284967</v>
+        <v>551.7930952029615</v>
       </c>
       <c r="O10" t="n">
-        <v>23.53996895130698</v>
+        <v>23.49027660975838</v>
       </c>
       <c r="P10" t="n">
-        <v>257.1953157262271</v>
+        <v>257.2674806341543</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29158,28 +29356,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3170799464107897</v>
+        <v>-0.3076861197260971</v>
       </c>
       <c r="J11" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K11" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009161158406635894</v>
+        <v>0.0087217958966751</v>
       </c>
       <c r="M11" t="n">
-        <v>18.5259955733903</v>
+        <v>18.46943829173635</v>
       </c>
       <c r="N11" t="n">
-        <v>579.5045374299226</v>
+        <v>576.6198284063713</v>
       </c>
       <c r="O11" t="n">
-        <v>24.0729004781294</v>
+        <v>24.01290961975186</v>
       </c>
       <c r="P11" t="n">
-        <v>265.2801337157787</v>
+        <v>265.1837233341329</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29230,28 +29428,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.2729332313300889</v>
+        <v>-0.2698407427794196</v>
       </c>
       <c r="J12" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K12" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002444322129240617</v>
+        <v>0.002418953300376447</v>
       </c>
       <c r="M12" t="n">
-        <v>29.42080544244907</v>
+        <v>29.2714636118743</v>
       </c>
       <c r="N12" t="n">
-        <v>1580.22358829491</v>
+        <v>1570.465210196939</v>
       </c>
       <c r="O12" t="n">
-        <v>39.75202621621833</v>
+        <v>39.62909550061594</v>
       </c>
       <c r="P12" t="n">
-        <v>261.9416618072261</v>
+        <v>261.9091832275101</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29308,28 +29506,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2192362285316882</v>
+        <v>-0.2292170048871044</v>
       </c>
       <c r="J13" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K13" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001492720842460438</v>
+        <v>0.001653730715110435</v>
       </c>
       <c r="M13" t="n">
-        <v>29.56995304111804</v>
+        <v>29.43806243152555</v>
       </c>
       <c r="N13" t="n">
-        <v>1699.288410754842</v>
+        <v>1688.3665410576</v>
       </c>
       <c r="O13" t="n">
-        <v>41.22242606585451</v>
+        <v>41.08973766109489</v>
       </c>
       <c r="P13" t="n">
-        <v>261.1170327730705</v>
+        <v>261.2189410009319</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29380,28 +29578,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.07315166740578959</v>
+        <v>-0.08370002662163556</v>
       </c>
       <c r="J14" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K14" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003073900989091216</v>
+        <v>0.000407468642623865</v>
       </c>
       <c r="M14" t="n">
-        <v>20.72511173219396</v>
+        <v>20.65521313786039</v>
       </c>
       <c r="N14" t="n">
-        <v>932.2991292431672</v>
+        <v>926.9764800486302</v>
       </c>
       <c r="O14" t="n">
-        <v>30.5335738039812</v>
+        <v>30.44628844454822</v>
       </c>
       <c r="P14" t="n">
-        <v>262.8327711907984</v>
+        <v>262.939051380257</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29458,28 +29656,28 @@
         <v>0.0605</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2687750476169901</v>
+        <v>-0.2566513687842771</v>
       </c>
       <c r="J15" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K15" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01080779987836167</v>
+        <v>0.009955046571521242</v>
       </c>
       <c r="M15" t="n">
-        <v>14.89920572177197</v>
+        <v>14.87317342880933</v>
       </c>
       <c r="N15" t="n">
-        <v>353.0673238230824</v>
+        <v>351.8825369320369</v>
       </c>
       <c r="O15" t="n">
-        <v>18.79008578541041</v>
+        <v>18.75853237681554</v>
       </c>
       <c r="P15" t="n">
-        <v>259.9717859822715</v>
+        <v>259.8496105729855</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29536,28 +29734,28 @@
         <v>0.0532</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3056991881378726</v>
+        <v>-0.2990404194500854</v>
       </c>
       <c r="J16" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K16" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01573987912319452</v>
+        <v>0.0152547117868792</v>
       </c>
       <c r="M16" t="n">
-        <v>14.17626439797775</v>
+        <v>14.16382439753935</v>
       </c>
       <c r="N16" t="n">
-        <v>306.7791947397299</v>
+        <v>305.7064810993105</v>
       </c>
       <c r="O16" t="n">
-        <v>17.51511332363368</v>
+        <v>17.48446399233647</v>
       </c>
       <c r="P16" t="n">
-        <v>262.7283038704725</v>
+        <v>262.6604355604518</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29608,28 +29806,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.3599792452973942</v>
+        <v>-0.3493873080254213</v>
       </c>
       <c r="J17" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K17" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02181947404907458</v>
+        <v>0.02091160760222976</v>
       </c>
       <c r="M17" t="n">
-        <v>13.36293990059062</v>
+        <v>13.29869805825548</v>
       </c>
       <c r="N17" t="n">
-        <v>301.5502638175901</v>
+        <v>299.3499558102161</v>
       </c>
       <c r="O17" t="n">
-        <v>17.36520267136523</v>
+        <v>17.30173274011063</v>
       </c>
       <c r="P17" t="n">
-        <v>268.9144721130573</v>
+        <v>268.8043228034345</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29667,7 +29865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R437"/>
+  <dimension ref="A1:R440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63279,6 +63477,258 @@
         </is>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>-46.562589053672646,169.5625012024345</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>-46.561034268479055,169.5610647959289</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>-46.56063121450958,169.56025382405033</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>-46.560372926242074,169.5594069747683</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>-46.56035791674888,169.5584998242379</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>-46.56027029401528,169.55761535657135</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>-46.56009525342781,169.556754444748</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>-46.559862634270424,169.5559044902055</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>-46.55981792477748,169.55500330638935</t>
+        </is>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>-46.55959170322377,169.5541511109812</t>
+        </is>
+      </c>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t>-46.5594386611265,169.55327916665416</t>
+        </is>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>-46.55938388496191,169.55236631469342</t>
+        </is>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>-46.55943954625025,169.55140294504022</t>
+        </is>
+      </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t>-46.55940232501925,169.55047879352105</t>
+        </is>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>-46.55932120471846,169.54958828377465</t>
+        </is>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>-46.562554487198604,169.5625097696528</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>-46.561052572107826,169.5619711325258</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>-46.56074665828849,169.56113608129928</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>-46.560606486276264,169.56025995327104</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>-46.56039363647352,169.5594018412655</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>-46.560410120617995,169.5584868836944</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>-46.560333099372386,169.55759915786456</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>-46.56024227822597,169.5567149066026</t>
+        </is>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>-46.55997266141272,169.555874796565</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>-46.55982314030188,169.55500189878924</t>
+        </is>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>-46.55971269138838,169.55411845666484</t>
+        </is>
+      </c>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>-46.559507346687546,169.55326062795044</t>
+        </is>
+      </c>
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>-46.559449266487256,169.55234986338507</t>
+        </is>
+      </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>-46.55944390433811,169.5514021103223</t>
+        </is>
+      </c>
+      <c r="P439" t="inlineStr">
+        <is>
+          <t>-46.559444262298946,169.55047250215898</t>
+        </is>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>-46.55939525075768,169.5495771746854</t>
+        </is>
+      </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:27+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>-46.562760556546635,169.5624586956723</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>-46.56084969355954,169.5620214145101</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>-46.5605685969641,169.5611802141022</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>-46.56052698367284,169.5602796590031</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>-46.56035056155514,169.55941251836063</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>-46.56035321928684,169.55850098866577</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>-46.560258529691104,169.5576183908116</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>-46.56005087191485,169.5567663798484</t>
+        </is>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>-46.55962604935179,169.55596833824094</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
+      <c r="M440" t="inlineStr"/>
+      <c r="N440" t="inlineStr"/>
+      <c r="O440" t="inlineStr"/>
+      <c r="P440" t="inlineStr">
+        <is>
+          <t>-46.559191624957826,169.55051040222298</t>
+        </is>
+      </c>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>-46.55936692822253,169.5495814239051</t>
+        </is>
+      </c>
+      <c r="R440" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0545/nzd0545.xlsx
+++ b/data/nzd0545/nzd0545.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55382,7 +55382,7 @@
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
-          <t>-46.55953443004366,169.55507981735656</t>
+          <t>-46.55953443004367,169.55507981735656</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -55872,7 +55872,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>-46.56064991578959,169.5602491886858</t>
+          <t>-46.5606499157896,169.5602491886858</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -57195,7 +57195,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>-46.560959108720176,169.56108342466746</t>
+          <t>-46.56095910872017,169.56108342466746</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">

--- a/data/nzd0545/nzd0545.xlsx
+++ b/data/nzd0545/nzd0545.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R440"/>
+  <dimension ref="A1:R441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23556,6 +23556,52 @@
         </is>
       </c>
     </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="n">
+        <v>291.53</v>
+      </c>
+      <c r="G441" t="n">
+        <v>290.45</v>
+      </c>
+      <c r="H441" t="n">
+        <v>291.5366666666667</v>
+      </c>
+      <c r="I441" t="n">
+        <v>289.23</v>
+      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>322.17</v>
+      </c>
+      <c r="L441" t="n">
+        <v>317.97</v>
+      </c>
+      <c r="M441" t="n">
+        <v>296.42</v>
+      </c>
+      <c r="N441" t="n">
+        <v>300.36</v>
+      </c>
+      <c r="O441" t="n">
+        <v>299.7333333333333</v>
+      </c>
+      <c r="P441" t="inlineStr"/>
+      <c r="Q441" t="inlineStr"/>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23567,7 +23613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B493"/>
+  <dimension ref="A1:B494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28505,6 +28551,16 @@
       </c>
       <c r="B493" t="n">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -28675,7 +28731,7 @@
         <v>-0.3886037049099305</v>
       </c>
       <c r="J2" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K2" t="n">
         <v>273</v>
@@ -28747,7 +28803,7 @@
         <v>2.457712516970398</v>
       </c>
       <c r="J3" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K3" t="n">
         <v>224</v>
@@ -28825,7 +28881,7 @@
         <v>-0.4834758524099085</v>
       </c>
       <c r="J4" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K4" t="n">
         <v>365</v>
@@ -28903,7 +28959,7 @@
         <v>-0.3505493439562073</v>
       </c>
       <c r="J5" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K5" t="n">
         <v>375</v>
@@ -28972,28 +29028,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.3612940364718292</v>
+        <v>-0.35305812821692</v>
       </c>
       <c r="J6" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K6" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01510046671502552</v>
+        <v>0.01449133037167571</v>
       </c>
       <c r="M6" t="n">
-        <v>15.99189225598414</v>
+        <v>15.98613242291691</v>
       </c>
       <c r="N6" t="n">
-        <v>430.9843794189392</v>
+        <v>430.2979642863547</v>
       </c>
       <c r="O6" t="n">
-        <v>20.76016328016086</v>
+        <v>20.74362466605956</v>
       </c>
       <c r="P6" t="n">
-        <v>286.6123400530641</v>
+        <v>286.5233240946835</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29050,28 +29106,28 @@
         <v>0.1182</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0592910211172513</v>
+        <v>-0.05426018599465562</v>
       </c>
       <c r="J7" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K7" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005644308616581384</v>
+        <v>0.0004750662241389536</v>
       </c>
       <c r="M7" t="n">
-        <v>13.73935493507139</v>
+        <v>13.72160499187091</v>
       </c>
       <c r="N7" t="n">
-        <v>318.9568430846051</v>
+        <v>318.2581634907287</v>
       </c>
       <c r="O7" t="n">
-        <v>17.85936289694022</v>
+        <v>17.83979157643746</v>
       </c>
       <c r="P7" t="n">
-        <v>283.0363050117809</v>
+        <v>282.9824326139897</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29122,28 +29178,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.1277397083930411</v>
+        <v>0.1329465659161755</v>
       </c>
       <c r="J8" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K8" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004474054289047569</v>
+        <v>0.004865228243258746</v>
       </c>
       <c r="M8" t="n">
-        <v>10.29595066478791</v>
+        <v>10.28950482242361</v>
       </c>
       <c r="N8" t="n">
-        <v>192.2545888133793</v>
+        <v>191.9600613927007</v>
       </c>
       <c r="O8" t="n">
-        <v>13.86559009971733</v>
+        <v>13.85496522524329</v>
       </c>
       <c r="P8" t="n">
-        <v>278.7572559264584</v>
+        <v>278.7031221318251</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29200,28 +29256,28 @@
         <v>0.1475</v>
       </c>
       <c r="I9" t="n">
-        <v>0.020631234723554</v>
+        <v>0.02853546853633627</v>
       </c>
       <c r="J9" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K9" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L9" t="n">
-        <v>9.686363063476922e-05</v>
+        <v>0.00018579106588823</v>
       </c>
       <c r="M9" t="n">
-        <v>11.99251860490122</v>
+        <v>11.99977320276604</v>
       </c>
       <c r="N9" t="n">
-        <v>235.311607670881</v>
+        <v>235.3117427773104</v>
       </c>
       <c r="O9" t="n">
-        <v>15.3398698713803</v>
+        <v>15.3398742751468</v>
       </c>
       <c r="P9" t="n">
-        <v>273.2944271204615</v>
+        <v>273.2135476086236</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29281,7 +29337,7 @@
         <v>0.05927218805513472</v>
       </c>
       <c r="J10" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K10" t="n">
         <v>349</v>
@@ -29356,28 +29412,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3076861197260971</v>
+        <v>-0.2724027576650386</v>
       </c>
       <c r="J11" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K11" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0087217958966751</v>
+        <v>0.006748989632653357</v>
       </c>
       <c r="M11" t="n">
-        <v>18.46943829173635</v>
+        <v>18.6017826055638</v>
       </c>
       <c r="N11" t="n">
-        <v>576.6198284063713</v>
+        <v>586.8562665069915</v>
       </c>
       <c r="O11" t="n">
-        <v>24.01290961975186</v>
+        <v>24.22511643949295</v>
       </c>
       <c r="P11" t="n">
-        <v>265.1837233341329</v>
+        <v>264.8204161149297</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29428,28 +29484,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.2698407427794196</v>
+        <v>-0.2311779564755934</v>
       </c>
       <c r="J12" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K12" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002418953300376447</v>
+        <v>0.001773506861749596</v>
       </c>
       <c r="M12" t="n">
-        <v>29.2714636118743</v>
+        <v>29.31355299825127</v>
       </c>
       <c r="N12" t="n">
-        <v>1570.465210196939</v>
+        <v>1577.994728114244</v>
       </c>
       <c r="O12" t="n">
-        <v>39.62909550061594</v>
+        <v>39.72398177567607</v>
       </c>
       <c r="P12" t="n">
-        <v>261.9091832275101</v>
+        <v>261.5029178480588</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29506,28 +29562,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2292170048871044</v>
+        <v>-0.202345521548088</v>
       </c>
       <c r="J13" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K13" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001653730715110435</v>
+        <v>0.001293766438488553</v>
       </c>
       <c r="M13" t="n">
-        <v>29.43806243152555</v>
+        <v>29.43467973902398</v>
       </c>
       <c r="N13" t="n">
-        <v>1688.3665410576</v>
+        <v>1688.31623393338</v>
       </c>
       <c r="O13" t="n">
-        <v>41.08973766109489</v>
+        <v>41.08912549487248</v>
       </c>
       <c r="P13" t="n">
-        <v>261.2189410009319</v>
+        <v>260.9435520666752</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29578,28 +29634,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.08370002662163556</v>
+        <v>-0.05945805644052184</v>
       </c>
       <c r="J14" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K14" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000407468642623865</v>
+        <v>0.0002059219430301518</v>
       </c>
       <c r="M14" t="n">
-        <v>20.65521313786039</v>
+        <v>20.6999249535485</v>
       </c>
       <c r="N14" t="n">
-        <v>926.9764800486302</v>
+        <v>928.9344852074622</v>
       </c>
       <c r="O14" t="n">
-        <v>30.44628844454822</v>
+        <v>30.47842655399819</v>
       </c>
       <c r="P14" t="n">
-        <v>262.939051380257</v>
+        <v>262.6939124964855</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29656,28 +29712,28 @@
         <v>0.0605</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2566513687842771</v>
+        <v>-0.232259249126863</v>
       </c>
       <c r="J15" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K15" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L15" t="n">
-        <v>0.009955046571521242</v>
+        <v>0.00808263589807301</v>
       </c>
       <c r="M15" t="n">
-        <v>14.87317342880933</v>
+        <v>14.94101387494342</v>
       </c>
       <c r="N15" t="n">
-        <v>351.8825369320369</v>
+        <v>356.6515793728196</v>
       </c>
       <c r="O15" t="n">
-        <v>18.75853237681554</v>
+        <v>18.8852211894068</v>
       </c>
       <c r="P15" t="n">
-        <v>259.8496105729855</v>
+        <v>259.6030267410171</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29737,7 +29793,7 @@
         <v>-0.2990404194500854</v>
       </c>
       <c r="J16" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K16" t="n">
         <v>381</v>
@@ -29809,7 +29865,7 @@
         <v>-0.3493873080254213</v>
       </c>
       <c r="J17" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K17" t="n">
         <v>344</v>
@@ -29865,7 +29921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R440"/>
+  <dimension ref="A1:R441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63729,6 +63785,70 @@
         </is>
       </c>
     </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>-46.560502475971596,169.5593748628426</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>-46.56040715146761,169.55848761970228</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>-46.56033141734956,169.55759959169106</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>-46.56021752360128,169.55672156367305</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>-46.56031932217923,169.55486798455854</t>
+        </is>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>-46.560187479914084,169.55399031118145</t>
+        </is>
+      </c>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>-46.559902266467816,169.55315403536696</t>
+        </is>
+      </c>
+      <c r="N441" t="inlineStr">
+        <is>
+          <t>-46.559841821332625,169.5522510877361</t>
+        </is>
+      </c>
+      <c r="O441" t="inlineStr">
+        <is>
+          <t>-46.55975501235038,169.55134252244744</t>
+        </is>
+      </c>
+      <c r="P441" t="inlineStr"/>
+      <c r="Q441" t="inlineStr"/>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0545/nzd0545.xlsx
+++ b/data/nzd0545/nzd0545.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R441"/>
+  <dimension ref="A1:R445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23455,9 +23455,7 @@
       <c r="B439" t="n">
         <v>484.35</v>
       </c>
-      <c r="C439" t="n">
-        <v>324.57</v>
-      </c>
+      <c r="C439" t="inlineStr"/>
       <c r="D439" t="n">
         <v>299.73</v>
       </c>
@@ -23515,9 +23513,7 @@
       <c r="B440" t="n">
         <v>507.6</v>
       </c>
-      <c r="C440" t="n">
-        <v>301.68</v>
-      </c>
+      <c r="C440" t="inlineStr"/>
       <c r="D440" t="n">
         <v>279.64</v>
       </c>
@@ -23579,18 +23575,10 @@
         <v>289.23</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="n">
-        <v>322.17</v>
-      </c>
-      <c r="L441" t="n">
-        <v>317.97</v>
-      </c>
-      <c r="M441" t="n">
-        <v>296.42</v>
-      </c>
-      <c r="N441" t="n">
-        <v>300.36</v>
-      </c>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
+      <c r="M441" t="inlineStr"/>
+      <c r="N441" t="inlineStr"/>
       <c r="O441" t="n">
         <v>299.7333333333333</v>
       </c>
@@ -23599,6 +23587,228 @@
       <c r="R441" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>435.59</v>
+      </c>
+      <c r="C442" t="n">
+        <v>507.53</v>
+      </c>
+      <c r="D442" t="n">
+        <v>308.42</v>
+      </c>
+      <c r="E442" t="n">
+        <v>255.97</v>
+      </c>
+      <c r="F442" t="n">
+        <v>245.5833333333333</v>
+      </c>
+      <c r="G442" t="n">
+        <v>251.025</v>
+      </c>
+      <c r="H442" t="n">
+        <v>258.2922222222222</v>
+      </c>
+      <c r="I442" t="n">
+        <v>246.95</v>
+      </c>
+      <c r="J442" t="n">
+        <v>230.9333333333333</v>
+      </c>
+      <c r="K442" t="n">
+        <v>226.95</v>
+      </c>
+      <c r="L442" t="inlineStr"/>
+      <c r="M442" t="inlineStr"/>
+      <c r="N442" t="inlineStr"/>
+      <c r="O442" t="n">
+        <v>261.5044444444445</v>
+      </c>
+      <c r="P442" t="n">
+        <v>251.0044444444445</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>238.6444444444444</v>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>461.8200000000001</v>
+      </c>
+      <c r="C443" t="n">
+        <v>525.3000000000001</v>
+      </c>
+      <c r="D443" t="n">
+        <v>278.13</v>
+      </c>
+      <c r="E443" t="n">
+        <v>269.15</v>
+      </c>
+      <c r="F443" t="n">
+        <v>260.5333333333333</v>
+      </c>
+      <c r="G443" t="n">
+        <v>261.585</v>
+      </c>
+      <c r="H443" t="n">
+        <v>255.6888888888889</v>
+      </c>
+      <c r="I443" t="n">
+        <v>253.94</v>
+      </c>
+      <c r="J443" t="n">
+        <v>222.8033333333333</v>
+      </c>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
+      <c r="M443" t="inlineStr"/>
+      <c r="N443" t="inlineStr"/>
+      <c r="O443" t="n">
+        <v>261.0377777777778</v>
+      </c>
+      <c r="P443" t="n">
+        <v>250.9477777777778</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>243.0877777777778</v>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>456.8</v>
+      </c>
+      <c r="C444" t="n">
+        <v>534.74</v>
+      </c>
+      <c r="D444" t="n">
+        <v>335.31</v>
+      </c>
+      <c r="E444" t="n">
+        <v>303.49</v>
+      </c>
+      <c r="F444" t="n">
+        <v>258.9966666666667</v>
+      </c>
+      <c r="G444" t="n">
+        <v>268.77</v>
+      </c>
+      <c r="H444" t="n">
+        <v>268.0144444444445</v>
+      </c>
+      <c r="I444" t="n">
+        <v>256.62</v>
+      </c>
+      <c r="J444" t="n">
+        <v>241.5766666666667</v>
+      </c>
+      <c r="K444" t="n">
+        <v>275.41</v>
+      </c>
+      <c r="L444" t="inlineStr"/>
+      <c r="M444" t="inlineStr"/>
+      <c r="N444" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="O444" t="n">
+        <v>290.4288888888889</v>
+      </c>
+      <c r="P444" t="n">
+        <v>277.2188888888889</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>266.4388888888889</v>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>436.12</v>
+      </c>
+      <c r="C445" t="n">
+        <v>514.5500000000001</v>
+      </c>
+      <c r="D445" t="n">
+        <v>329.99</v>
+      </c>
+      <c r="E445" t="n">
+        <v>306.99</v>
+      </c>
+      <c r="F445" t="n">
+        <v>255.98</v>
+      </c>
+      <c r="G445" t="n">
+        <v>265.325</v>
+      </c>
+      <c r="H445" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="I445" t="n">
+        <v>257.45</v>
+      </c>
+      <c r="J445" t="n">
+        <v>254.17</v>
+      </c>
+      <c r="K445" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="L445" t="n">
+        <v>287.69</v>
+      </c>
+      <c r="M445" t="n">
+        <v>304.295</v>
+      </c>
+      <c r="N445" t="n">
+        <v>304.19</v>
+      </c>
+      <c r="O445" t="n">
+        <v>283.87</v>
+      </c>
+      <c r="P445" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>283.83</v>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23613,7 +23823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B494"/>
+  <dimension ref="A1:B498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28561,6 +28771,46 @@
       </c>
       <c r="B494" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>-0.27</v>
       </c>
     </row>
   </sheetData>
@@ -28728,28 +28978,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.3886037049099305</v>
+        <v>-0.4078470976933293</v>
       </c>
       <c r="J2" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K2" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01067132990714381</v>
+        <v>0.0120313796340964</v>
       </c>
       <c r="M2" t="n">
-        <v>22.19449329721122</v>
+        <v>22.04556090660188</v>
       </c>
       <c r="N2" t="n">
-        <v>784.3257265612929</v>
+        <v>775.7621733393931</v>
       </c>
       <c r="O2" t="n">
-        <v>28.00581594171634</v>
+        <v>27.85250748746678</v>
       </c>
       <c r="P2" t="n">
-        <v>464.9166123655309</v>
+        <v>465.1098845869115</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28800,28 +29050,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>2.457712516970398</v>
+        <v>2.779849340987004</v>
       </c>
       <c r="J3" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K3" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06466265669564719</v>
+        <v>0.0882181801274351</v>
       </c>
       <c r="M3" t="n">
-        <v>51.72217956393623</v>
+        <v>49.13194886253012</v>
       </c>
       <c r="N3" t="n">
-        <v>5097.617319047476</v>
+        <v>4692.852691206383</v>
       </c>
       <c r="O3" t="n">
-        <v>71.39760023311341</v>
+        <v>68.50439906463222</v>
       </c>
       <c r="P3" t="n">
-        <v>449.1817262017661</v>
+        <v>445.9893053891988</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28878,28 +29128,28 @@
         <v>0.0276</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4834758524099085</v>
+        <v>-0.4753814831893018</v>
       </c>
       <c r="J4" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K4" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02965909731692529</v>
+        <v>0.02893419044198287</v>
       </c>
       <c r="M4" t="n">
-        <v>16.37651761356661</v>
+        <v>16.40758179518257</v>
       </c>
       <c r="N4" t="n">
-        <v>412.092027519621</v>
+        <v>413.2692845394587</v>
       </c>
       <c r="O4" t="n">
-        <v>20.30004993884549</v>
+        <v>20.32902566626002</v>
       </c>
       <c r="P4" t="n">
-        <v>321.6067332848526</v>
+        <v>321.5234004338751</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28956,28 +29206,28 @@
         <v>0.0527</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3505493439562073</v>
+        <v>-0.3562735800364779</v>
       </c>
       <c r="J5" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K5" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01866888512489639</v>
+        <v>0.01940348387382695</v>
       </c>
       <c r="M5" t="n">
-        <v>14.50641501824474</v>
+        <v>14.57614183147617</v>
       </c>
       <c r="N5" t="n">
-        <v>343.6902785939522</v>
+        <v>345.2002450003208</v>
       </c>
       <c r="O5" t="n">
-        <v>18.53888558123039</v>
+        <v>18.5795652532647</v>
       </c>
       <c r="P5" t="n">
-        <v>295.8105154551504</v>
+        <v>295.8688974939062</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29028,28 +29278,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.35305812821692</v>
+        <v>-0.4028929566598478</v>
       </c>
       <c r="J6" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K6" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01449133037167571</v>
+        <v>0.01894917667787055</v>
       </c>
       <c r="M6" t="n">
-        <v>15.98613242291691</v>
+        <v>16.05632260452589</v>
       </c>
       <c r="N6" t="n">
-        <v>430.2979642863547</v>
+        <v>431.194324932367</v>
       </c>
       <c r="O6" t="n">
-        <v>20.74362466605956</v>
+        <v>20.76521911592476</v>
       </c>
       <c r="P6" t="n">
-        <v>286.5233240946835</v>
+        <v>287.0641278725929</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29106,28 +29356,28 @@
         <v>0.1182</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05426018599465562</v>
+        <v>-0.09790314793959118</v>
       </c>
       <c r="J7" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K7" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004750662241389536</v>
+        <v>0.001555259402156173</v>
       </c>
       <c r="M7" t="n">
-        <v>13.72160499187091</v>
+        <v>13.82375689526238</v>
       </c>
       <c r="N7" t="n">
-        <v>318.2581634907287</v>
+        <v>319.5140236458157</v>
       </c>
       <c r="O7" t="n">
-        <v>17.83979157643746</v>
+        <v>17.87495520681984</v>
       </c>
       <c r="P7" t="n">
-        <v>282.9824326139897</v>
+        <v>283.4516010917903</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29178,28 +29428,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.1329465659161755</v>
+        <v>0.08966420759741323</v>
       </c>
       <c r="J8" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K8" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004865228243258746</v>
+        <v>0.002213414171693739</v>
       </c>
       <c r="M8" t="n">
-        <v>10.28950482242361</v>
+        <v>10.43219914890626</v>
       </c>
       <c r="N8" t="n">
-        <v>191.9600613927007</v>
+        <v>194.5504199990662</v>
       </c>
       <c r="O8" t="n">
-        <v>13.85496522524329</v>
+        <v>13.94813320839266</v>
       </c>
       <c r="P8" t="n">
-        <v>278.7031221318251</v>
+        <v>279.1548846440477</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29256,28 +29506,28 @@
         <v>0.1475</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02853546853633627</v>
+        <v>-0.01196930687383972</v>
       </c>
       <c r="J9" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K9" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00018579106588823</v>
+        <v>3.278778527726622e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>11.99977320276604</v>
+        <v>12.09586555160349</v>
       </c>
       <c r="N9" t="n">
-        <v>235.3117427773104</v>
+        <v>237.1702759829138</v>
       </c>
       <c r="O9" t="n">
-        <v>15.3398742751468</v>
+        <v>15.40033363219491</v>
       </c>
       <c r="P9" t="n">
-        <v>273.2135476086236</v>
+        <v>273.6296335955824</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29334,28 +29584,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05927218805513472</v>
+        <v>0.01033361919539666</v>
       </c>
       <c r="J10" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K10" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003198725621744725</v>
+        <v>9.843252500085775e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>18.25304752328634</v>
+        <v>18.26019018010615</v>
       </c>
       <c r="N10" t="n">
-        <v>551.7930952029615</v>
+        <v>552.1318558082066</v>
       </c>
       <c r="O10" t="n">
-        <v>23.49027660975838</v>
+        <v>23.49748615933642</v>
       </c>
       <c r="P10" t="n">
-        <v>257.2674806341543</v>
+        <v>257.7890443191822</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29412,28 +29662,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2724027576650386</v>
+        <v>-0.3042088623043589</v>
       </c>
       <c r="J11" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K11" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006748989632653357</v>
+        <v>0.008605241427241284</v>
       </c>
       <c r="M11" t="n">
-        <v>18.6017826055638</v>
+        <v>18.50162434803959</v>
       </c>
       <c r="N11" t="n">
-        <v>586.8562665069915</v>
+        <v>576.2121982279075</v>
       </c>
       <c r="O11" t="n">
-        <v>24.22511643949295</v>
+        <v>24.0044203893347</v>
       </c>
       <c r="P11" t="n">
-        <v>264.8204161149297</v>
+        <v>265.1473686475464</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29484,28 +29734,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.2311779564755934</v>
+        <v>-0.2494802920232259</v>
       </c>
       <c r="J12" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K12" t="n">
         <v>314</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001773506861749596</v>
+        <v>0.002077173234673491</v>
       </c>
       <c r="M12" t="n">
-        <v>29.31355299825127</v>
+        <v>29.24860642118091</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.994728114244</v>
+        <v>1568.852848870348</v>
       </c>
       <c r="O12" t="n">
-        <v>39.72398177567607</v>
+        <v>39.60874712573408</v>
       </c>
       <c r="P12" t="n">
-        <v>261.5029178480588</v>
+        <v>261.6939206355452</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29562,28 +29812,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.202345521548088</v>
+        <v>-0.1967913651014447</v>
       </c>
       <c r="J13" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K13" t="n">
         <v>299</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001293766438488553</v>
+        <v>0.001222304383114658</v>
       </c>
       <c r="M13" t="n">
-        <v>29.43467973902398</v>
+        <v>29.45305665361954</v>
       </c>
       <c r="N13" t="n">
-        <v>1688.31623393338</v>
+        <v>1690.673541116477</v>
       </c>
       <c r="O13" t="n">
-        <v>41.08912549487248</v>
+        <v>41.11780078161376</v>
       </c>
       <c r="P13" t="n">
-        <v>260.9435520666752</v>
+        <v>260.8846308591908</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29634,28 +29884,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.05945805644052184</v>
+        <v>-0.04208197512682302</v>
       </c>
       <c r="J14" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K14" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002059219430301518</v>
+        <v>0.0001035441392319703</v>
       </c>
       <c r="M14" t="n">
-        <v>20.6999249535485</v>
+        <v>20.71284539129791</v>
       </c>
       <c r="N14" t="n">
-        <v>928.9344852074622</v>
+        <v>928.8081423856158</v>
       </c>
       <c r="O14" t="n">
-        <v>30.47842655399819</v>
+        <v>30.47635382367149</v>
       </c>
       <c r="P14" t="n">
-        <v>262.6939124964855</v>
+        <v>262.5159717140515</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29712,28 +29962,28 @@
         <v>0.0605</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.232259249126863</v>
+        <v>-0.1900089680164862</v>
       </c>
       <c r="J15" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K15" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00808263589807301</v>
+        <v>0.005450374784014778</v>
       </c>
       <c r="M15" t="n">
-        <v>14.94101387494342</v>
+        <v>14.97228955424704</v>
       </c>
       <c r="N15" t="n">
-        <v>356.6515793728196</v>
+        <v>359.0491410592128</v>
       </c>
       <c r="O15" t="n">
-        <v>18.8852211894068</v>
+        <v>18.94859206007699</v>
       </c>
       <c r="P15" t="n">
-        <v>259.6030267410171</v>
+        <v>259.1739633755691</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29790,28 +30040,28 @@
         <v>0.0532</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2990404194500854</v>
+        <v>-0.2743557459852614</v>
       </c>
       <c r="J16" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K16" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0152547117868792</v>
+        <v>0.01297186548617002</v>
       </c>
       <c r="M16" t="n">
-        <v>14.16382439753935</v>
+        <v>14.17484313928246</v>
       </c>
       <c r="N16" t="n">
-        <v>305.7064810993105</v>
+        <v>306.821115706621</v>
       </c>
       <c r="O16" t="n">
-        <v>17.48446399233647</v>
+        <v>17.51630999116598</v>
       </c>
       <c r="P16" t="n">
-        <v>262.6604355604518</v>
+        <v>262.406465568625</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29862,28 +30112,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.3493873080254213</v>
+        <v>-0.3531993256871628</v>
       </c>
       <c r="J17" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K17" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02091160760222976</v>
+        <v>0.02157788064273858</v>
       </c>
       <c r="M17" t="n">
-        <v>13.29869805825548</v>
+        <v>13.34350258641872</v>
       </c>
       <c r="N17" t="n">
-        <v>299.3499558102161</v>
+        <v>299.7846154561378</v>
       </c>
       <c r="O17" t="n">
-        <v>17.30173274011063</v>
+        <v>17.31428934308705</v>
       </c>
       <c r="P17" t="n">
-        <v>268.8043228034345</v>
+        <v>268.8437027149265</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29921,7 +30171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R441"/>
+  <dimension ref="A1:R445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63632,11 +63882,7 @@
           <t>-46.562554487198604,169.5625097696528</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>-46.561052572107826,169.5619711325258</t>
-        </is>
-      </c>
+      <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
           <t>-46.56074665828849,169.56113608129928</t>
@@ -63724,11 +63970,7 @@
           <t>-46.562760556546635,169.5624586956723</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr">
-        <is>
-          <t>-46.56084969355954,169.5620214145101</t>
-        </is>
-      </c>
+      <c r="C440" t="inlineStr"/>
       <c r="D440" t="inlineStr">
         <is>
           <t>-46.5605685969641,169.5611802141022</t>
@@ -63816,26 +64058,10 @@
         </is>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>-46.56031932217923,169.55486798455854</t>
-        </is>
-      </c>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>-46.560187479914084,169.55399031118145</t>
-        </is>
-      </c>
-      <c r="M441" t="inlineStr">
-        <is>
-          <t>-46.559902266467816,169.55315403536696</t>
-        </is>
-      </c>
-      <c r="N441" t="inlineStr">
-        <is>
-          <t>-46.559841821332625,169.5522510877361</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
+      <c r="M441" t="inlineStr"/>
+      <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
           <t>-46.55975501235038,169.55134252244744</t>
@@ -63846,6 +64072,338 @@
       <c r="R441" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>-46.5621223175476,169.5626168808265</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>-46.56267418101004,169.56156921312606</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>-46.5608236793301,169.56111699140092</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>-46.56027305391357,169.5603425982867</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>-46.560095243656434,169.5594758042955</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>-46.56005772229449,169.55857423731948</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>-46.56003711249418,169.55767549818907</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>-46.559843728690694,169.55682208462446</t>
+        </is>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>-46.55960751504694,169.5559733401349</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>-46.559477589648765,169.5550951576161</t>
+        </is>
+      </c>
+      <c r="L442" t="inlineStr"/>
+      <c r="M442" t="inlineStr"/>
+      <c r="N442" t="inlineStr"/>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>-46.55941422972146,169.5514077939896</t>
+        </is>
+      </c>
+      <c r="P442" t="inlineStr">
+        <is>
+          <t>-46.55927335297216,169.5504981416234</t>
+        </is>
+      </c>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>-46.55911772964716,169.5496188108479</t>
+        </is>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>-46.56235479931536,169.5625592615768</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>-46.56283167973328,169.56153017526225</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>-46.56055521355824,169.56118353118887</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>-46.560389870473436,169.56031364410057</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>-46.56022774780374,169.55944296042773</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>-46.56015131703149,169.55855103688188</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>-46.5600140658236,169.5576814422992</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>-46.55990552686598,169.55680546596304</t>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>-46.55953564672942,169.55599273536066</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
+      <c r="M443" t="inlineStr"/>
+      <c r="N443" t="inlineStr"/>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>-46.55941006972843,169.55140859076482</t>
+        </is>
+      </c>
+      <c r="P443" t="inlineStr">
+        <is>
+          <t>-46.559272846147174,169.55049821765596</t>
+        </is>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>-46.559157470640706,169.5496128485852</t>
+        </is>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>-46.56231030604915,169.5625702890166</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>-46.56291534815089,169.56150943698134</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>-46.56106201022834,169.56105791997672</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>-46.5606942316177,169.56023820439538</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>-46.56021412809169,169.55944633636082</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>-46.56021499867319,169.55853525130607</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>-46.56012318093496,169.5576532996917</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>-46.55992922058591,169.55679909427639</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>-46.559701600950085,169.55594794892366</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>-46.55990596989746,169.55497954415134</t>
+        </is>
+      </c>
+      <c r="L444" t="inlineStr"/>
+      <c r="M444" t="inlineStr"/>
+      <c r="N444" t="inlineStr">
+        <is>
+          <t>-46.55970795757759,169.5522847710568</t>
+        </is>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>-46.559672070029464,169.55135840882963</t>
+        </is>
+      </c>
+      <c r="P444" t="inlineStr">
+        <is>
+          <t>-46.55950781417022,169.550462968189</t>
+        </is>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>-46.5593663220209,169.54958151485323</t>
+        </is>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>-46.56212701504473,169.5626157165848</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>-46.56273640054218,169.56155379133259</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>-46.5610148581173,169.56106960689397</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>-46.56072525269631,169.56023051538025</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>-46.56018739091243,169.5594529637294</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>-46.56018446516557,169.55854282003892</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>-46.56010269172852,169.5576585842096</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>-46.55993655856622,169.55679712095426</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>-46.55981292462806,169.5559179055803</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>-46.55990764947296,169.55497909085483</t>
+        </is>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>-46.55991980918249,169.55406255585712</t>
+        </is>
+      </c>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>-46.55997188017819,169.55313524578665</t>
+        </is>
+      </c>
+      <c r="N445" t="inlineStr">
+        <is>
+          <t>-46.559875752381004,169.55224254984327</t>
+        </is>
+      </c>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>-46.55961360232669,169.55136960742462</t>
+        </is>
+      </c>
+      <c r="P445" t="inlineStr">
+        <is>
+          <t>-46.55961050087217,169.55044756320555</t>
+        </is>
+      </c>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>-46.559521867391595,169.54955817837256</t>
+        </is>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0545/nzd0545.xlsx
+++ b/data/nzd0545/nzd0545.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R445"/>
+  <dimension ref="A1:R449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23791,9 +23791,7 @@
       <c r="L445" t="n">
         <v>287.69</v>
       </c>
-      <c r="M445" t="n">
-        <v>304.295</v>
-      </c>
+      <c r="M445" t="inlineStr"/>
       <c r="N445" t="n">
         <v>304.19</v>
       </c>
@@ -23807,6 +23805,236 @@
         <v>283.83</v>
       </c>
       <c r="R445" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>412.72</v>
+      </c>
+      <c r="C446" t="n">
+        <v>491.42</v>
+      </c>
+      <c r="D446" t="n">
+        <v>306.53</v>
+      </c>
+      <c r="E446" t="n">
+        <v>265.02</v>
+      </c>
+      <c r="F446" t="n">
+        <v>260.3433333333333</v>
+      </c>
+      <c r="G446" t="n">
+        <v>270.615</v>
+      </c>
+      <c r="H446" t="n">
+        <v>275.3155555555555</v>
+      </c>
+      <c r="I446" t="n">
+        <v>266.3</v>
+      </c>
+      <c r="J446" t="n">
+        <v>265.5733333333333</v>
+      </c>
+      <c r="K446" t="n">
+        <v>270.34</v>
+      </c>
+      <c r="L446" t="n">
+        <v>280.3833333333333</v>
+      </c>
+      <c r="M446" t="n">
+        <v>287.285</v>
+      </c>
+      <c r="N446" t="n">
+        <v>278.59</v>
+      </c>
+      <c r="O446" t="n">
+        <v>251.9011111111112</v>
+      </c>
+      <c r="P446" t="n">
+        <v>267.6311111111111</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>281.0411111111111</v>
+      </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:53+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="n">
+        <v>268.66</v>
+      </c>
+      <c r="E447" t="n">
+        <v>276.65</v>
+      </c>
+      <c r="F447" t="n">
+        <v>277.5533333333333</v>
+      </c>
+      <c r="G447" t="n">
+        <v>287.005</v>
+      </c>
+      <c r="H447" t="n">
+        <v>283.1955555555556</v>
+      </c>
+      <c r="I447" t="n">
+        <v>271.37</v>
+      </c>
+      <c r="J447" t="n">
+        <v>241.2033333333333</v>
+      </c>
+      <c r="K447" t="n">
+        <v>252.59</v>
+      </c>
+      <c r="L447" t="n">
+        <v>253.9833333333333</v>
+      </c>
+      <c r="M447" t="inlineStr"/>
+      <c r="N447" t="n">
+        <v>253.7</v>
+      </c>
+      <c r="O447" t="n">
+        <v>233.1311111111111</v>
+      </c>
+      <c r="P447" t="n">
+        <v>245.5011111111111</v>
+      </c>
+      <c r="Q447" t="n">
+        <v>260.6711111111111</v>
+      </c>
+      <c r="R447" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:15:08+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>422.68</v>
+      </c>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="E448" t="n">
+        <v>259.72</v>
+      </c>
+      <c r="F448" t="n">
+        <v>269.0633333333333</v>
+      </c>
+      <c r="G448" t="n">
+        <v>272.475</v>
+      </c>
+      <c r="H448" t="n">
+        <v>277.2522222222222</v>
+      </c>
+      <c r="I448" t="n">
+        <v>279.69</v>
+      </c>
+      <c r="J448" t="n">
+        <v>284.8833333333334</v>
+      </c>
+      <c r="K448" t="n">
+        <v>282.84</v>
+      </c>
+      <c r="L448" t="n">
+        <v>288.6633333333333</v>
+      </c>
+      <c r="M448" t="n">
+        <v>288.105</v>
+      </c>
+      <c r="N448" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="O448" t="n">
+        <v>248.1944444444445</v>
+      </c>
+      <c r="P448" t="n">
+        <v>251.9644444444444</v>
+      </c>
+      <c r="Q448" t="n">
+        <v>253.3044444444445</v>
+      </c>
+      <c r="R448" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="n">
+        <v>537.21</v>
+      </c>
+      <c r="D449" t="n">
+        <v>284.48</v>
+      </c>
+      <c r="E449" t="n">
+        <v>278.91</v>
+      </c>
+      <c r="F449" t="n">
+        <v>283.99</v>
+      </c>
+      <c r="G449" t="n">
+        <v>289.26</v>
+      </c>
+      <c r="H449" t="n">
+        <v>289.7533333333333</v>
+      </c>
+      <c r="I449" t="n">
+        <v>285.12</v>
+      </c>
+      <c r="J449" t="n">
+        <v>266.01</v>
+      </c>
+      <c r="K449" t="n">
+        <v>264.24</v>
+      </c>
+      <c r="L449" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="M449" t="n">
+        <v>253.44</v>
+      </c>
+      <c r="N449" t="n">
+        <v>252.85</v>
+      </c>
+      <c r="O449" t="n">
+        <v>239.8666666666666</v>
+      </c>
+      <c r="P449" t="n">
+        <v>235.3866666666666</v>
+      </c>
+      <c r="Q449" t="n">
+        <v>254.1666666666666</v>
+      </c>
+      <c r="R449" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -23823,7 +24051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B498"/>
+  <dimension ref="A1:B502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28811,6 +29039,46 @@
       </c>
       <c r="B498" t="n">
         <v>-0.27</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.85</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>-0.97</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -28978,28 +29246,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.4078470976933293</v>
+        <v>-0.4561126746307871</v>
       </c>
       <c r="J2" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K2" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0120313796340964</v>
+        <v>0.01502368875760385</v>
       </c>
       <c r="M2" t="n">
-        <v>22.04556090660188</v>
+        <v>22.15710410366355</v>
       </c>
       <c r="N2" t="n">
-        <v>775.7621733393931</v>
+        <v>779.8780152893249</v>
       </c>
       <c r="O2" t="n">
-        <v>27.85250748746678</v>
+        <v>27.92629612550374</v>
       </c>
       <c r="P2" t="n">
-        <v>465.1098845869115</v>
+        <v>465.5980109661691</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29050,28 +29318,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>2.779849340987004</v>
+        <v>2.773776603573034</v>
       </c>
       <c r="J3" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K3" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0882181801274351</v>
+        <v>0.08903910886163602</v>
       </c>
       <c r="M3" t="n">
-        <v>49.13194886253012</v>
+        <v>48.9073888943293</v>
       </c>
       <c r="N3" t="n">
-        <v>4692.852691206383</v>
+        <v>4656.39322347387</v>
       </c>
       <c r="O3" t="n">
-        <v>68.50439906463222</v>
+        <v>68.23776977212744</v>
       </c>
       <c r="P3" t="n">
-        <v>445.9893053891988</v>
+        <v>446.0498464405233</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29128,28 +29396,28 @@
         <v>0.0276</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4753814831893018</v>
+        <v>-0.5193218568132125</v>
       </c>
       <c r="J4" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K4" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02893419044198287</v>
+        <v>0.03451319446909629</v>
       </c>
       <c r="M4" t="n">
-        <v>16.40758179518257</v>
+        <v>16.48202628291941</v>
       </c>
       <c r="N4" t="n">
-        <v>413.2692845394587</v>
+        <v>415.638383583811</v>
       </c>
       <c r="O4" t="n">
-        <v>20.32902566626002</v>
+        <v>20.38721127530225</v>
       </c>
       <c r="P4" t="n">
-        <v>321.5234004338751</v>
+        <v>321.9773475071012</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29206,28 +29474,28 @@
         <v>0.0527</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3562735800364779</v>
+        <v>-0.3895915204795357</v>
       </c>
       <c r="J5" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K5" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01940348387382695</v>
+        <v>0.02338079071425525</v>
       </c>
       <c r="M5" t="n">
-        <v>14.57614183147617</v>
+        <v>14.5796262362755</v>
       </c>
       <c r="N5" t="n">
-        <v>345.2002450003208</v>
+        <v>345.0158520341208</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5795652532647</v>
+        <v>18.57460233851914</v>
       </c>
       <c r="P5" t="n">
-        <v>295.8688974939062</v>
+        <v>296.2141161222249</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29278,28 +29546,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4028929566598478</v>
+        <v>-0.4113392609850466</v>
       </c>
       <c r="J6" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K6" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01894917667787055</v>
+        <v>0.02012247817509727</v>
       </c>
       <c r="M6" t="n">
-        <v>16.05632260452589</v>
+        <v>15.9644295652939</v>
       </c>
       <c r="N6" t="n">
-        <v>431.194324932367</v>
+        <v>427.2566684995178</v>
       </c>
       <c r="O6" t="n">
-        <v>20.76521911592476</v>
+        <v>20.67018791640555</v>
       </c>
       <c r="P6" t="n">
-        <v>287.0641278725929</v>
+        <v>287.1563296199423</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29356,28 +29624,28 @@
         <v>0.1182</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09790314793959118</v>
+        <v>-0.1001708188064453</v>
       </c>
       <c r="J7" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K7" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001555259402156173</v>
+        <v>0.001659799429609143</v>
       </c>
       <c r="M7" t="n">
-        <v>13.82375689526238</v>
+        <v>13.76258112006279</v>
       </c>
       <c r="N7" t="n">
-        <v>319.5140236458157</v>
+        <v>316.6815766577149</v>
       </c>
       <c r="O7" t="n">
-        <v>17.87495520681984</v>
+        <v>17.795549349703</v>
       </c>
       <c r="P7" t="n">
-        <v>283.4516010917903</v>
+        <v>283.4760567862643</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29428,28 +29696,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.08966420759741323</v>
+        <v>0.0894493231644693</v>
       </c>
       <c r="J8" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K8" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002213414171693739</v>
+        <v>0.002247599422467994</v>
       </c>
       <c r="M8" t="n">
-        <v>10.43219914890626</v>
+        <v>10.37273116664437</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5504199990662</v>
+        <v>192.7319828719149</v>
       </c>
       <c r="O8" t="n">
-        <v>13.94813320839266</v>
+        <v>13.88279449073258</v>
       </c>
       <c r="P8" t="n">
-        <v>279.1548846440477</v>
+        <v>279.1570357822278</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29506,28 +29774,28 @@
         <v>0.1475</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01196930687383972</v>
+        <v>-0.007391687583240503</v>
       </c>
       <c r="J9" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K9" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L9" t="n">
-        <v>3.278778527726622e-05</v>
+        <v>1.273803826951081e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>12.09586555160349</v>
+        <v>12.03884265916811</v>
       </c>
       <c r="N9" t="n">
-        <v>237.1702759829138</v>
+        <v>235.3143526622164</v>
       </c>
       <c r="O9" t="n">
-        <v>15.40033363219491</v>
+        <v>15.33995934356465</v>
       </c>
       <c r="P9" t="n">
-        <v>273.6296335955824</v>
+        <v>273.5820472481987</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29584,28 +29852,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01033361919539666</v>
+        <v>0.02463124321002057</v>
       </c>
       <c r="J10" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K10" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L10" t="n">
-        <v>9.843252500085775e-06</v>
+        <v>5.693659924110861e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>18.26019018010615</v>
+        <v>18.22735656746703</v>
       </c>
       <c r="N10" t="n">
-        <v>552.1318558082066</v>
+        <v>549.0765783474229</v>
       </c>
       <c r="O10" t="n">
-        <v>23.49748615933642</v>
+        <v>23.43238311285096</v>
       </c>
       <c r="P10" t="n">
-        <v>257.7890443191822</v>
+        <v>257.635298339088</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29662,28 +29930,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3042088623043589</v>
+        <v>-0.2824343405429297</v>
       </c>
       <c r="J11" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K11" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008605241427241284</v>
+        <v>0.007560792659916937</v>
       </c>
       <c r="M11" t="n">
-        <v>18.50162434803959</v>
+        <v>18.43355351641727</v>
       </c>
       <c r="N11" t="n">
-        <v>576.2121982279075</v>
+        <v>572.2468427701427</v>
       </c>
       <c r="O11" t="n">
-        <v>24.0044203893347</v>
+        <v>23.92168143693379</v>
       </c>
       <c r="P11" t="n">
-        <v>265.1473686475464</v>
+        <v>264.9203774729185</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29734,28 +30002,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.2494802920232259</v>
+        <v>-0.2065101976066305</v>
       </c>
       <c r="J12" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K12" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002077173234673491</v>
+        <v>0.001455167743043995</v>
       </c>
       <c r="M12" t="n">
-        <v>29.24860642118091</v>
+        <v>29.03866768746343</v>
       </c>
       <c r="N12" t="n">
-        <v>1568.852848870348</v>
+        <v>1555.071539739416</v>
       </c>
       <c r="O12" t="n">
-        <v>39.60874712573408</v>
+        <v>39.43439538955067</v>
       </c>
       <c r="P12" t="n">
-        <v>261.6939206355452</v>
+        <v>261.2369937687881</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29812,28 +30080,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1967913651014447</v>
+        <v>-0.1879195268774204</v>
       </c>
       <c r="J13" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K13" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001222304383114658</v>
+        <v>0.001131414637728478</v>
       </c>
       <c r="M13" t="n">
-        <v>29.45305665361954</v>
+        <v>29.30310371604607</v>
       </c>
       <c r="N13" t="n">
-        <v>1690.673541116477</v>
+        <v>1678.410104248221</v>
       </c>
       <c r="O13" t="n">
-        <v>41.11780078161376</v>
+        <v>40.96840373078039</v>
       </c>
       <c r="P13" t="n">
-        <v>260.8846308591908</v>
+        <v>260.7910173918819</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29884,28 +30152,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.04208197512682302</v>
+        <v>-0.03496991713607957</v>
       </c>
       <c r="J14" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K14" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001035441392319703</v>
+        <v>7.326224275439053e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>20.71284539129791</v>
+        <v>20.59131487752658</v>
       </c>
       <c r="N14" t="n">
-        <v>928.8081423856158</v>
+        <v>919.0365449401319</v>
       </c>
       <c r="O14" t="n">
-        <v>30.47635382367149</v>
+        <v>30.31561552962651</v>
       </c>
       <c r="P14" t="n">
-        <v>262.5159717140515</v>
+        <v>262.4433841584067</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29962,28 +30230,28 @@
         <v>0.0605</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1900089680164862</v>
+        <v>-0.212055146324614</v>
       </c>
       <c r="J15" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K15" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005450374784014778</v>
+        <v>0.006894523191266488</v>
       </c>
       <c r="M15" t="n">
-        <v>14.97228955424704</v>
+        <v>14.940187347392</v>
       </c>
       <c r="N15" t="n">
-        <v>359.0491410592128</v>
+        <v>357.0730102193966</v>
       </c>
       <c r="O15" t="n">
-        <v>18.94859206007699</v>
+        <v>18.89637558420653</v>
       </c>
       <c r="P15" t="n">
-        <v>259.1739633755691</v>
+        <v>259.3995191766685</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30040,28 +30308,28 @@
         <v>0.0532</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2743557459852614</v>
+        <v>-0.2847217059218626</v>
       </c>
       <c r="J16" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K16" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01297186548617002</v>
+        <v>0.01418181215339753</v>
       </c>
       <c r="M16" t="n">
-        <v>14.17484313928246</v>
+        <v>14.14722804542382</v>
       </c>
       <c r="N16" t="n">
-        <v>306.821115706621</v>
+        <v>305.3374094336074</v>
       </c>
       <c r="O16" t="n">
-        <v>17.51630999116598</v>
+        <v>17.47390653041293</v>
       </c>
       <c r="P16" t="n">
-        <v>262.406465568625</v>
+        <v>262.5140033493427</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30112,28 +30380,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.3531993256871628</v>
+        <v>-0.3474519097373058</v>
       </c>
       <c r="J17" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K17" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02157788064273858</v>
+        <v>0.02126698840793673</v>
       </c>
       <c r="M17" t="n">
-        <v>13.34350258641872</v>
+        <v>13.28807980374352</v>
       </c>
       <c r="N17" t="n">
-        <v>299.7846154561378</v>
+        <v>297.8766266738654</v>
       </c>
       <c r="O17" t="n">
-        <v>17.31428934308705</v>
+        <v>17.25910271925703</v>
       </c>
       <c r="P17" t="n">
-        <v>268.8437027149265</v>
+        <v>268.7833433799379</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30171,7 +30439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R445"/>
+  <dimension ref="A1:R449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64376,11 +64644,7 @@
           <t>-46.55991980918249,169.55406255585712</t>
         </is>
       </c>
-      <c r="M445" t="inlineStr">
-        <is>
-          <t>-46.55997188017819,169.55313524578665</t>
-        </is>
-      </c>
+      <c r="M445" t="inlineStr"/>
       <c r="N445" t="inlineStr">
         <is>
           <t>-46.559875752381004,169.55224254984327</t>
@@ -64402,6 +64666,354 @@
         </is>
       </c>
       <c r="R445" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>-46.56191961609497,169.56266711874164</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>-46.562531395147055,169.56160460401657</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>-46.56080692791876,169.56112114329417</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>-46.5603532655892,169.56032271701295</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>-46.56022606380464,169.55944337784257</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>-46.56023135116095,169.55853119780087</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>-46.5601878158701,169.55763662920324</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>-46.56001480088289,169.55677608007352</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>-46.55991372882603,169.55589070104884</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>-46.55986115175004,169.55499163999997</t>
+        </is>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>-46.55985521931611,169.55407998862486</t>
+        </is>
+      </c>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>-46.55982151455741,169.55317583121365</t>
+        </is>
+      </c>
+      <c r="N446" t="inlineStr">
+        <is>
+          <t>-46.559648954752305,169.55229961751823</t>
+        </is>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>-46.55932862300537,169.55142419045728</t>
+        </is>
+      </c>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>-46.55942206137895,169.55047583270613</t>
+        </is>
+      </c>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>-46.55949692368677,169.54956192068877</t>
+        </is>
+      </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:53+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>-46.56047127921439,169.56120433433352</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>-46.56045634423098,169.56029716783277</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>-46.560378598659284,169.55940556873088</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>-46.56037661796544,169.5584951884946</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>-46.56025757556113,169.55761863689958</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>-46.56005962444447,169.55676402611513</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>-46.55969830072439,169.55594883956599</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>-46.55970424401814,169.5550339872258</t>
+        </is>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>-46.55962184713469,169.55414297525198</t>
+        </is>
+      </c>
+      <c r="M447" t="inlineStr"/>
+      <c r="N447" t="inlineStr">
+        <is>
+          <t>-46.559428447167285,169.5523551019501</t>
+        </is>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>-46.55916130212436,169.55145623766902</t>
+        </is>
+      </c>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>-46.55922413132189,169.55050552571788</t>
+        </is>
+      </c>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>-46.55931473525497,169.5495892543832</t>
+        </is>
+      </c>
+      <c r="R447" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:15:08+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>-46.56200789360154,169.56264523992817</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>-46.56066573744138,169.56115613771</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>-46.560306290796454,169.56033436019774</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>-46.5603033504972,169.5594242206696</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>-46.56024783659551,169.55852711133758</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>-46.56020496070154,169.55763220724165</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>-46.56013318105379,169.5567442452129</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>-46.56008442705335,169.5558446336071</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>-46.559971650137285,169.55496181784824</t>
+        </is>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>-46.55992841330668,169.55406023360538</t>
+        </is>
+      </c>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>-46.559828763223976,169.55317387472022</t>
+        </is>
+      </c>
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>-46.55959500171548,169.55231319330525</t>
+        </is>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>-46.55929558077282,169.55143051910235</t>
+        </is>
+      </c>
+      <c r="P448" t="inlineStr">
+        <is>
+          <t>-46.559281939183585,169.5504968535423</t>
+        </is>
+      </c>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>-46.559248848091045,169.5495991393672</t>
+        </is>
+      </c>
+      <c r="R448" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>-46.56293724020399,169.5615040107457</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>-46.560611494767194,169.56116958183858</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>-46.560476374989115,169.5602922029753</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>-46.56043564781204,169.55939142778425</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>-46.56039660433633,169.55849023417733</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>-46.560315629942195,169.5576036635701</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>-46.56018118734745,169.55673133528936</t>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>-46.55991758891058,169.5558896593063</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>-46.55980722853242,169.5550061931615</t>
+        </is>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>-46.55975238233919,169.5541077441691</t>
+        </is>
+      </c>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>-46.55952233021662,169.5532565837862</t>
+        </is>
+      </c>
+      <c r="N449" t="inlineStr">
+        <is>
+          <t>-46.55942091677487,169.55235699674913</t>
+        </is>
+      </c>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>-46.55922134469918,169.55144473765375</t>
+        </is>
+      </c>
+      <c r="P449" t="inlineStr">
+        <is>
+          <t>-46.55913366802737,169.55051909672667</t>
+        </is>
+      </c>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>-46.55925655977127,169.54959798239315</t>
+        </is>
+      </c>
+      <c r="R449" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0545/nzd0545.xlsx
+++ b/data/nzd0545/nzd0545.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R449"/>
+  <dimension ref="A1:R450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23988,10 +23988,10 @@
           <t>2025-09-18 22:14:49+00:00</t>
         </is>
       </c>
-      <c r="B449" t="inlineStr"/>
-      <c r="C449" t="n">
-        <v>537.21</v>
-      </c>
+      <c r="B449" t="n">
+        <v>474.12</v>
+      </c>
+      <c r="C449" t="inlineStr"/>
       <c r="D449" t="n">
         <v>284.48</v>
       </c>
@@ -24037,6 +24037,66 @@
       <c r="R449" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:15:14+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>449.9500000000001</v>
+      </c>
+      <c r="C450" t="n">
+        <v>290.85</v>
+      </c>
+      <c r="D450" t="n">
+        <v>294.77</v>
+      </c>
+      <c r="E450" t="n">
+        <v>270.67</v>
+      </c>
+      <c r="F450" t="n">
+        <v>265.9033333333333</v>
+      </c>
+      <c r="G450" t="n">
+        <v>274.375</v>
+      </c>
+      <c r="H450" t="n">
+        <v>278.6555555555556</v>
+      </c>
+      <c r="I450" t="n">
+        <v>268.11</v>
+      </c>
+      <c r="J450" t="n">
+        <v>256.7633333333333</v>
+      </c>
+      <c r="K450" t="n">
+        <v>252.29</v>
+      </c>
+      <c r="L450" t="n">
+        <v>260.4333333333333</v>
+      </c>
+      <c r="M450" t="n">
+        <v>262.965</v>
+      </c>
+      <c r="N450" t="n">
+        <v>255.57</v>
+      </c>
+      <c r="O450" t="n">
+        <v>235.1311111111111</v>
+      </c>
+      <c r="P450" t="n">
+        <v>237.3611111111111</v>
+      </c>
+      <c r="Q450" t="n">
+        <v>240.1711111111111</v>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -24051,7 +24111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B502"/>
+  <dimension ref="A1:B503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29079,6 +29139,16 @@
       </c>
       <c r="B502" t="n">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>-0.31</v>
       </c>
     </row>
   </sheetData>
@@ -30439,7 +30509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R449"/>
+  <dimension ref="A1:R450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64937,12 +65007,12 @@
           <t>2025-09-18 22:14:49+00:00</t>
         </is>
       </c>
-      <c r="B449" t="inlineStr"/>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>-46.56293724020399,169.5615040107457</t>
-        </is>
-      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>-46.56246381667298,169.56253224206785</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr"/>
       <c r="D449" t="inlineStr">
         <is>
           <t>-46.560611494767194,169.56116958183858</t>
@@ -65016,6 +65086,98 @@
       <c r="R449" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:15:14+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>-46.5622495931232,169.5625853363871</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>-46.560753705137394,169.56204520439923</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>-46.56070269690901,169.5611469772327</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>-46.56040334248862,169.5603103049139</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>-46.56027534293495,169.5594311629549</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>-46.5602646765553,169.55852293699053</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>-46.56021738406459,169.55762900303003</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>-46.56003080298302,169.55677177678913</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>-46.55983584940714,169.55591171876588</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>-46.55970159205624,169.55503470295125</t>
+        </is>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>-46.55967886420703,169.55412758652878</t>
+        </is>
+      </c>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>-46.55960652968974,169.55323385768483</t>
+        </is>
+      </c>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t>-46.559445014030445,169.5523509333902</t>
+        </is>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>-46.55917913066875,169.55145282295294</t>
+        </is>
+      </c>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t>-46.559151327400905,169.55051644752922</t>
+        </is>
+      </c>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>-46.55913138409215,169.5496167622997</t>
+        </is>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0545/nzd0545.xlsx
+++ b/data/nzd0545/nzd0545.xlsx
@@ -29316,28 +29316,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.4561126746307871</v>
+        <v>-0.4453513920029283</v>
       </c>
       <c r="J2" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K2" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01502368875760385</v>
+        <v>0.0144997450815082</v>
       </c>
       <c r="M2" t="n">
-        <v>22.15710410366355</v>
+        <v>22.08299587746885</v>
       </c>
       <c r="N2" t="n">
-        <v>779.8780152893249</v>
+        <v>775.8509507044462</v>
       </c>
       <c r="O2" t="n">
-        <v>27.92629612550374</v>
+        <v>27.85410114694865</v>
       </c>
       <c r="P2" t="n">
-        <v>465.5980109661691</v>
+        <v>465.4889459846589</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29388,28 +29388,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>2.773776603573034</v>
+        <v>2.587272347309349</v>
       </c>
       <c r="J3" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K3" t="n">
         <v>228</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08903910886163602</v>
+        <v>0.07507154362986745</v>
       </c>
       <c r="M3" t="n">
-        <v>48.9073888943293</v>
+        <v>50.05359267803112</v>
       </c>
       <c r="N3" t="n">
-        <v>4656.39322347387</v>
+        <v>4878.869866211766</v>
       </c>
       <c r="O3" t="n">
-        <v>68.23776977212744</v>
+        <v>69.84890740886192</v>
       </c>
       <c r="P3" t="n">
-        <v>446.0498464405233</v>
+        <v>447.9346632673659</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29466,28 +29466,28 @@
         <v>0.0276</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5193218568132125</v>
+        <v>-0.526249920051393</v>
       </c>
       <c r="J4" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K4" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03451319446909629</v>
+        <v>0.03554977444674279</v>
       </c>
       <c r="M4" t="n">
-        <v>16.48202628291941</v>
+        <v>16.47768723492061</v>
       </c>
       <c r="N4" t="n">
-        <v>415.638383583811</v>
+        <v>415.0210665033335</v>
       </c>
       <c r="O4" t="n">
-        <v>20.38721127530225</v>
+        <v>20.37206583789022</v>
       </c>
       <c r="P4" t="n">
-        <v>321.9773475071012</v>
+        <v>322.049096129486</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29544,28 +29544,28 @@
         <v>0.0527</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3895915204795357</v>
+        <v>-0.3973281731073504</v>
       </c>
       <c r="J5" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K5" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02338079071425525</v>
+        <v>0.02438045979947734</v>
       </c>
       <c r="M5" t="n">
-        <v>14.5796262362755</v>
+        <v>14.57820907000493</v>
       </c>
       <c r="N5" t="n">
-        <v>345.0158520341208</v>
+        <v>344.7278279788911</v>
       </c>
       <c r="O5" t="n">
-        <v>18.57460233851914</v>
+        <v>18.56684755091426</v>
       </c>
       <c r="P5" t="n">
-        <v>296.2141161222249</v>
+        <v>296.2945027368696</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29616,28 +29616,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4113392609850466</v>
+        <v>-0.4171462162953207</v>
       </c>
       <c r="J6" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K6" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02012247817509727</v>
+        <v>0.02077903657240432</v>
       </c>
       <c r="M6" t="n">
-        <v>15.9644295652939</v>
+        <v>15.95044325975268</v>
       </c>
       <c r="N6" t="n">
-        <v>427.2566684995178</v>
+        <v>426.3332179633416</v>
       </c>
       <c r="O6" t="n">
-        <v>20.67018791640555</v>
+        <v>20.64783809417687</v>
       </c>
       <c r="P6" t="n">
-        <v>287.1563296199423</v>
+        <v>287.2200273257447</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29694,28 +29694,28 @@
         <v>0.1182</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1001708188064453</v>
+        <v>-0.1036597721100028</v>
       </c>
       <c r="J7" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K7" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001659799429609143</v>
+        <v>0.001786141888505233</v>
       </c>
       <c r="M7" t="n">
-        <v>13.76258112006279</v>
+        <v>13.74470213492211</v>
       </c>
       <c r="N7" t="n">
-        <v>316.6815766577149</v>
+        <v>315.900427073485</v>
       </c>
       <c r="O7" t="n">
-        <v>17.795549349703</v>
+        <v>17.7735879065957</v>
       </c>
       <c r="P7" t="n">
-        <v>283.4760567862643</v>
+        <v>283.5139771990498</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29766,28 +29766,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.0894493231644693</v>
+        <v>0.08796039332406697</v>
       </c>
       <c r="J8" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K8" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002247599422467994</v>
+        <v>0.002185069205385526</v>
       </c>
       <c r="M8" t="n">
-        <v>10.37273116664437</v>
+        <v>10.35278385994995</v>
       </c>
       <c r="N8" t="n">
-        <v>192.7319828719149</v>
+        <v>192.2173626111255</v>
       </c>
       <c r="O8" t="n">
-        <v>13.88279449073258</v>
+        <v>13.8642476395629</v>
       </c>
       <c r="P8" t="n">
-        <v>279.1570357822278</v>
+        <v>279.1727485608214</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29844,28 +29844,28 @@
         <v>0.1475</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.007391687583240503</v>
+        <v>-0.009989854142662201</v>
       </c>
       <c r="J9" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K9" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L9" t="n">
-        <v>1.273803826951081e-05</v>
+        <v>2.338017517333757e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>12.03884265916811</v>
+        <v>12.02236004632524</v>
       </c>
       <c r="N9" t="n">
-        <v>235.3143526622164</v>
+        <v>234.777758978169</v>
       </c>
       <c r="O9" t="n">
-        <v>15.33995934356465</v>
+        <v>15.32245929928251</v>
       </c>
       <c r="P9" t="n">
-        <v>273.5820472481987</v>
+        <v>273.6090268482313</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29922,28 +29922,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02463124321002057</v>
+        <v>0.02378418875691724</v>
       </c>
       <c r="J10" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K10" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L10" t="n">
-        <v>5.693659924110861e-05</v>
+        <v>5.339716985908183e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>18.22735656746703</v>
+        <v>18.18024573917098</v>
       </c>
       <c r="N10" t="n">
-        <v>549.0765783474229</v>
+        <v>547.549202052719</v>
       </c>
       <c r="O10" t="n">
-        <v>23.43238311285096</v>
+        <v>23.39976927349326</v>
       </c>
       <c r="P10" t="n">
-        <v>257.635298339088</v>
+        <v>257.644420591995</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30000,28 +30000,28 @@
         <v>0.0484</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2824343405429297</v>
+        <v>-0.2852077293740647</v>
       </c>
       <c r="J11" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K11" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007560792659916937</v>
+        <v>0.007750083187589407</v>
       </c>
       <c r="M11" t="n">
-        <v>18.43355351641727</v>
+        <v>18.39688473672453</v>
       </c>
       <c r="N11" t="n">
-        <v>572.2468427701427</v>
+        <v>570.7291491211125</v>
       </c>
       <c r="O11" t="n">
-        <v>23.92168143693379</v>
+        <v>23.88993824021135</v>
       </c>
       <c r="P11" t="n">
-        <v>264.9203774729185</v>
+        <v>264.94936103276</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30072,28 +30072,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.2065101976066305</v>
+        <v>-0.2037445298503518</v>
       </c>
       <c r="J12" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K12" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001455167743043995</v>
+        <v>0.001425266985515372</v>
       </c>
       <c r="M12" t="n">
-        <v>29.03866768746343</v>
+        <v>28.95727569997307</v>
       </c>
       <c r="N12" t="n">
-        <v>1555.071539739416</v>
+        <v>1550.262093851218</v>
       </c>
       <c r="O12" t="n">
-        <v>39.43439538955067</v>
+        <v>39.37336782459964</v>
       </c>
       <c r="P12" t="n">
-        <v>261.2369937687881</v>
+        <v>261.207508246246</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30150,28 +30150,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1879195268774204</v>
+        <v>-0.1833035116679585</v>
       </c>
       <c r="J13" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K13" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001131414637728478</v>
+        <v>0.001084001524273459</v>
       </c>
       <c r="M13" t="n">
-        <v>29.30310371604607</v>
+        <v>29.22230494625325</v>
       </c>
       <c r="N13" t="n">
-        <v>1678.410104248221</v>
+        <v>1673.016769424798</v>
       </c>
       <c r="O13" t="n">
-        <v>40.96840373078039</v>
+        <v>40.90252766547317</v>
       </c>
       <c r="P13" t="n">
-        <v>260.7910173918819</v>
+        <v>260.7430399894552</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30222,28 +30222,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.03496991713607957</v>
+        <v>-0.03851545635935513</v>
       </c>
       <c r="J14" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K14" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L14" t="n">
-        <v>7.326224275439053e-05</v>
+        <v>8.942920751486838e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>20.59131487752658</v>
+        <v>20.54764226348627</v>
       </c>
       <c r="N14" t="n">
-        <v>919.0365449401319</v>
+        <v>916.3170171980588</v>
       </c>
       <c r="O14" t="n">
-        <v>30.31561552962651</v>
+        <v>30.27072871930999</v>
       </c>
       <c r="P14" t="n">
-        <v>262.4433841584067</v>
+        <v>262.4797537797695</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30300,28 +30300,28 @@
         <v>0.0605</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.212055146324614</v>
+        <v>-0.2214531231000479</v>
       </c>
       <c r="J15" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K15" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006894523191266488</v>
+        <v>0.007535771372957467</v>
       </c>
       <c r="M15" t="n">
-        <v>14.940187347392</v>
+        <v>14.95469995089729</v>
       </c>
       <c r="N15" t="n">
-        <v>357.0730102193966</v>
+        <v>357.0496426707541</v>
       </c>
       <c r="O15" t="n">
-        <v>18.89637558420653</v>
+        <v>18.89575726640121</v>
       </c>
       <c r="P15" t="n">
-        <v>259.3995191766685</v>
+        <v>259.4959012809359</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30378,28 +30378,28 @@
         <v>0.0532</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2847217059218626</v>
+        <v>-0.2935962044705563</v>
       </c>
       <c r="J16" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K16" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01418181215339753</v>
+        <v>0.01510661772531652</v>
       </c>
       <c r="M16" t="n">
-        <v>14.14722804542382</v>
+        <v>14.15853190662886</v>
       </c>
       <c r="N16" t="n">
-        <v>305.3374094336074</v>
+        <v>305.3531426581949</v>
       </c>
       <c r="O16" t="n">
-        <v>17.47390653041293</v>
+        <v>17.47435671657744</v>
       </c>
       <c r="P16" t="n">
-        <v>262.5140033493427</v>
+        <v>262.6061024387302</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30450,28 +30450,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.3474519097373058</v>
+        <v>-0.3580872537962771</v>
       </c>
       <c r="J17" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K17" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02126698840793673</v>
+        <v>0.02260429795598917</v>
       </c>
       <c r="M17" t="n">
-        <v>13.28807980374352</v>
+        <v>13.30722542503889</v>
       </c>
       <c r="N17" t="n">
-        <v>297.8766266738654</v>
+        <v>298.1052523126693</v>
       </c>
       <c r="O17" t="n">
-        <v>17.25910271925703</v>
+        <v>17.26572478387946</v>
       </c>
       <c r="P17" t="n">
-        <v>268.7833433799379</v>
+        <v>268.895820760958</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">

--- a/data/nzd0545/nzd0545.xlsx
+++ b/data/nzd0545/nzd0545.xlsx
@@ -29312,9 +29312,15 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I2" t="n">
         <v>-0.4453513920029286</v>
       </c>
@@ -29384,9 +29390,15 @@
       <c r="E3" t="n">
         <v>0.9333302292930629</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0198</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0387</v>
+      </c>
       <c r="I3" t="n">
         <v>2.58727234730935</v>
       </c>
@@ -29460,10 +29472,10 @@
         <v>0.025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0234</v>
+        <v>0.0239</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0276</v>
+        <v>0.0281</v>
       </c>
       <c r="I4" t="n">
         <v>-0.5262499200513929</v>
@@ -29538,10 +29550,10 @@
         <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0344</v>
+        <v>0.0328</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0527</v>
+        <v>0.0495</v>
       </c>
       <c r="I5" t="n">
         <v>-0.3973281731073503</v>
@@ -29612,9 +29624,15 @@
       <c r="E6" t="n">
         <v>0.7333209171646139</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0524</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0717</v>
+      </c>
       <c r="I6" t="n">
         <v>-0.417179369050167</v>
       </c>
@@ -29685,13 +29703,13 @@
         <v>0.6666511464575904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0591</v>
+        <v>0.1037</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1182</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1037067050846539</v>
@@ -29762,9 +29780,15 @@
       <c r="E8" t="n">
         <v>0.5999813757481074</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1662</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I8" t="n">
         <v>0.08796449178000314</v>
       </c>
@@ -29835,13 +29859,13 @@
         <v>0.5333121675453385</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07770000000000001</v>
+        <v>0.0573</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1475</v>
+        <v>0.1311</v>
       </c>
       <c r="I9" t="n">
         <v>-0.009989854142662152</v>
@@ -29913,13 +29937,13 @@
         <v>0.4666423968355015</v>
       </c>
       <c r="F10" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0883</v>
+        <v>0.0329</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.0516</v>
       </c>
       <c r="I10" t="n">
         <v>0.02375613731312061</v>
@@ -29991,13 +30015,13 @@
         <v>0.3999726261283092</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.025</v>
       </c>
       <c r="G11" t="n">
-        <v>0.033</v>
+        <v>0.0199</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0484</v>
+        <v>0.027</v>
       </c>
       <c r="I11" t="n">
         <v>-0.2852077293740647</v>
@@ -30068,9 +30092,15 @@
       <c r="E12" t="n">
         <v>0.3333028554209266</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0248</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.037</v>
+      </c>
       <c r="I12" t="n">
         <v>-0.2037605874632465</v>
       </c>
@@ -30141,13 +30171,13 @@
         <v>0.2666330847111849</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08</v>
+        <v>0.025</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0465</v>
+        <v>0.023</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.0321</v>
       </c>
       <c r="I13" t="n">
         <v>-0.1832850364680989</v>
@@ -30218,9 +30248,15 @@
       <c r="E14" t="n">
         <v>0.1999633140038022</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0248</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.035</v>
+      </c>
       <c r="I14" t="n">
         <v>-0.03851545635935486</v>
       </c>
@@ -30291,13 +30327,13 @@
         <v>0.1333395414187857</v>
       </c>
       <c r="F15" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0356</v>
+        <v>0.0292</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0605</v>
+        <v>0.0534</v>
       </c>
       <c r="I15" t="n">
         <v>-0.2214715075675116</v>
@@ -30369,13 +30405,13 @@
         <v>0.06666977070943818</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0391</v>
+        <v>0.0248</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0532</v>
+        <v>0.0376</v>
       </c>
       <c r="I16" t="n">
         <v>-0.2936109713965815</v>
@@ -30446,9 +30482,15 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0414</v>
+      </c>
       <c r="I17" t="n">
         <v>-0.3581106698116817</v>
       </c>

--- a/data/nzd0545/nzd0545.xlsx
+++ b/data/nzd0545/nzd0545.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R453"/>
+  <dimension ref="A1:R454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +562,7 @@
         <v>241.84</v>
       </c>
       <c r="O2" t="n">
-        <v>235.09</v>
+        <v>235.95</v>
       </c>
       <c r="P2" t="n">
         <v>244.27</v>
@@ -622,7 +622,7 @@
         <v>252.16</v>
       </c>
       <c r="O3" t="n">
-        <v>248.07</v>
+        <v>248.5</v>
       </c>
       <c r="P3" t="n">
         <v>251.69</v>
@@ -682,7 +682,7 @@
         <v>252.47</v>
       </c>
       <c r="O4" t="n">
-        <v>249.96</v>
+        <v>249.51</v>
       </c>
       <c r="P4" t="n">
         <v>249.5</v>
@@ -742,7 +742,7 @@
         <v>259.26</v>
       </c>
       <c r="O5" t="n">
-        <v>254.62</v>
+        <v>254.91</v>
       </c>
       <c r="P5" t="n">
         <v>254.67</v>
@@ -802,7 +802,7 @@
         <v>266.36</v>
       </c>
       <c r="O6" t="n">
-        <v>256.26</v>
+        <v>256.14</v>
       </c>
       <c r="P6" t="n">
         <v>249.12</v>
@@ -850,7 +850,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>246.42</v>
+        <v>245.78</v>
       </c>
       <c r="P7" t="n">
         <v>232.05</v>
@@ -900,7 +900,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>246.42</v>
+        <v>245.78</v>
       </c>
       <c r="P8" t="n">
         <v>232.05</v>
@@ -956,7 +956,7 @@
         <v>278.37</v>
       </c>
       <c r="O9" t="n">
-        <v>257.02</v>
+        <v>257.59</v>
       </c>
       <c r="P9" t="n">
         <v>253.5</v>
@@ -1016,7 +1016,7 @@
         <v>261.49</v>
       </c>
       <c r="O10" t="n">
-        <v>253.6</v>
+        <v>252.91</v>
       </c>
       <c r="P10" t="n">
         <v>251.94</v>
@@ -1076,7 +1076,7 @@
         <v>273.57</v>
       </c>
       <c r="O11" t="n">
-        <v>265.55</v>
+        <v>265.8</v>
       </c>
       <c r="P11" t="n">
         <v>269.13</v>
@@ -1136,7 +1136,7 @@
         <v>272.77</v>
       </c>
       <c r="O12" t="n">
-        <v>264.83</v>
+        <v>264.76</v>
       </c>
       <c r="P12" t="n">
         <v>265.73</v>
@@ -1196,7 +1196,7 @@
         <v>277.78</v>
       </c>
       <c r="O13" t="n">
-        <v>267.65</v>
+        <v>267.29</v>
       </c>
       <c r="P13" t="n">
         <v>269.25</v>
@@ -1256,7 +1256,7 @@
         <v>285.38</v>
       </c>
       <c r="O14" t="n">
-        <v>271.72</v>
+        <v>272.1</v>
       </c>
       <c r="P14" t="n">
         <v>274.41</v>
@@ -1316,7 +1316,7 @@
         <v>285.38</v>
       </c>
       <c r="O15" t="n">
-        <v>269.9</v>
+        <v>270.15</v>
       </c>
       <c r="P15" t="n">
         <v>270.14</v>
@@ -1376,7 +1376,7 @@
         <v>280.49</v>
       </c>
       <c r="O16" t="n">
-        <v>267.79</v>
+        <v>267.12</v>
       </c>
       <c r="P16" t="n">
         <v>266.23</v>
@@ -1432,7 +1432,7 @@
         <v>271.56</v>
       </c>
       <c r="O17" t="n">
-        <v>265.85</v>
+        <v>265.33</v>
       </c>
       <c r="P17" t="n">
         <v>267.21</v>
@@ -1492,7 +1492,7 @@
         <v>280.7</v>
       </c>
       <c r="O18" t="n">
-        <v>273.19</v>
+        <v>272.59</v>
       </c>
       <c r="P18" t="n">
         <v>273.32</v>
@@ -1552,7 +1552,7 @@
         <v>295.79</v>
       </c>
       <c r="O19" t="n">
-        <v>281.28</v>
+        <v>280.1</v>
       </c>
       <c r="P19" t="n">
         <v>288.03</v>
@@ -1612,7 +1612,7 @@
         <v>308.08</v>
       </c>
       <c r="O20" t="n">
-        <v>287.46</v>
+        <v>286.25</v>
       </c>
       <c r="P20" t="n">
         <v>297.02</v>
@@ -1672,7 +1672,7 @@
         <v>299.1</v>
       </c>
       <c r="O21" t="n">
-        <v>280</v>
+        <v>278.78</v>
       </c>
       <c r="P21" t="n">
         <v>290.77</v>
@@ -1732,7 +1732,7 @@
         <v>299.1</v>
       </c>
       <c r="O22" t="n">
-        <v>280</v>
+        <v>278.78</v>
       </c>
       <c r="P22" t="n">
         <v>290.77</v>
@@ -1792,7 +1792,7 @@
         <v>299.1</v>
       </c>
       <c r="O23" t="n">
-        <v>270.6</v>
+        <v>270.04</v>
       </c>
       <c r="P23" t="n">
         <v>281.85</v>
@@ -1852,7 +1852,7 @@
         <v>297.8</v>
       </c>
       <c r="O24" t="n">
-        <v>263.08</v>
+        <v>262.1</v>
       </c>
       <c r="P24" t="n">
         <v>273.1</v>
@@ -1912,7 +1912,7 @@
         <v>270.92</v>
       </c>
       <c r="O25" t="n">
-        <v>258.27</v>
+        <v>257.34</v>
       </c>
       <c r="P25" t="n">
         <v>265.14</v>
@@ -1972,7 +1972,7 @@
         <v>264.78</v>
       </c>
       <c r="O26" t="n">
-        <v>254.84</v>
+        <v>253.66</v>
       </c>
       <c r="P26" t="n">
         <v>257.15</v>
@@ -2032,7 +2032,7 @@
         <v>278.71</v>
       </c>
       <c r="O27" t="n">
-        <v>266.62</v>
+        <v>266.17</v>
       </c>
       <c r="P27" t="n">
         <v>268.6</v>
@@ -2092,7 +2092,7 @@
         <v>282.59</v>
       </c>
       <c r="O28" t="n">
-        <v>268.89</v>
+        <v>269.03</v>
       </c>
       <c r="P28" t="n">
         <v>271.24</v>
@@ -2152,7 +2152,7 @@
         <v>276.48</v>
       </c>
       <c r="O29" t="n">
-        <v>266.29</v>
+        <v>266.38</v>
       </c>
       <c r="P29" t="n">
         <v>273.66</v>
@@ -2212,7 +2212,7 @@
         <v>270.23</v>
       </c>
       <c r="O30" t="n">
-        <v>262.4</v>
+        <v>261.81</v>
       </c>
       <c r="P30" t="n">
         <v>269.97</v>
@@ -2272,7 +2272,7 @@
         <v>271.33</v>
       </c>
       <c r="O31" t="n">
-        <v>264.46</v>
+        <v>264.44</v>
       </c>
       <c r="P31" t="n">
         <v>273.02</v>
@@ -2332,7 +2332,7 @@
         <v>262.19</v>
       </c>
       <c r="O32" t="n">
-        <v>262.4</v>
+        <v>261.42</v>
       </c>
       <c r="P32" t="n">
         <v>266.91</v>
@@ -2392,7 +2392,7 @@
         <v>262.67</v>
       </c>
       <c r="O33" t="n">
-        <v>261.96</v>
+        <v>260.58</v>
       </c>
       <c r="P33" t="n">
         <v>263.96</v>
@@ -2452,7 +2452,7 @@
         <v>259.75</v>
       </c>
       <c r="O34" t="n">
-        <v>259.91</v>
+        <v>258.53</v>
       </c>
       <c r="P34" t="n">
         <v>259.2</v>
@@ -2512,7 +2512,7 @@
         <v>259.85</v>
       </c>
       <c r="O35" t="n">
-        <v>259.34</v>
+        <v>258.13</v>
       </c>
       <c r="P35" t="n">
         <v>257.62</v>
@@ -2572,7 +2572,7 @@
         <v>261.69</v>
       </c>
       <c r="O36" t="n">
-        <v>259.77</v>
+        <v>259.42</v>
       </c>
       <c r="P36" t="n">
         <v>257.69</v>
@@ -2632,7 +2632,7 @@
         <v>258.54</v>
       </c>
       <c r="O37" t="n">
-        <v>255.27</v>
+        <v>254.2</v>
       </c>
       <c r="P37" t="n">
         <v>250.35</v>
@@ -2692,7 +2692,7 @@
         <v>264.84</v>
       </c>
       <c r="O38" t="n">
-        <v>255.51</v>
+        <v>255.97</v>
       </c>
       <c r="P38" t="n">
         <v>254.91</v>
@@ -2752,7 +2752,7 @@
         <v>267.51</v>
       </c>
       <c r="O39" t="n">
-        <v>257.22</v>
+        <v>257.81</v>
       </c>
       <c r="P39" t="n">
         <v>257.55</v>
@@ -2812,7 +2812,7 @@
         <v>266.19</v>
       </c>
       <c r="O40" t="n">
-        <v>256.51</v>
+        <v>257.21</v>
       </c>
       <c r="P40" t="n">
         <v>257.16</v>
@@ -2872,7 +2872,7 @@
         <v>270.47</v>
       </c>
       <c r="O41" t="n">
-        <v>260</v>
+        <v>260.87</v>
       </c>
       <c r="P41" t="n">
         <v>260.17</v>
@@ -2932,7 +2932,7 @@
         <v>270.32</v>
       </c>
       <c r="O42" t="n">
-        <v>259.78</v>
+        <v>260.46</v>
       </c>
       <c r="P42" t="n">
         <v>257.95</v>
@@ -2990,7 +2990,7 @@
         <v>275.42</v>
       </c>
       <c r="O43" t="n">
-        <v>266.19</v>
+        <v>266.08</v>
       </c>
       <c r="P43" t="n">
         <v>259.38</v>
@@ -3048,7 +3048,7 @@
         <v>260.74</v>
       </c>
       <c r="O44" t="n">
-        <v>266.19</v>
+        <v>266.08</v>
       </c>
       <c r="P44" t="n">
         <v>259.38</v>
@@ -3108,7 +3108,7 @@
         <v>242.36</v>
       </c>
       <c r="O45" t="n">
-        <v>262.61</v>
+        <v>261.95</v>
       </c>
       <c r="P45" t="n">
         <v>258.44</v>
@@ -3168,7 +3168,7 @@
         <v>230.44</v>
       </c>
       <c r="O46" t="n">
-        <v>263.38</v>
+        <v>263.04</v>
       </c>
       <c r="P46" t="n">
         <v>260.93</v>
@@ -3228,7 +3228,7 @@
         <v>220.18</v>
       </c>
       <c r="O47" t="n">
-        <v>263.5</v>
+        <v>263.78</v>
       </c>
       <c r="P47" t="n">
         <v>260.69</v>
@@ -3288,7 +3288,7 @@
         <v>220.18</v>
       </c>
       <c r="O48" t="n">
-        <v>260.23</v>
+        <v>260.21</v>
       </c>
       <c r="P48" t="n">
         <v>256.88</v>
@@ -3348,7 +3348,7 @@
         <v>211.9</v>
       </c>
       <c r="O49" t="n">
-        <v>259.54</v>
+        <v>259.44</v>
       </c>
       <c r="P49" t="n">
         <v>256.25</v>
@@ -3408,7 +3408,7 @@
         <v>217.21</v>
       </c>
       <c r="O50" t="n">
-        <v>261.03</v>
+        <v>260.88</v>
       </c>
       <c r="P50" t="n">
         <v>257.46</v>
@@ -3468,7 +3468,7 @@
         <v>219.06</v>
       </c>
       <c r="O51" t="n">
-        <v>261.19</v>
+        <v>261.09</v>
       </c>
       <c r="P51" t="n">
         <v>258.08</v>
@@ -3528,7 +3528,7 @@
         <v>219.69</v>
       </c>
       <c r="O52" t="n">
-        <v>260.61</v>
+        <v>260.39</v>
       </c>
       <c r="P52" t="n">
         <v>257.87</v>
@@ -3588,7 +3588,7 @@
         <v>222.45</v>
       </c>
       <c r="O53" t="n">
-        <v>261.12</v>
+        <v>260.77</v>
       </c>
       <c r="P53" t="n">
         <v>257.33</v>
@@ -3648,7 +3648,7 @@
         <v>222.45</v>
       </c>
       <c r="O54" t="n">
-        <v>259.54</v>
+        <v>259.3</v>
       </c>
       <c r="P54" t="n">
         <v>256.68</v>
@@ -3708,7 +3708,7 @@
         <v>226.13</v>
       </c>
       <c r="O55" t="n">
-        <v>260.6</v>
+        <v>260.5</v>
       </c>
       <c r="P55" t="n">
         <v>258.58</v>
@@ -3768,7 +3768,7 @@
         <v>224.77</v>
       </c>
       <c r="O56" t="n">
-        <v>260.29</v>
+        <v>260.25</v>
       </c>
       <c r="P56" t="n">
         <v>259.24</v>
@@ -3828,7 +3828,7 @@
         <v>224.93</v>
       </c>
       <c r="O57" t="n">
-        <v>261.03</v>
+        <v>260.88</v>
       </c>
       <c r="P57" t="n">
         <v>259.35</v>
@@ -3888,7 +3888,7 @@
         <v>258.98</v>
       </c>
       <c r="O58" t="n">
-        <v>263.7</v>
+        <v>263.64</v>
       </c>
       <c r="P58" t="n">
         <v>265.64</v>
@@ -3948,7 +3948,7 @@
         <v>272.47</v>
       </c>
       <c r="O59" t="n">
-        <v>265.15</v>
+        <v>265.82</v>
       </c>
       <c r="P59" t="n">
         <v>271.72</v>
@@ -4008,7 +4008,7 @@
         <v>272.47</v>
       </c>
       <c r="O60" t="n">
-        <v>270.68</v>
+        <v>271.23</v>
       </c>
       <c r="P60" t="n">
         <v>276.55</v>
@@ -4068,7 +4068,7 @@
         <v>275.87</v>
       </c>
       <c r="O61" t="n">
-        <v>271.37</v>
+        <v>271.21</v>
       </c>
       <c r="P61" t="n">
         <v>267.89</v>
@@ -4128,7 +4128,7 @@
         <v>264.06</v>
       </c>
       <c r="O62" t="n">
-        <v>262.43</v>
+        <v>262.14</v>
       </c>
       <c r="P62" t="n">
         <v>262.61</v>
@@ -4188,7 +4188,7 @@
         <v>264.06</v>
       </c>
       <c r="O63" t="n">
-        <v>262.43</v>
+        <v>262.14</v>
       </c>
       <c r="P63" t="n">
         <v>262.61</v>
@@ -4248,7 +4248,7 @@
         <v>259.54</v>
       </c>
       <c r="O64" t="n">
-        <v>251.66</v>
+        <v>251.37</v>
       </c>
       <c r="P64" t="n">
         <v>260.27</v>
@@ -4308,7 +4308,7 @@
         <v>259.54</v>
       </c>
       <c r="O65" t="n">
-        <v>257.12</v>
+        <v>257.11</v>
       </c>
       <c r="P65" t="n">
         <v>264.04</v>
@@ -4368,7 +4368,7 @@
         <v>259.54</v>
       </c>
       <c r="O66" t="n">
-        <v>259.26</v>
+        <v>259.53</v>
       </c>
       <c r="P66" t="n">
         <v>264.56</v>
@@ -4428,7 +4428,7 @@
         <v>257.43</v>
       </c>
       <c r="O67" t="n">
-        <v>260.57</v>
+        <v>260.54</v>
       </c>
       <c r="P67" t="n">
         <v>264.08</v>
@@ -4488,7 +4488,7 @@
         <v>255.79</v>
       </c>
       <c r="O68" t="n">
-        <v>260.64</v>
+        <v>261.27</v>
       </c>
       <c r="P68" t="n">
         <v>263.41</v>
@@ -4548,7 +4548,7 @@
         <v>255.91</v>
       </c>
       <c r="O69" t="n">
-        <v>259.95</v>
+        <v>260.39</v>
       </c>
       <c r="P69" t="n">
         <v>261.81</v>
@@ -4608,7 +4608,7 @@
         <v>256.64</v>
       </c>
       <c r="O70" t="n">
-        <v>260</v>
+        <v>260.25</v>
       </c>
       <c r="P70" t="n">
         <v>261.06</v>
@@ -4668,7 +4668,7 @@
         <v>253.98</v>
       </c>
       <c r="O71" t="n">
-        <v>258.61</v>
+        <v>258.85</v>
       </c>
       <c r="P71" t="n">
         <v>258.75</v>
@@ -4728,7 +4728,7 @@
         <v>258</v>
       </c>
       <c r="O72" t="n">
-        <v>260.1</v>
+        <v>260.4</v>
       </c>
       <c r="P72" t="n">
         <v>259.96</v>
@@ -4788,7 +4788,7 @@
         <v>257.01</v>
       </c>
       <c r="O73" t="n">
-        <v>259.12</v>
+        <v>259.1</v>
       </c>
       <c r="P73" t="n">
         <v>259.95</v>
@@ -4848,7 +4848,7 @@
         <v>257.01</v>
       </c>
       <c r="O74" t="n">
-        <v>263.36</v>
+        <v>263.51</v>
       </c>
       <c r="P74" t="n">
         <v>259.95</v>
@@ -4908,7 +4908,7 @@
         <v>266.08</v>
       </c>
       <c r="O75" t="n">
-        <v>271.78</v>
+        <v>271.97</v>
       </c>
       <c r="P75" t="n">
         <v>263.73</v>
@@ -4968,7 +4968,7 @@
         <v>272.92</v>
       </c>
       <c r="O76" t="n">
-        <v>272.99</v>
+        <v>273.04</v>
       </c>
       <c r="P76" t="n">
         <v>264.37</v>
@@ -5028,7 +5028,7 @@
         <v>286.43</v>
       </c>
       <c r="O77" t="n">
-        <v>280.89</v>
+        <v>281.26</v>
       </c>
       <c r="P77" t="n">
         <v>274.49</v>
@@ -5088,7 +5088,7 @@
         <v>290.01</v>
       </c>
       <c r="O78" t="n">
-        <v>283.34</v>
+        <v>283.42</v>
       </c>
       <c r="P78" t="n">
         <v>279.48</v>
@@ -5148,7 +5148,7 @@
         <v>290.19</v>
       </c>
       <c r="O79" t="n">
-        <v>283.21</v>
+        <v>283.22</v>
       </c>
       <c r="P79" t="n">
         <v>281.23</v>
@@ -5208,7 +5208,7 @@
         <v>290.36</v>
       </c>
       <c r="O80" t="n">
-        <v>283.08</v>
+        <v>282.64</v>
       </c>
       <c r="P80" t="n">
         <v>282.44</v>
@@ -5268,7 +5268,7 @@
         <v>291.5</v>
       </c>
       <c r="O81" t="n">
-        <v>279.73</v>
+        <v>278.92</v>
       </c>
       <c r="P81" t="n">
         <v>286.19</v>
@@ -5328,7 +5328,7 @@
         <v>290.07</v>
       </c>
       <c r="O82" t="n">
-        <v>280.31</v>
+        <v>279.26</v>
       </c>
       <c r="P82" t="n">
         <v>286.17</v>
@@ -5388,7 +5388,7 @@
         <v>289.95</v>
       </c>
       <c r="O83" t="n">
-        <v>279.59</v>
+        <v>278.95</v>
       </c>
       <c r="P83" t="n">
         <v>286.03</v>
@@ -5448,7 +5448,7 @@
         <v>287.27</v>
       </c>
       <c r="O84" t="n">
-        <v>279.06</v>
+        <v>278.2</v>
       </c>
       <c r="P84" t="n">
         <v>285.87</v>
@@ -5508,7 +5508,7 @@
         <v>286.34</v>
       </c>
       <c r="O85" t="n">
-        <v>276.31</v>
+        <v>275.26</v>
       </c>
       <c r="P85" t="n">
         <v>287.68</v>
@@ -5568,7 +5568,7 @@
         <v>283.05</v>
       </c>
       <c r="O86" t="n">
-        <v>272.75</v>
+        <v>271.81</v>
       </c>
       <c r="P86" t="n">
         <v>287.68</v>
@@ -5628,7 +5628,7 @@
         <v>278.86</v>
       </c>
       <c r="O87" t="n">
-        <v>266.1</v>
+        <v>265.15</v>
       </c>
       <c r="P87" t="n">
         <v>281.35</v>
@@ -5688,7 +5688,7 @@
         <v>278.86</v>
       </c>
       <c r="O88" t="n">
-        <v>263.98</v>
+        <v>263.28</v>
       </c>
       <c r="P88" t="n">
         <v>278.31</v>
@@ -5748,7 +5748,7 @@
         <v>278.86</v>
       </c>
       <c r="O89" t="n">
-        <v>261.98</v>
+        <v>261.55</v>
       </c>
       <c r="P89" t="n">
         <v>275.79</v>
@@ -5808,7 +5808,7 @@
         <v>275.76</v>
       </c>
       <c r="O90" t="n">
-        <v>261.11</v>
+        <v>260.51</v>
       </c>
       <c r="P90" t="n">
         <v>274.46</v>
@@ -5868,7 +5868,7 @@
         <v>275.76</v>
       </c>
       <c r="O91" t="n">
-        <v>261.69</v>
+        <v>261.29</v>
       </c>
       <c r="P91" t="n">
         <v>273.24</v>
@@ -5928,7 +5928,7 @@
         <v>274.67</v>
       </c>
       <c r="O92" t="n">
-        <v>261.9</v>
+        <v>261.65</v>
       </c>
       <c r="P92" t="n">
         <v>273.67</v>
@@ -5988,7 +5988,7 @@
         <v>264.89</v>
       </c>
       <c r="O93" t="n">
-        <v>256.61</v>
+        <v>256.38</v>
       </c>
       <c r="P93" t="n">
         <v>266.49</v>
@@ -6048,7 +6048,7 @@
         <v>264.76</v>
       </c>
       <c r="O94" t="n">
-        <v>256.59</v>
+        <v>256.3</v>
       </c>
       <c r="P94" t="n">
         <v>264.92</v>
@@ -6108,7 +6108,7 @@
         <v>260.12</v>
       </c>
       <c r="O95" t="n">
-        <v>254.16</v>
+        <v>254.12</v>
       </c>
       <c r="P95" t="n">
         <v>262.22</v>
@@ -6168,7 +6168,7 @@
         <v>253.34</v>
       </c>
       <c r="O96" t="n">
-        <v>253.16</v>
+        <v>253.22</v>
       </c>
       <c r="P96" t="n">
         <v>253.5</v>
@@ -6228,7 +6228,7 @@
         <v>259.5</v>
       </c>
       <c r="O97" t="n">
-        <v>256.87</v>
+        <v>257.13</v>
       </c>
       <c r="P97" t="n">
         <v>255.52</v>
@@ -6288,7 +6288,7 @@
         <v>265.64</v>
       </c>
       <c r="O98" t="n">
-        <v>259.27</v>
+        <v>258.98</v>
       </c>
       <c r="P98" t="n">
         <v>250.08</v>
@@ -6348,7 +6348,7 @@
         <v>266.32</v>
       </c>
       <c r="O99" t="n">
-        <v>260.24</v>
+        <v>260.2</v>
       </c>
       <c r="P99" t="n">
         <v>250.9</v>
@@ -6408,7 +6408,7 @@
         <v>296.44</v>
       </c>
       <c r="O100" t="n">
-        <v>257.31</v>
+        <v>258.62</v>
       </c>
       <c r="P100" t="n">
         <v>246.25</v>
@@ -6468,7 +6468,7 @@
         <v>259.55</v>
       </c>
       <c r="O101" t="n">
-        <v>236.85</v>
+        <v>235.55</v>
       </c>
       <c r="P101" t="n">
         <v>238.55</v>
@@ -6528,7 +6528,7 @@
         <v>228.12</v>
       </c>
       <c r="O102" t="n">
-        <v>234.76</v>
+        <v>234.91</v>
       </c>
       <c r="P102" t="n">
         <v>242.4</v>
@@ -6588,7 +6588,7 @@
         <v>225.39</v>
       </c>
       <c r="O103" t="n">
-        <v>234.39</v>
+        <v>234.16</v>
       </c>
       <c r="P103" t="n">
         <v>239.99</v>
@@ -6648,7 +6648,7 @@
         <v>231.42</v>
       </c>
       <c r="O104" t="n">
-        <v>235.9</v>
+        <v>235.6</v>
       </c>
       <c r="P104" t="n">
         <v>239.62</v>
@@ -6708,7 +6708,7 @@
         <v>232.98</v>
       </c>
       <c r="O105" t="n">
-        <v>235.31</v>
+        <v>235.3</v>
       </c>
       <c r="P105" t="n">
         <v>241.17</v>
@@ -6768,7 +6768,7 @@
         <v>237.44</v>
       </c>
       <c r="O106" t="n">
-        <v>236.79</v>
+        <v>237.1</v>
       </c>
       <c r="P106" t="n">
         <v>244.4</v>
@@ -6828,7 +6828,7 @@
         <v>240.05</v>
       </c>
       <c r="O107" t="n">
-        <v>238.02</v>
+        <v>238.62</v>
       </c>
       <c r="P107" t="n">
         <v>246.45</v>
@@ -6888,7 +6888,7 @@
         <v>242.07</v>
       </c>
       <c r="O108" t="n">
-        <v>239.92</v>
+        <v>240.32</v>
       </c>
       <c r="P108" t="n">
         <v>246.45</v>
@@ -6948,7 +6948,7 @@
         <v>258.45</v>
       </c>
       <c r="O109" t="n">
-        <v>249.44</v>
+        <v>250.87</v>
       </c>
       <c r="P109" t="n">
         <v>260.21</v>
@@ -7008,7 +7008,7 @@
         <v>256.14</v>
       </c>
       <c r="O110" t="n">
-        <v>250.69</v>
+        <v>251.88</v>
       </c>
       <c r="P110" t="n">
         <v>258.44</v>
@@ -7068,7 +7068,7 @@
         <v>256.27</v>
       </c>
       <c r="O111" t="n">
-        <v>244.82</v>
+        <v>244.07</v>
       </c>
       <c r="P111" t="n">
         <v>242.1</v>
@@ -7128,7 +7128,7 @@
         <v>256.27</v>
       </c>
       <c r="O112" t="n">
-        <v>248.37</v>
+        <v>247.83</v>
       </c>
       <c r="P112" t="n">
         <v>242.29</v>
@@ -7188,7 +7188,7 @@
         <v>254.25</v>
       </c>
       <c r="O113" t="n">
-        <v>241.05</v>
+        <v>240.37</v>
       </c>
       <c r="P113" t="n">
         <v>237.84</v>
@@ -7248,7 +7248,7 @@
         <v>254.25</v>
       </c>
       <c r="O114" t="n">
-        <v>241.05</v>
+        <v>240.37</v>
       </c>
       <c r="P114" t="n">
         <v>237.84</v>
@@ -7308,7 +7308,7 @@
         <v>254.25</v>
       </c>
       <c r="O115" t="n">
-        <v>241.8</v>
+        <v>240.87</v>
       </c>
       <c r="P115" t="n">
         <v>237.57</v>
@@ -7368,7 +7368,7 @@
         <v>254.25</v>
       </c>
       <c r="O116" t="n">
-        <v>239.26</v>
+        <v>238.85</v>
       </c>
       <c r="P116" t="n">
         <v>237.51</v>
@@ -7428,7 +7428,7 @@
         <v>251.7</v>
       </c>
       <c r="O117" t="n">
-        <v>240.66</v>
+        <v>239.98</v>
       </c>
       <c r="P117" t="n">
         <v>238.22</v>
@@ -7488,7 +7488,7 @@
         <v>250.53</v>
       </c>
       <c r="O118" t="n">
-        <v>240.78</v>
+        <v>239.92</v>
       </c>
       <c r="P118" t="n">
         <v>238</v>
@@ -7548,7 +7548,7 @@
         <v>253.33</v>
       </c>
       <c r="O119" t="n">
-        <v>240.82</v>
+        <v>239.69</v>
       </c>
       <c r="P119" t="n">
         <v>235.87</v>
@@ -7608,7 +7608,7 @@
         <v>255.57</v>
       </c>
       <c r="O120" t="n">
-        <v>240.71</v>
+        <v>239.27</v>
       </c>
       <c r="P120" t="n">
         <v>237.63</v>
@@ -7668,7 +7668,7 @@
         <v>262.41</v>
       </c>
       <c r="O121" t="n">
-        <v>247.35</v>
+        <v>246.32</v>
       </c>
       <c r="P121" t="n">
         <v>245.34</v>
@@ -7728,7 +7728,7 @@
         <v>266.49</v>
       </c>
       <c r="O122" t="n">
-        <v>252.05</v>
+        <v>251.54</v>
       </c>
       <c r="P122" t="n">
         <v>251.85</v>
@@ -7788,7 +7788,7 @@
         <v>265.92</v>
       </c>
       <c r="O123" t="n">
-        <v>255.07</v>
+        <v>253.76</v>
       </c>
       <c r="P123" t="n">
         <v>253.37</v>
@@ -7848,7 +7848,7 @@
         <v>275.7</v>
       </c>
       <c r="O124" t="n">
-        <v>260.09</v>
+        <v>259.15</v>
       </c>
       <c r="P124" t="n">
         <v>260.43</v>
@@ -7904,7 +7904,7 @@
         <v>294.28</v>
       </c>
       <c r="O125" t="n">
-        <v>275.32</v>
+        <v>277.32</v>
       </c>
       <c r="P125" t="n">
         <v>275.69</v>
@@ -7960,7 +7960,7 @@
         <v>294.28</v>
       </c>
       <c r="O126" t="n">
-        <v>256.91</v>
+        <v>259.12</v>
       </c>
       <c r="P126" t="n">
         <v>265.68</v>
@@ -8014,7 +8014,7 @@
         <v>274.56</v>
       </c>
       <c r="O127" t="n">
-        <v>254.2</v>
+        <v>255.68</v>
       </c>
       <c r="P127" t="n">
         <v>263.17</v>
@@ -8074,7 +8074,7 @@
         <v>283.94</v>
       </c>
       <c r="O128" t="n">
-        <v>265.68</v>
+        <v>267.2</v>
       </c>
       <c r="P128" t="n">
         <v>269.08</v>
@@ -8134,7 +8134,7 @@
         <v>283.94</v>
       </c>
       <c r="O129" t="n">
-        <v>265.68</v>
+        <v>267.2</v>
       </c>
       <c r="P129" t="n">
         <v>270.31</v>
@@ -8194,7 +8194,7 @@
         <v>283.94</v>
       </c>
       <c r="O130" t="n">
-        <v>266.65</v>
+        <v>268.1</v>
       </c>
       <c r="P130" t="n">
         <v>275.97</v>
@@ -8254,7 +8254,7 @@
         <v>280.82</v>
       </c>
       <c r="O131" t="n">
-        <v>269.74</v>
+        <v>270.81</v>
       </c>
       <c r="P131" t="n">
         <v>273.47</v>
@@ -8306,7 +8306,7 @@
         <v>262.44</v>
       </c>
       <c r="O132" t="n">
-        <v>260.21</v>
+        <v>261.29</v>
       </c>
       <c r="P132" t="n">
         <v>264.3</v>
@@ -8358,7 +8358,7 @@
         <v>262.14</v>
       </c>
       <c r="O133" t="n">
-        <v>265.59</v>
+        <v>266.54</v>
       </c>
       <c r="P133" t="n">
         <v>266.82</v>
@@ -8414,7 +8414,7 @@
         <v>262.14</v>
       </c>
       <c r="O134" t="n">
-        <v>274.01</v>
+        <v>273.69</v>
       </c>
       <c r="P134" t="n">
         <v>274.41</v>
@@ -8474,7 +8474,7 @@
         <v>261.65</v>
       </c>
       <c r="O135" t="n">
-        <v>271.29</v>
+        <v>270.66</v>
       </c>
       <c r="P135" t="n">
         <v>274.41</v>
@@ -8534,7 +8534,7 @@
         <v>258.32</v>
       </c>
       <c r="O136" t="n">
-        <v>265.84</v>
+        <v>264.96</v>
       </c>
       <c r="P136" t="n">
         <v>274.41</v>
@@ -8594,7 +8594,7 @@
         <v>261.37</v>
       </c>
       <c r="O137" t="n">
-        <v>265.84</v>
+        <v>264.96</v>
       </c>
       <c r="P137" t="n">
         <v>274.41</v>
@@ -8654,7 +8654,7 @@
         <v>261.37</v>
       </c>
       <c r="O138" t="n">
-        <v>265.84</v>
+        <v>264.96</v>
       </c>
       <c r="P138" t="n">
         <v>274.41</v>
@@ -8714,7 +8714,7 @@
         <v>264.46</v>
       </c>
       <c r="O139" t="n">
-        <v>266.17</v>
+        <v>265.01</v>
       </c>
       <c r="P139" t="n">
         <v>275.5</v>
@@ -8774,7 +8774,7 @@
         <v>265.66</v>
       </c>
       <c r="O140" t="n">
-        <v>266.28</v>
+        <v>264.84</v>
       </c>
       <c r="P140" t="n">
         <v>275.56</v>
@@ -8834,7 +8834,7 @@
         <v>264.39</v>
       </c>
       <c r="O141" t="n">
-        <v>268.3</v>
+        <v>266.02</v>
       </c>
       <c r="P141" t="n">
         <v>280.91</v>
@@ -8894,7 +8894,7 @@
         <v>274.37</v>
       </c>
       <c r="O142" t="n">
-        <v>265.19</v>
+        <v>263.38</v>
       </c>
       <c r="P142" t="n">
         <v>282.53</v>
@@ -8954,7 +8954,7 @@
         <v>284.78</v>
       </c>
       <c r="O143" t="n">
-        <v>274.71</v>
+        <v>273.79</v>
       </c>
       <c r="P143" t="n">
         <v>281.52</v>
@@ -9014,7 +9014,7 @@
         <v>284.78</v>
       </c>
       <c r="O144" t="n">
-        <v>270.87</v>
+        <v>270.43</v>
       </c>
       <c r="P144" t="n">
         <v>275.27</v>
@@ -9074,7 +9074,7 @@
         <v>286.82</v>
       </c>
       <c r="O145" t="n">
-        <v>270.87</v>
+        <v>270.43</v>
       </c>
       <c r="P145" t="n">
         <v>275.27</v>
@@ -9134,7 +9134,7 @@
         <v>295.08</v>
       </c>
       <c r="O146" t="n">
-        <v>269.94</v>
+        <v>271.49</v>
       </c>
       <c r="P146" t="n">
         <v>270.68</v>
@@ -9194,7 +9194,7 @@
         <v>295.08</v>
       </c>
       <c r="O147" t="n">
-        <v>264.19</v>
+        <v>264.92</v>
       </c>
       <c r="P147" t="n">
         <v>267.19</v>
@@ -9254,7 +9254,7 @@
         <v>295.08</v>
       </c>
       <c r="O148" t="n">
-        <v>256.15</v>
+        <v>257.25</v>
       </c>
       <c r="P148" t="n">
         <v>265.6</v>
@@ -9314,7 +9314,7 @@
         <v>287.69</v>
       </c>
       <c r="O149" t="n">
-        <v>254.85</v>
+        <v>255.35</v>
       </c>
       <c r="P149" t="n">
         <v>266.62</v>
@@ -9374,7 +9374,7 @@
         <v>287.69</v>
       </c>
       <c r="O150" t="n">
-        <v>254.85</v>
+        <v>255.35</v>
       </c>
       <c r="P150" t="n">
         <v>262.89</v>
@@ -9434,7 +9434,7 @@
         <v>287.69</v>
       </c>
       <c r="O151" t="n">
-        <v>254.85</v>
+        <v>255.35</v>
       </c>
       <c r="P151" t="n">
         <v>260.78</v>
@@ -9494,7 +9494,7 @@
         <v>272.91</v>
       </c>
       <c r="O152" t="n">
-        <v>242.51</v>
+        <v>241.1</v>
       </c>
       <c r="P152" t="n">
         <v>253.17</v>
@@ -9552,7 +9552,7 @@
         <v>267.12</v>
       </c>
       <c r="O153" t="n">
-        <v>265.81</v>
+        <v>262.92</v>
       </c>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
@@ -9606,7 +9606,7 @@
         <v>267.12</v>
       </c>
       <c r="O154" t="n">
-        <v>265.81</v>
+        <v>262.92</v>
       </c>
       <c r="P154" t="n">
         <v>250.39</v>
@@ -9666,7 +9666,7 @@
         <v>268.11</v>
       </c>
       <c r="O155" t="n">
-        <v>257.66</v>
+        <v>257.43</v>
       </c>
       <c r="P155" t="n">
         <v>251.34</v>
@@ -9726,7 +9726,7 @@
         <v>268.11</v>
       </c>
       <c r="O156" t="n">
-        <v>254.88</v>
+        <v>255.25</v>
       </c>
       <c r="P156" t="n">
         <v>262.67</v>
@@ -9786,7 +9786,7 @@
         <v>254.04</v>
       </c>
       <c r="O157" t="n">
-        <v>252</v>
+        <v>252.79</v>
       </c>
       <c r="P157" t="n">
         <v>260.59</v>
@@ -9846,7 +9846,7 @@
         <v>254.04</v>
       </c>
       <c r="O158" t="n">
-        <v>247.4</v>
+        <v>249.41</v>
       </c>
       <c r="P158" t="n">
         <v>260.59</v>
@@ -9906,7 +9906,7 @@
         <v>248.53</v>
       </c>
       <c r="O159" t="n">
-        <v>247.89</v>
+        <v>249.36</v>
       </c>
       <c r="P159" t="n">
         <v>259.89</v>
@@ -9966,7 +9966,7 @@
         <v>247.36</v>
       </c>
       <c r="O160" t="n">
-        <v>248.36</v>
+        <v>249.34</v>
       </c>
       <c r="P160" t="n">
         <v>257.85</v>
@@ -10026,7 +10026,7 @@
         <v>243.85</v>
       </c>
       <c r="O161" t="n">
-        <v>245.46</v>
+        <v>245.18</v>
       </c>
       <c r="P161" t="n">
         <v>245.22</v>
@@ -10086,7 +10086,7 @@
         <v>249.83</v>
       </c>
       <c r="O162" t="n">
-        <v>246.16</v>
+        <v>245.11</v>
       </c>
       <c r="P162" t="n">
         <v>242.18</v>
@@ -10146,7 +10146,7 @@
         <v>246.73</v>
       </c>
       <c r="O163" t="n">
-        <v>239.77</v>
+        <v>238.25</v>
       </c>
       <c r="P163" t="n">
         <v>243.58</v>
@@ -10206,7 +10206,7 @@
         <v>246.73</v>
       </c>
       <c r="O164" t="n">
-        <v>241.69</v>
+        <v>239.94</v>
       </c>
       <c r="P164" t="n">
         <v>245.89</v>
@@ -10266,7 +10266,7 @@
         <v>246.23</v>
       </c>
       <c r="O165" t="n">
-        <v>236.28</v>
+        <v>233.74</v>
       </c>
       <c r="P165" t="n">
         <v>241.56</v>
@@ -10326,7 +10326,7 @@
         <v>254.42</v>
       </c>
       <c r="O166" t="n">
-        <v>244</v>
+        <v>242.34</v>
       </c>
       <c r="P166" t="n">
         <v>248.5</v>
@@ -10386,7 +10386,7 @@
         <v>254.42</v>
       </c>
       <c r="O167" t="n">
-        <v>241.41</v>
+        <v>240.66</v>
       </c>
       <c r="P167" t="n">
         <v>246.69</v>
@@ -10446,7 +10446,7 @@
         <v>254.11</v>
       </c>
       <c r="O168" t="n">
-        <v>237.61</v>
+        <v>236.78</v>
       </c>
       <c r="P168" t="n">
         <v>249.64</v>
@@ -10506,7 +10506,7 @@
         <v>254.11</v>
       </c>
       <c r="O169" t="n">
-        <v>237.65</v>
+        <v>237.06</v>
       </c>
       <c r="P169" t="n">
         <v>246.81</v>
@@ -10566,7 +10566,7 @@
         <v>258.17</v>
       </c>
       <c r="O170" t="n">
-        <v>241.21</v>
+        <v>240.58</v>
       </c>
       <c r="P170" t="n">
         <v>247.21</v>
@@ -10626,7 +10626,7 @@
         <v>255.87</v>
       </c>
       <c r="O171" t="n">
-        <v>243.32</v>
+        <v>242.78</v>
       </c>
       <c r="P171" t="n">
         <v>248.73</v>
@@ -10686,7 +10686,7 @@
         <v>255.87</v>
       </c>
       <c r="O172" t="n">
-        <v>243.14</v>
+        <v>242.48</v>
       </c>
       <c r="P172" t="n">
         <v>247.3</v>
@@ -10746,7 +10746,7 @@
         <v>262.02</v>
       </c>
       <c r="O173" t="n">
-        <v>245.96</v>
+        <v>245.57</v>
       </c>
       <c r="P173" t="n">
         <v>247.24</v>
@@ -10806,7 +10806,7 @@
         <v>259.85</v>
       </c>
       <c r="O174" t="n">
-        <v>245.23</v>
+        <v>244.45</v>
       </c>
       <c r="P174" t="n">
         <v>247.68</v>
@@ -10866,7 +10866,7 @@
         <v>266.06</v>
       </c>
       <c r="O175" t="n">
-        <v>244.71</v>
+        <v>244.17</v>
       </c>
       <c r="P175" t="n">
         <v>250.52</v>
@@ -10926,7 +10926,7 @@
         <v>266.06</v>
       </c>
       <c r="O176" t="n">
-        <v>244.71</v>
+        <v>244.17</v>
       </c>
       <c r="P176" t="n">
         <v>250.52</v>
@@ -10986,7 +10986,7 @@
         <v>268.88</v>
       </c>
       <c r="O177" t="n">
-        <v>247.86</v>
+        <v>247.45</v>
       </c>
       <c r="P177" t="n">
         <v>252.52</v>
@@ -11046,7 +11046,7 @@
         <v>270.45</v>
       </c>
       <c r="O178" t="n">
-        <v>250.01</v>
+        <v>249.69</v>
       </c>
       <c r="P178" t="n">
         <v>254.11</v>
@@ -11106,7 +11106,7 @@
         <v>270.45</v>
       </c>
       <c r="O179" t="n">
-        <v>250.01</v>
+        <v>249.69</v>
       </c>
       <c r="P179" t="n">
         <v>254.11</v>
@@ -11166,7 +11166,7 @@
         <v>272.18</v>
       </c>
       <c r="O180" t="n">
-        <v>252.93</v>
+        <v>252.49</v>
       </c>
       <c r="P180" t="n">
         <v>256.98</v>
@@ -11226,7 +11226,7 @@
         <v>277.83</v>
       </c>
       <c r="O181" t="n">
-        <v>264.35</v>
+        <v>264.17</v>
       </c>
       <c r="P181" t="n">
         <v>272.69</v>
@@ -11286,7 +11286,7 @@
         <v>282.73</v>
       </c>
       <c r="O182" t="n">
-        <v>270.6</v>
+        <v>271.34</v>
       </c>
       <c r="P182" t="n">
         <v>277</v>
@@ -11346,7 +11346,7 @@
         <v>280.95</v>
       </c>
       <c r="O183" t="n">
-        <v>268.35</v>
+        <v>268.37</v>
       </c>
       <c r="P183" t="n">
         <v>274.56</v>
@@ -11406,7 +11406,7 @@
         <v>279.02</v>
       </c>
       <c r="O184" t="n">
-        <v>264.27</v>
+        <v>264.69</v>
       </c>
       <c r="P184" t="n">
         <v>271.29</v>
@@ -11466,7 +11466,7 @@
         <v>279.17</v>
       </c>
       <c r="O185" t="n">
-        <v>265.39</v>
+        <v>265.96</v>
       </c>
       <c r="P185" t="n">
         <v>270.77</v>
@@ -11526,7 +11526,7 @@
         <v>277.95</v>
       </c>
       <c r="O186" t="n">
-        <v>264.73</v>
+        <v>264.96</v>
       </c>
       <c r="P186" t="n">
         <v>269.84</v>
@@ -11586,7 +11586,7 @@
         <v>277.14</v>
       </c>
       <c r="O187" t="n">
-        <v>262.87</v>
+        <v>262.81</v>
       </c>
       <c r="P187" t="n">
         <v>269.89</v>
@@ -11646,7 +11646,7 @@
         <v>276.58</v>
       </c>
       <c r="O188" t="n">
-        <v>263.29</v>
+        <v>263.41</v>
       </c>
       <c r="P188" t="n">
         <v>270.32</v>
@@ -11706,7 +11706,7 @@
         <v>271.6</v>
       </c>
       <c r="O189" t="n">
-        <v>259.37</v>
+        <v>258.68</v>
       </c>
       <c r="P189" t="n">
         <v>265.07</v>
@@ -11766,7 +11766,7 @@
         <v>271.6</v>
       </c>
       <c r="O190" t="n">
-        <v>260.95</v>
+        <v>260.6</v>
       </c>
       <c r="P190" t="n">
         <v>265.07</v>
@@ -11826,7 +11826,7 @@
         <v>266.47</v>
       </c>
       <c r="O191" t="n">
-        <v>260.77</v>
+        <v>260.57</v>
       </c>
       <c r="P191" t="n">
         <v>263.49</v>
@@ -11886,7 +11886,7 @@
         <v>266.47</v>
       </c>
       <c r="O192" t="n">
-        <v>257.47</v>
+        <v>257.43</v>
       </c>
       <c r="P192" t="n">
         <v>259.49</v>
@@ -11946,7 +11946,7 @@
         <v>259.03</v>
       </c>
       <c r="O193" t="n">
-        <v>254.16</v>
+        <v>254.68</v>
       </c>
       <c r="P193" t="n">
         <v>257.45</v>
@@ -12006,7 +12006,7 @@
         <v>253.38</v>
       </c>
       <c r="O194" t="n">
-        <v>251.81</v>
+        <v>252.52</v>
       </c>
       <c r="P194" t="n">
         <v>257.16</v>
@@ -12066,7 +12066,7 @@
         <v>245.46</v>
       </c>
       <c r="O195" t="n">
-        <v>249.89</v>
+        <v>250.79</v>
       </c>
       <c r="P195" t="n">
         <v>253.16</v>
@@ -12126,7 +12126,7 @@
         <v>247.63</v>
       </c>
       <c r="O196" t="n">
-        <v>250.46</v>
+        <v>251.09</v>
       </c>
       <c r="P196" t="n">
         <v>252.82</v>
@@ -12186,7 +12186,7 @@
         <v>241.19</v>
       </c>
       <c r="O197" t="n">
-        <v>246.29</v>
+        <v>246.97</v>
       </c>
       <c r="P197" t="n">
         <v>247.39</v>
@@ -12246,7 +12246,7 @@
         <v>242.23</v>
       </c>
       <c r="O198" t="n">
-        <v>245.61</v>
+        <v>246.38</v>
       </c>
       <c r="P198" t="n">
         <v>247.45</v>
@@ -12306,7 +12306,7 @@
         <v>244.19</v>
       </c>
       <c r="O199" t="n">
-        <v>246.73</v>
+        <v>247.24</v>
       </c>
       <c r="P199" t="n">
         <v>247.91</v>
@@ -12366,7 +12366,7 @@
         <v>245.53</v>
       </c>
       <c r="O200" t="n">
-        <v>243.81</v>
+        <v>244.25</v>
       </c>
       <c r="P200" t="n">
         <v>250.37</v>
@@ -12426,7 +12426,7 @@
         <v>245.1</v>
       </c>
       <c r="O201" t="n">
-        <v>244.01</v>
+        <v>244.11</v>
       </c>
       <c r="P201" t="n">
         <v>250.47</v>
@@ -12486,7 +12486,7 @@
         <v>247.44</v>
       </c>
       <c r="O202" t="n">
-        <v>246.39</v>
+        <v>246.6</v>
       </c>
       <c r="P202" t="n">
         <v>252.98</v>
@@ -12546,7 +12546,7 @@
         <v>259.57</v>
       </c>
       <c r="O203" t="n">
-        <v>253.2</v>
+        <v>253.07</v>
       </c>
       <c r="P203" t="n">
         <v>255.83</v>
@@ -12606,7 +12606,7 @@
         <v>261.41</v>
       </c>
       <c r="O204" t="n">
-        <v>252.57</v>
+        <v>252.38</v>
       </c>
       <c r="P204" t="n">
         <v>258.08</v>
@@ -12666,7 +12666,7 @@
         <v>256.19</v>
       </c>
       <c r="O205" t="n">
-        <v>254.35</v>
+        <v>253.8</v>
       </c>
       <c r="P205" t="n">
         <v>258.5</v>
@@ -12726,7 +12726,7 @@
         <v>255.46</v>
       </c>
       <c r="O206" t="n">
-        <v>253.62</v>
+        <v>253.39</v>
       </c>
       <c r="P206" t="n">
         <v>259.79</v>
@@ -12786,7 +12786,7 @@
         <v>251.79</v>
       </c>
       <c r="O207" t="n">
-        <v>252.17</v>
+        <v>251.54</v>
       </c>
       <c r="P207" t="n">
         <v>256.23</v>
@@ -12846,7 +12846,7 @@
         <v>251.79</v>
       </c>
       <c r="O208" t="n">
-        <v>245.21</v>
+        <v>244.94</v>
       </c>
       <c r="P208" t="n">
         <v>252.59</v>
@@ -12906,7 +12906,7 @@
         <v>251.79</v>
       </c>
       <c r="O209" t="n">
-        <v>242.95</v>
+        <v>242.26</v>
       </c>
       <c r="P209" t="n">
         <v>247.14</v>
@@ -12966,7 +12966,7 @@
         <v>240.21</v>
       </c>
       <c r="O210" t="n">
-        <v>242</v>
+        <v>241.58</v>
       </c>
       <c r="P210" t="n">
         <v>246.43</v>
@@ -13026,7 +13026,7 @@
         <v>231.38</v>
       </c>
       <c r="O211" t="n">
-        <v>241.87</v>
+        <v>241.49</v>
       </c>
       <c r="P211" t="n">
         <v>245.84</v>
@@ -13086,7 +13086,7 @@
         <v>220.59</v>
       </c>
       <c r="O212" t="n">
-        <v>236.17</v>
+        <v>236.16</v>
       </c>
       <c r="P212" t="n">
         <v>238.31</v>
@@ -13146,7 +13146,7 @@
         <v>219.47</v>
       </c>
       <c r="O213" t="n">
-        <v>233.75</v>
+        <v>234.05</v>
       </c>
       <c r="P213" t="n">
         <v>237.15</v>
@@ -13206,7 +13206,7 @@
         <v>200.46</v>
       </c>
       <c r="O214" t="n">
-        <v>229.29</v>
+        <v>229.36</v>
       </c>
       <c r="P214" t="n">
         <v>232.9</v>
@@ -13266,7 +13266,7 @@
         <v>205.92</v>
       </c>
       <c r="O215" t="n">
-        <v>227.82</v>
+        <v>227.92</v>
       </c>
       <c r="P215" t="n">
         <v>231.37</v>
@@ -13326,7 +13326,7 @@
         <v>213.62</v>
       </c>
       <c r="O216" t="n">
-        <v>229.79</v>
+        <v>230.03</v>
       </c>
       <c r="P216" t="n">
         <v>234.55</v>
@@ -13386,7 +13386,7 @@
         <v>219.54</v>
       </c>
       <c r="O217" t="n">
-        <v>232.13</v>
+        <v>233.03</v>
       </c>
       <c r="P217" t="n">
         <v>238.92</v>
@@ -13444,7 +13444,7 @@
         <v>225.19</v>
       </c>
       <c r="O218" t="n">
-        <v>239.26</v>
+        <v>240.67</v>
       </c>
       <c r="P218" t="n">
         <v>247.62</v>
@@ -13502,7 +13502,7 @@
         <v>233.57</v>
       </c>
       <c r="O219" t="n">
-        <v>239.51</v>
+        <v>240.37</v>
       </c>
       <c r="P219" t="n">
         <v>247.64</v>
@@ -13562,7 +13562,7 @@
         <v>244.29</v>
       </c>
       <c r="O220" t="n">
-        <v>240.34</v>
+        <v>241.14</v>
       </c>
       <c r="P220" t="n">
         <v>249.05</v>
@@ -13622,7 +13622,7 @@
         <v>249.13</v>
       </c>
       <c r="O221" t="n">
-        <v>242.15</v>
+        <v>242.5</v>
       </c>
       <c r="P221" t="n">
         <v>248.99</v>
@@ -13682,7 +13682,7 @@
         <v>252.69</v>
       </c>
       <c r="O222" t="n">
-        <v>244.55</v>
+        <v>244.04</v>
       </c>
       <c r="P222" t="n">
         <v>247.69</v>
@@ -13742,7 +13742,7 @@
         <v>249.9</v>
       </c>
       <c r="O223" t="n">
-        <v>242.15</v>
+        <v>241.99</v>
       </c>
       <c r="P223" t="n">
         <v>246.55</v>
@@ -13802,7 +13802,7 @@
         <v>250.29</v>
       </c>
       <c r="O224" t="n">
-        <v>242.73</v>
+        <v>242.83</v>
       </c>
       <c r="P224" t="n">
         <v>248.58</v>
@@ -13862,7 +13862,7 @@
         <v>247.35</v>
       </c>
       <c r="O225" t="n">
-        <v>240.06</v>
+        <v>240.28</v>
       </c>
       <c r="P225" t="n">
         <v>247.34</v>
@@ -13922,7 +13922,7 @@
         <v>242.19</v>
       </c>
       <c r="O226" t="n">
-        <v>240.07</v>
+        <v>240.35</v>
       </c>
       <c r="P226" t="n">
         <v>247.38</v>
@@ -13982,7 +13982,7 @@
         <v>236.17</v>
       </c>
       <c r="O227" t="n">
-        <v>236.8</v>
+        <v>237.03</v>
       </c>
       <c r="P227" t="n">
         <v>244.16</v>
@@ -14042,7 +14042,7 @@
         <v>234.66</v>
       </c>
       <c r="O228" t="n">
-        <v>235.06</v>
+        <v>235.37</v>
       </c>
       <c r="P228" t="n">
         <v>243.22</v>
@@ -14102,7 +14102,7 @@
         <v>231.11</v>
       </c>
       <c r="O229" t="n">
-        <v>233.67</v>
+        <v>233.7</v>
       </c>
       <c r="P229" t="n">
         <v>240.11</v>
@@ -14162,7 +14162,7 @@
         <v>227.46</v>
       </c>
       <c r="O230" t="n">
-        <v>230.97</v>
+        <v>230.73</v>
       </c>
       <c r="P230" t="n">
         <v>235.72</v>
@@ -14222,7 +14222,7 @@
         <v>228</v>
       </c>
       <c r="O231" t="n">
-        <v>231.13</v>
+        <v>231.17</v>
       </c>
       <c r="P231" t="n">
         <v>236.43</v>
@@ -14282,7 +14282,7 @@
         <v>224.89</v>
       </c>
       <c r="O232" t="n">
-        <v>230.46</v>
+        <v>230.11</v>
       </c>
       <c r="P232" t="n">
         <v>234.41</v>
@@ -14342,7 +14342,7 @@
         <v>224.89</v>
       </c>
       <c r="O233" t="n">
-        <v>229.67</v>
+        <v>229.14</v>
       </c>
       <c r="P233" t="n">
         <v>234.11</v>
@@ -14402,7 +14402,7 @@
         <v>220.83</v>
       </c>
       <c r="O234" t="n">
-        <v>227.95</v>
+        <v>227.72</v>
       </c>
       <c r="P234" t="n">
         <v>233.33</v>
@@ -14462,7 +14462,7 @@
         <v>220.83</v>
       </c>
       <c r="O235" t="n">
-        <v>233.42</v>
+        <v>233.23</v>
       </c>
       <c r="P235" t="n">
         <v>234.7</v>
@@ -14522,7 +14522,7 @@
         <v>222.55</v>
       </c>
       <c r="O236" t="n">
-        <v>235.23</v>
+        <v>235.01</v>
       </c>
       <c r="P236" t="n">
         <v>235.57</v>
@@ -14582,7 +14582,7 @@
         <v>223.44</v>
       </c>
       <c r="O237" t="n">
-        <v>235.78</v>
+        <v>235.56</v>
       </c>
       <c r="P237" t="n">
         <v>236.16</v>
@@ -14642,7 +14642,7 @@
         <v>226.39</v>
       </c>
       <c r="O238" t="n">
-        <v>237.83</v>
+        <v>237.95</v>
       </c>
       <c r="P238" t="n">
         <v>239.4</v>
@@ -14702,7 +14702,7 @@
         <v>229.81</v>
       </c>
       <c r="O239" t="n">
-        <v>239.36</v>
+        <v>239.59</v>
       </c>
       <c r="P239" t="n">
         <v>240.63</v>
@@ -14762,7 +14762,7 @@
         <v>231.05</v>
       </c>
       <c r="O240" t="n">
-        <v>241.13</v>
+        <v>240.87</v>
       </c>
       <c r="P240" t="n">
         <v>239.67</v>
@@ -14822,7 +14822,7 @@
         <v>236.66</v>
       </c>
       <c r="O241" t="n">
-        <v>243.52</v>
+        <v>242.89</v>
       </c>
       <c r="P241" t="n">
         <v>243.53</v>
@@ -14882,7 +14882,7 @@
         <v>253.17</v>
       </c>
       <c r="O242" t="n">
-        <v>253.18</v>
+        <v>252.38</v>
       </c>
       <c r="P242" t="n">
         <v>250.87</v>
@@ -14942,7 +14942,7 @@
         <v>253.17</v>
       </c>
       <c r="O243" t="n">
-        <v>253.18</v>
+        <v>252.38</v>
       </c>
       <c r="P243" t="n">
         <v>250.87</v>
@@ -15002,7 +15002,7 @@
         <v>258.97</v>
       </c>
       <c r="O244" t="n">
-        <v>256.34</v>
+        <v>255.91</v>
       </c>
       <c r="P244" t="n">
         <v>254.5</v>
@@ -15062,7 +15062,7 @@
         <v>272.67</v>
       </c>
       <c r="O245" t="n">
-        <v>262</v>
+        <v>261.15</v>
       </c>
       <c r="P245" t="n">
         <v>264.84</v>
@@ -15122,7 +15122,7 @@
         <v>271.67</v>
       </c>
       <c r="O246" t="n">
-        <v>260.42</v>
+        <v>259.58</v>
       </c>
       <c r="P246" t="n">
         <v>263.62</v>
@@ -15182,7 +15182,7 @@
         <v>275.25</v>
       </c>
       <c r="O247" t="n">
-        <v>264.38</v>
+        <v>259.58</v>
       </c>
       <c r="P247" t="n">
         <v>266.58</v>
@@ -15242,7 +15242,7 @@
         <v>278.96</v>
       </c>
       <c r="O248" t="n">
-        <v>265.72</v>
+        <v>259.19</v>
       </c>
       <c r="P248" t="n">
         <v>269.56</v>
@@ -15302,7 +15302,7 @@
         <v>281.22</v>
       </c>
       <c r="O249" t="n">
-        <v>268.03</v>
+        <v>262.6</v>
       </c>
       <c r="P249" t="n">
         <v>274.38</v>
@@ -15362,7 +15362,7 @@
         <v>279.61</v>
       </c>
       <c r="O250" t="n">
-        <v>270.59</v>
+        <v>266.38</v>
       </c>
       <c r="P250" t="n">
         <v>269.94</v>
@@ -15422,7 +15422,7 @@
         <v>281.35</v>
       </c>
       <c r="O251" t="n">
-        <v>272.22</v>
+        <v>269.01</v>
       </c>
       <c r="P251" t="n">
         <v>270.64</v>
@@ -15482,7 +15482,7 @@
         <v>281.38</v>
       </c>
       <c r="O252" t="n">
-        <v>272.22</v>
+        <v>269.01</v>
       </c>
       <c r="P252" t="n">
         <v>267.99</v>
@@ -15542,7 +15542,7 @@
         <v>282.07</v>
       </c>
       <c r="O253" t="n">
-        <v>272.56</v>
+        <v>269.93</v>
       </c>
       <c r="P253" t="n">
         <v>268.32</v>
@@ -15602,7 +15602,7 @@
         <v>281.6</v>
       </c>
       <c r="O254" t="n">
-        <v>271.49</v>
+        <v>268.3</v>
       </c>
       <c r="P254" t="n">
         <v>266.64</v>
@@ -15662,7 +15662,7 @@
         <v>278.97</v>
       </c>
       <c r="O255" t="n">
-        <v>269.55</v>
+        <v>266.49</v>
       </c>
       <c r="P255" t="n">
         <v>266.64</v>
@@ -15722,7 +15722,7 @@
         <v>278.97</v>
       </c>
       <c r="O256" t="n">
-        <v>269.55</v>
+        <v>266.49</v>
       </c>
       <c r="P256" t="n">
         <v>267.03</v>
@@ -15782,7 +15782,7 @@
         <v>279.13</v>
       </c>
       <c r="O257" t="n">
-        <v>268.05</v>
+        <v>264.15</v>
       </c>
       <c r="P257" t="n">
         <v>260.48</v>
@@ -15842,7 +15842,7 @@
         <v>279.13</v>
       </c>
       <c r="O258" t="n">
-        <v>264.31</v>
+        <v>260.68</v>
       </c>
       <c r="P258" t="n">
         <v>258.54</v>
@@ -15902,7 +15902,7 @@
         <v>273.3</v>
       </c>
       <c r="O259" t="n">
-        <v>262.9</v>
+        <v>259.73</v>
       </c>
       <c r="P259" t="n">
         <v>258.9</v>
@@ -15962,7 +15962,7 @@
         <v>275.7</v>
       </c>
       <c r="O260" t="n">
-        <v>264.35</v>
+        <v>261.31</v>
       </c>
       <c r="P260" t="n">
         <v>260.18</v>
@@ -16022,7 +16022,7 @@
         <v>275.77</v>
       </c>
       <c r="O261" t="n">
-        <v>264.69</v>
+        <v>262.08</v>
       </c>
       <c r="P261" t="n">
         <v>260.5</v>
@@ -16082,7 +16082,7 @@
         <v>273.56</v>
       </c>
       <c r="O262" t="n">
-        <v>262.05</v>
+        <v>262.8</v>
       </c>
       <c r="P262" t="n">
         <v>258.92</v>
@@ -16142,7 +16142,7 @@
         <v>271.37</v>
       </c>
       <c r="O263" t="n">
-        <v>261.31</v>
+        <v>262.53</v>
       </c>
       <c r="P263" t="n">
         <v>257.66</v>
@@ -16202,7 +16202,7 @@
         <v>271.22</v>
       </c>
       <c r="O264" t="n">
-        <v>260.61</v>
+        <v>261.89</v>
       </c>
       <c r="P264" t="n">
         <v>256.23</v>
@@ -16262,7 +16262,7 @@
         <v>270.35</v>
       </c>
       <c r="O265" t="n">
-        <v>259.89</v>
+        <v>261.12</v>
       </c>
       <c r="P265" t="n">
         <v>258.43</v>
@@ -16322,7 +16322,7 @@
         <v>271.78</v>
       </c>
       <c r="O266" t="n">
-        <v>260.97</v>
+        <v>262.1</v>
       </c>
       <c r="P266" t="n">
         <v>260</v>
@@ -16382,7 +16382,7 @@
         <v>274.88</v>
       </c>
       <c r="O267" t="n">
-        <v>267.13</v>
+        <v>268.39</v>
       </c>
       <c r="P267" t="n">
         <v>268.59</v>
@@ -16442,7 +16442,7 @@
         <v>283.44</v>
       </c>
       <c r="O268" t="n">
-        <v>269.95</v>
+        <v>270.99</v>
       </c>
       <c r="P268" t="n">
         <v>269.36</v>
@@ -16502,7 +16502,7 @@
         <v>285.74</v>
       </c>
       <c r="O269" t="n">
-        <v>272.53</v>
+        <v>273.49</v>
       </c>
       <c r="P269" t="n">
         <v>271.67</v>
@@ -16562,7 +16562,7 @@
         <v>285.55</v>
       </c>
       <c r="O270" t="n">
-        <v>273.33</v>
+        <v>274.16</v>
       </c>
       <c r="P270" t="n">
         <v>273.18</v>
@@ -16622,7 +16622,7 @@
         <v>285.79</v>
       </c>
       <c r="O271" t="n">
-        <v>275.86</v>
+        <v>276.51</v>
       </c>
       <c r="P271" t="n">
         <v>276.15</v>
@@ -16682,7 +16682,7 @@
         <v>285.79</v>
       </c>
       <c r="O272" t="n">
-        <v>275.86</v>
+        <v>276.51</v>
       </c>
       <c r="P272" t="n">
         <v>276.15</v>
@@ -16742,7 +16742,7 @@
         <v>287.68</v>
       </c>
       <c r="O273" t="n">
-        <v>279.26</v>
+        <v>279.44</v>
       </c>
       <c r="P273" t="n">
         <v>280.1</v>
@@ -16802,7 +16802,7 @@
         <v>284.51</v>
       </c>
       <c r="O274" t="n">
-        <v>277.28</v>
+        <v>276.63</v>
       </c>
       <c r="P274" t="n">
         <v>279</v>
@@ -16862,7 +16862,7 @@
         <v>281.49</v>
       </c>
       <c r="O275" t="n">
-        <v>275.88</v>
+        <v>274.78</v>
       </c>
       <c r="P275" t="n">
         <v>277.26</v>
@@ -16922,7 +16922,7 @@
         <v>281.49</v>
       </c>
       <c r="O276" t="n">
-        <v>275.88</v>
+        <v>274.78</v>
       </c>
       <c r="P276" t="n">
         <v>271.88</v>
@@ -16982,7 +16982,7 @@
         <v>277.55</v>
       </c>
       <c r="O277" t="n">
-        <v>272.62</v>
+        <v>271.2</v>
       </c>
       <c r="P277" t="n">
         <v>267.38</v>
@@ -17042,7 +17042,7 @@
         <v>276.48</v>
       </c>
       <c r="O278" t="n">
-        <v>270.72</v>
+        <v>269.71</v>
       </c>
       <c r="P278" t="n">
         <v>265.28</v>
@@ -17102,7 +17102,7 @@
         <v>279.91</v>
       </c>
       <c r="O279" t="n">
-        <v>270.72</v>
+        <v>269.71</v>
       </c>
       <c r="P279" t="n">
         <v>265.28</v>
@@ -17162,7 +17162,7 @@
         <v>280.22</v>
       </c>
       <c r="O280" t="n">
-        <v>270.09</v>
+        <v>269.12</v>
       </c>
       <c r="P280" t="n">
         <v>264.25</v>
@@ -17222,7 +17222,7 @@
         <v>280.22</v>
       </c>
       <c r="O281" t="n">
-        <v>266.6</v>
+        <v>266.03</v>
       </c>
       <c r="P281" t="n">
         <v>262.26</v>
@@ -17282,7 +17282,7 @@
         <v>282.12</v>
       </c>
       <c r="O282" t="n">
-        <v>267.44</v>
+        <v>267.18</v>
       </c>
       <c r="P282" t="n">
         <v>264.11</v>
@@ -17342,7 +17342,7 @@
         <v>285.87</v>
       </c>
       <c r="O283" t="n">
-        <v>264.51</v>
+        <v>263.91</v>
       </c>
       <c r="P283" t="n">
         <v>262.97</v>
@@ -17402,7 +17402,7 @@
         <v>290.94</v>
       </c>
       <c r="O284" t="n">
-        <v>258.04</v>
+        <v>258.45</v>
       </c>
       <c r="P284" t="n">
         <v>255.17</v>
@@ -17462,7 +17462,7 @@
         <v>290.94</v>
       </c>
       <c r="O285" t="n">
-        <v>258.04</v>
+        <v>258.45</v>
       </c>
       <c r="P285" t="n">
         <v>255.17</v>
@@ -17522,7 +17522,7 @@
         <v>297.12</v>
       </c>
       <c r="O286" t="n">
-        <v>259.94</v>
+        <v>260.69</v>
       </c>
       <c r="P286" t="n">
         <v>264.78</v>
@@ -17582,7 +17582,7 @@
         <v>289.04</v>
       </c>
       <c r="O287" t="n">
-        <v>262.4</v>
+        <v>262.71</v>
       </c>
       <c r="P287" t="n">
         <v>274.63</v>
@@ -17642,7 +17642,7 @@
         <v>289.58</v>
       </c>
       <c r="O288" t="n">
-        <v>264.9</v>
+        <v>265.59</v>
       </c>
       <c r="P288" t="n">
         <v>275.35</v>
@@ -17702,7 +17702,7 @@
         <v>283.73</v>
       </c>
       <c r="O289" t="n">
-        <v>260.81</v>
+        <v>260.6</v>
       </c>
       <c r="P289" t="n">
         <v>270.28</v>
@@ -17762,7 +17762,7 @@
         <v>275.69</v>
       </c>
       <c r="O290" t="n">
-        <v>263.24</v>
+        <v>263.91</v>
       </c>
       <c r="P290" t="n">
         <v>269.92</v>
@@ -17822,7 +17822,7 @@
         <v>270.7</v>
       </c>
       <c r="O291" t="n">
-        <v>259.03</v>
+        <v>263.91</v>
       </c>
       <c r="P291" t="n">
         <v>270.31</v>
@@ -17882,7 +17882,7 @@
         <v>272.3</v>
       </c>
       <c r="O292" t="n">
-        <v>260.37</v>
+        <v>264.79</v>
       </c>
       <c r="P292" t="n">
         <v>269.95</v>
@@ -17942,7 +17942,7 @@
         <v>272.68</v>
       </c>
       <c r="O293" t="n">
-        <v>261.19</v>
+        <v>265.07</v>
       </c>
       <c r="P293" t="n">
         <v>268.8</v>
@@ -18002,7 +18002,7 @@
         <v>272.6</v>
       </c>
       <c r="O294" t="n">
-        <v>261.59</v>
+        <v>265.01</v>
       </c>
       <c r="P294" t="n">
         <v>267.89</v>
@@ -18062,7 +18062,7 @@
         <v>274.49</v>
       </c>
       <c r="O295" t="n">
-        <v>263.88</v>
+        <v>267.02</v>
       </c>
       <c r="P295" t="n">
         <v>269.5</v>
@@ -18122,7 +18122,7 @@
         <v>273.85</v>
       </c>
       <c r="O296" t="n">
-        <v>264.43</v>
+        <v>267.5</v>
       </c>
       <c r="P296" t="n">
         <v>268.86</v>
@@ -18182,7 +18182,7 @@
         <v>273.85</v>
       </c>
       <c r="O297" t="n">
-        <v>262.64</v>
+        <v>265.45</v>
       </c>
       <c r="P297" t="n">
         <v>265.97</v>
@@ -18242,7 +18242,7 @@
         <v>273.85</v>
       </c>
       <c r="O298" t="n">
-        <v>262.64</v>
+        <v>265.45</v>
       </c>
       <c r="P298" t="n">
         <v>265.97</v>
@@ -18302,7 +18302,7 @@
         <v>272.01</v>
       </c>
       <c r="O299" t="n">
-        <v>262.75</v>
+        <v>265.32</v>
       </c>
       <c r="P299" t="n">
         <v>265.45</v>
@@ -18362,7 +18362,7 @@
         <v>270.2</v>
       </c>
       <c r="O300" t="n">
-        <v>260.11</v>
+        <v>262.09</v>
       </c>
       <c r="P300" t="n">
         <v>261.64</v>
@@ -18422,7 +18422,7 @@
         <v>272.36</v>
       </c>
       <c r="O301" t="n">
-        <v>261.77</v>
+        <v>264.15</v>
       </c>
       <c r="P301" t="n">
         <v>260.74</v>
@@ -18482,7 +18482,7 @@
         <v>268.94</v>
       </c>
       <c r="O302" t="n">
-        <v>259.02</v>
+        <v>261.12</v>
       </c>
       <c r="P302" t="n">
         <v>257.94</v>
@@ -18542,7 +18542,7 @@
         <v>266.96</v>
       </c>
       <c r="O303" t="n">
-        <v>256.96</v>
+        <v>256.58</v>
       </c>
       <c r="P303" t="n">
         <v>253.3</v>
@@ -18602,7 +18602,7 @@
         <v>264.83</v>
       </c>
       <c r="O304" t="n">
-        <v>254.83</v>
+        <v>254.28</v>
       </c>
       <c r="P304" t="n">
         <v>250.51</v>
@@ -18662,7 +18662,7 @@
         <v>259.73</v>
       </c>
       <c r="O305" t="n">
-        <v>247.2</v>
+        <v>246.57</v>
       </c>
       <c r="P305" t="n">
         <v>244.7</v>
@@ -18722,7 +18722,7 @@
         <v>261.84</v>
       </c>
       <c r="O306" t="n">
-        <v>250.37</v>
+        <v>250.09</v>
       </c>
       <c r="P306" t="n">
         <v>248.31</v>
@@ -18782,7 +18782,7 @@
         <v>260.54</v>
       </c>
       <c r="O307" t="n">
-        <v>250.57</v>
+        <v>249.9</v>
       </c>
       <c r="P307" t="n">
         <v>249.61</v>
@@ -18842,7 +18842,7 @@
         <v>261.86</v>
       </c>
       <c r="O308" t="n">
-        <v>252.18</v>
+        <v>252.29</v>
       </c>
       <c r="P308" t="n">
         <v>251.72</v>
@@ -18902,7 +18902,7 @@
         <v>264.3</v>
       </c>
       <c r="O309" t="n">
-        <v>262.62</v>
+        <v>263.42</v>
       </c>
       <c r="P309" t="n">
         <v>261.9</v>
@@ -18962,7 +18962,7 @@
         <v>262.43</v>
       </c>
       <c r="O310" t="n">
-        <v>262.66</v>
+        <v>263.69</v>
       </c>
       <c r="P310" t="n">
         <v>267.27</v>
@@ -19022,7 +19022,7 @@
         <v>262.43</v>
       </c>
       <c r="O311" t="n">
-        <v>259.27</v>
+        <v>260.51</v>
       </c>
       <c r="P311" t="n">
         <v>264.77</v>
@@ -19082,7 +19082,7 @@
         <v>262.43</v>
       </c>
       <c r="O312" t="n">
-        <v>257.88</v>
+        <v>259.33</v>
       </c>
       <c r="P312" t="n">
         <v>263.57</v>
@@ -19142,7 +19142,7 @@
         <v>262.43</v>
       </c>
       <c r="O313" t="n">
-        <v>255.05</v>
+        <v>255.96</v>
       </c>
       <c r="P313" t="n">
         <v>259.47</v>
@@ -19202,7 +19202,7 @@
         <v>256.84</v>
       </c>
       <c r="O314" t="n">
-        <v>253.2</v>
+        <v>253.73</v>
       </c>
       <c r="P314" t="n">
         <v>256.13</v>
@@ -19262,7 +19262,7 @@
         <v>256.84</v>
       </c>
       <c r="O315" t="n">
-        <v>249.19</v>
+        <v>249.68</v>
       </c>
       <c r="P315" t="n">
         <v>253.13</v>
@@ -19322,7 +19322,7 @@
         <v>250.36</v>
       </c>
       <c r="O316" t="n">
-        <v>245.51</v>
+        <v>245.98</v>
       </c>
       <c r="P316" t="n">
         <v>252.1</v>
@@ -19382,7 +19382,7 @@
         <v>250.36</v>
       </c>
       <c r="O317" t="n">
-        <v>245.51</v>
+        <v>245.98</v>
       </c>
       <c r="P317" t="n">
         <v>252.1</v>
@@ -19442,7 +19442,7 @@
         <v>244.77</v>
       </c>
       <c r="O318" t="n">
-        <v>243.26</v>
+        <v>244.01</v>
       </c>
       <c r="P318" t="n">
         <v>250.88</v>
@@ -19502,7 +19502,7 @@
         <v>249.6</v>
       </c>
       <c r="O319" t="n">
-        <v>242.07</v>
+        <v>242.41</v>
       </c>
       <c r="P319" t="n">
         <v>251.08</v>
@@ -19562,7 +19562,7 @@
         <v>249.88</v>
       </c>
       <c r="O320" t="n">
-        <v>241.1</v>
+        <v>241.36</v>
       </c>
       <c r="P320" t="n">
         <v>249.62</v>
@@ -19622,7 +19622,7 @@
         <v>252.39</v>
       </c>
       <c r="O321" t="n">
-        <v>241.83</v>
+        <v>242.24</v>
       </c>
       <c r="P321" t="n">
         <v>250.62</v>
@@ -19682,7 +19682,7 @@
         <v>267.21</v>
       </c>
       <c r="O322" t="n">
-        <v>246.46</v>
+        <v>246.57</v>
       </c>
       <c r="P322" t="n">
         <v>254.05</v>
@@ -19742,7 +19742,7 @@
         <v>267.04</v>
       </c>
       <c r="O323" t="n">
-        <v>249.9</v>
+        <v>249.85</v>
       </c>
       <c r="P323" t="n">
         <v>257.24</v>
@@ -19802,7 +19802,7 @@
         <v>268.3</v>
       </c>
       <c r="O324" t="n">
-        <v>256.43</v>
+        <v>257.41</v>
       </c>
       <c r="P324" t="n">
         <v>258.09</v>
@@ -19862,7 +19862,7 @@
         <v>265.01</v>
       </c>
       <c r="O325" t="n">
-        <v>254.13</v>
+        <v>254.26</v>
       </c>
       <c r="P325" t="n">
         <v>253.81</v>
@@ -19922,7 +19922,7 @@
         <v>264.12</v>
       </c>
       <c r="O326" t="n">
-        <v>254.07</v>
+        <v>253.86</v>
       </c>
       <c r="P326" t="n">
         <v>253.16</v>
@@ -19982,7 +19982,7 @@
         <v>260.99</v>
       </c>
       <c r="O327" t="n">
-        <v>252.55</v>
+        <v>252.4</v>
       </c>
       <c r="P327" t="n">
         <v>253.19</v>
@@ -20042,7 +20042,7 @@
         <v>261.2</v>
       </c>
       <c r="O328" t="n">
-        <v>252.99</v>
+        <v>252.88</v>
       </c>
       <c r="P328" t="n">
         <v>254.14</v>
@@ -20102,7 +20102,7 @@
         <v>257.98</v>
       </c>
       <c r="O329" t="n">
-        <v>253.1</v>
+        <v>252.49</v>
       </c>
       <c r="P329" t="n">
         <v>253.16</v>
@@ -20162,7 +20162,7 @@
         <v>257.33</v>
       </c>
       <c r="O330" t="n">
-        <v>253.88</v>
+        <v>253.13</v>
       </c>
       <c r="P330" t="n">
         <v>254.36</v>
@@ -20222,7 +20222,7 @@
         <v>257.33</v>
       </c>
       <c r="O331" t="n">
-        <v>253.88</v>
+        <v>253.13</v>
       </c>
       <c r="P331" t="n">
         <v>254.04</v>
@@ -20282,7 +20282,7 @@
         <v>257.33</v>
       </c>
       <c r="O332" t="n">
-        <v>253.88</v>
+        <v>253.13</v>
       </c>
       <c r="P332" t="n">
         <v>254.04</v>
@@ -20342,7 +20342,7 @@
         <v>257.33</v>
       </c>
       <c r="O333" t="n">
-        <v>253.86</v>
+        <v>253.42</v>
       </c>
       <c r="P333" t="n">
         <v>252.59</v>
@@ -20402,7 +20402,7 @@
         <v>257.33</v>
       </c>
       <c r="O334" t="n">
-        <v>253.86</v>
+        <v>253.42</v>
       </c>
       <c r="P334" t="n">
         <v>252.59</v>
@@ -20462,7 +20462,7 @@
         <v>257.17</v>
       </c>
       <c r="O335" t="n">
-        <v>253.74</v>
+        <v>253.24</v>
       </c>
       <c r="P335" t="n">
         <v>251.72</v>
@@ -20522,7 +20522,7 @@
         <v>257.17</v>
       </c>
       <c r="O336" t="n">
-        <v>251.4</v>
+        <v>250.97</v>
       </c>
       <c r="P336" t="n">
         <v>250.78</v>
@@ -20582,7 +20582,7 @@
         <v>254.82</v>
       </c>
       <c r="O337" t="n">
-        <v>250.38</v>
+        <v>249.97</v>
       </c>
       <c r="P337" t="n">
         <v>250.79</v>
@@ -20642,7 +20642,7 @@
         <v>254.82</v>
       </c>
       <c r="O338" t="n">
-        <v>248.93</v>
+        <v>248.6</v>
       </c>
       <c r="P338" t="n">
         <v>250.93</v>
@@ -20702,7 +20702,7 @@
         <v>254.82</v>
       </c>
       <c r="O339" t="n">
-        <v>248.93</v>
+        <v>248.6</v>
       </c>
       <c r="P339" t="n">
         <v>250.93</v>
@@ -20762,7 +20762,7 @@
         <v>252.26</v>
       </c>
       <c r="O340" t="n">
-        <v>244.79</v>
+        <v>244.51</v>
       </c>
       <c r="P340" t="n">
         <v>248.64</v>
@@ -20822,7 +20822,7 @@
         <v>252.44</v>
       </c>
       <c r="O341" t="n">
-        <v>244.79</v>
+        <v>244.51</v>
       </c>
       <c r="P341" t="n">
         <v>248.4</v>
@@ -20882,7 +20882,7 @@
         <v>252.44</v>
       </c>
       <c r="O342" t="n">
-        <v>244.79</v>
+        <v>244.51</v>
       </c>
       <c r="P342" t="n">
         <v>248.4</v>
@@ -20942,7 +20942,7 @@
         <v>252.53</v>
       </c>
       <c r="O343" t="n">
-        <v>242.84</v>
+        <v>243.16</v>
       </c>
       <c r="P343" t="n">
         <v>248.08</v>
@@ -21002,7 +21002,7 @@
         <v>254.65</v>
       </c>
       <c r="O344" t="n">
-        <v>242.84</v>
+        <v>243.16</v>
       </c>
       <c r="P344" t="n">
         <v>248.53</v>
@@ -21062,7 +21062,7 @@
         <v>256.69</v>
       </c>
       <c r="O345" t="n">
-        <v>236.4</v>
+        <v>236.85</v>
       </c>
       <c r="P345" t="n">
         <v>248.82</v>
@@ -21122,7 +21122,7 @@
         <v>257.92</v>
       </c>
       <c r="O346" t="n">
-        <v>237.76</v>
+        <v>238.27</v>
       </c>
       <c r="P346" t="n">
         <v>249.03</v>
@@ -21182,7 +21182,7 @@
         <v>260.23</v>
       </c>
       <c r="O347" t="n">
-        <v>237.05</v>
+        <v>237.57</v>
       </c>
       <c r="P347" t="n">
         <v>247.5</v>
@@ -21242,7 +21242,7 @@
         <v>261.63</v>
       </c>
       <c r="O348" t="n">
-        <v>238.54</v>
+        <v>239.29</v>
       </c>
       <c r="P348" t="n">
         <v>248.28</v>
@@ -21302,7 +21302,7 @@
         <v>259.67</v>
       </c>
       <c r="O349" t="n">
-        <v>238.12</v>
+        <v>238.39</v>
       </c>
       <c r="P349" t="n">
         <v>248.69</v>
@@ -21362,7 +21362,7 @@
         <v>261.17</v>
       </c>
       <c r="O350" t="n">
-        <v>240.83</v>
+        <v>241.16</v>
       </c>
       <c r="P350" t="n">
         <v>250.49</v>
@@ -21422,7 +21422,7 @@
         <v>264.28</v>
       </c>
       <c r="O351" t="n">
-        <v>243.78</v>
+        <v>244.39</v>
       </c>
       <c r="P351" t="n">
         <v>254.11</v>
@@ -21482,7 +21482,7 @@
         <v>266.6</v>
       </c>
       <c r="O352" t="n">
-        <v>244.55</v>
+        <v>245.11</v>
       </c>
       <c r="P352" t="n">
         <v>254.18</v>
@@ -21542,7 +21542,7 @@
         <v>267.27</v>
       </c>
       <c r="O353" t="n">
-        <v>247.36</v>
+        <v>247.83</v>
       </c>
       <c r="P353" t="n">
         <v>254.96</v>
@@ -21602,7 +21602,7 @@
         <v>266.1</v>
       </c>
       <c r="O354" t="n">
-        <v>247.36</v>
+        <v>247.83</v>
       </c>
       <c r="P354" t="n">
         <v>254.96</v>
@@ -21662,7 +21662,7 @@
         <v>267.54</v>
       </c>
       <c r="O355" t="n">
-        <v>252.36</v>
+        <v>252.45</v>
       </c>
       <c r="P355" t="n">
         <v>259.4</v>
@@ -21722,7 +21722,7 @@
         <v>268.03</v>
       </c>
       <c r="O356" t="n">
-        <v>253.01</v>
+        <v>252.79</v>
       </c>
       <c r="P356" t="n">
         <v>259.65</v>
@@ -21782,7 +21782,7 @@
         <v>268.88</v>
       </c>
       <c r="O357" t="n">
-        <v>254.21</v>
+        <v>254.1</v>
       </c>
       <c r="P357" t="n">
         <v>260.76</v>
@@ -21842,7 +21842,7 @@
         <v>268.83</v>
       </c>
       <c r="O358" t="n">
-        <v>254.95</v>
+        <v>254.61</v>
       </c>
       <c r="P358" t="n">
         <v>261.19</v>
@@ -21902,7 +21902,7 @@
         <v>269.02</v>
       </c>
       <c r="O359" t="n">
-        <v>255.44</v>
+        <v>255.24</v>
       </c>
       <c r="P359" t="n">
         <v>262.23</v>
@@ -21962,7 +21962,7 @@
         <v>270.86</v>
       </c>
       <c r="O360" t="n">
-        <v>262.66</v>
+        <v>262.19</v>
       </c>
       <c r="P360" t="n">
         <v>264.89</v>
@@ -22022,7 +22022,7 @@
         <v>270.86</v>
       </c>
       <c r="O361" t="n">
-        <v>262.66</v>
+        <v>262.19</v>
       </c>
       <c r="P361" t="n">
         <v>264.89</v>
@@ -22082,7 +22082,7 @@
         <v>273.29</v>
       </c>
       <c r="O362" t="n">
-        <v>264.29</v>
+        <v>264.05</v>
       </c>
       <c r="P362" t="n">
         <v>266.37</v>
@@ -22142,7 +22142,7 @@
         <v>272.09</v>
       </c>
       <c r="O363" t="n">
-        <v>264.53</v>
+        <v>264.3</v>
       </c>
       <c r="P363" t="n">
         <v>266.96</v>
@@ -22202,7 +22202,7 @@
         <v>270.22</v>
       </c>
       <c r="O364" t="n">
-        <v>264.33</v>
+        <v>264.18</v>
       </c>
       <c r="P364" t="n">
         <v>267.38</v>
@@ -22262,7 +22262,7 @@
         <v>262.99</v>
       </c>
       <c r="O365" t="n">
-        <v>262.93</v>
+        <v>262.5</v>
       </c>
       <c r="P365" t="n">
         <v>267.97</v>
@@ -22322,7 +22322,7 @@
         <v>259.17</v>
       </c>
       <c r="O366" t="n">
-        <v>264.43</v>
+        <v>264.33</v>
       </c>
       <c r="P366" t="n">
         <v>270.17</v>
@@ -22382,7 +22382,7 @@
         <v>254.4</v>
       </c>
       <c r="O367" t="n">
-        <v>262.88</v>
+        <v>262.46</v>
       </c>
       <c r="P367" t="n">
         <v>268.76</v>
@@ -22442,7 +22442,7 @@
         <v>254.26</v>
       </c>
       <c r="O368" t="n">
-        <v>263.08</v>
+        <v>262.8</v>
       </c>
       <c r="P368" t="n">
         <v>268.4</v>
@@ -22502,7 +22502,7 @@
         <v>252.92</v>
       </c>
       <c r="O369" t="n">
-        <v>263</v>
+        <v>262.75</v>
       </c>
       <c r="P369" t="n">
         <v>266.37</v>
@@ -22562,7 +22562,7 @@
         <v>253.57</v>
       </c>
       <c r="O370" t="n">
-        <v>262.93</v>
+        <v>262.75</v>
       </c>
       <c r="P370" t="n">
         <v>264.81</v>
@@ -22622,7 +22622,7 @@
         <v>252.34</v>
       </c>
       <c r="O371" t="n">
-        <v>263.06</v>
+        <v>262.88</v>
       </c>
       <c r="P371" t="n">
         <v>265.1</v>
@@ -22682,7 +22682,7 @@
         <v>252.92</v>
       </c>
       <c r="O372" t="n">
-        <v>261.17</v>
+        <v>261.02</v>
       </c>
       <c r="P372" t="n">
         <v>262.75</v>
@@ -22742,7 +22742,7 @@
         <v>253.97</v>
       </c>
       <c r="O373" t="n">
-        <v>260.77</v>
+        <v>260.57</v>
       </c>
       <c r="P373" t="n">
         <v>261.8</v>
@@ -22802,7 +22802,7 @@
         <v>251.4</v>
       </c>
       <c r="O374" t="n">
-        <v>259.71</v>
+        <v>259.67</v>
       </c>
       <c r="P374" t="n">
         <v>259.46</v>
@@ -22862,7 +22862,7 @@
         <v>253.95</v>
       </c>
       <c r="O375" t="n">
-        <v>258.95</v>
+        <v>258.72</v>
       </c>
       <c r="P375" t="n">
         <v>258.17</v>
@@ -22922,7 +22922,7 @@
         <v>251.67</v>
       </c>
       <c r="O376" t="n">
-        <v>256.27</v>
+        <v>256.28</v>
       </c>
       <c r="P376" t="n">
         <v>254.45</v>
@@ -22982,7 +22982,7 @@
         <v>251.67</v>
       </c>
       <c r="O377" t="n">
-        <v>256.27</v>
+        <v>256.28</v>
       </c>
       <c r="P377" t="n">
         <v>253.61</v>
@@ -23042,7 +23042,7 @@
         <v>251.75</v>
       </c>
       <c r="O378" t="n">
-        <v>255.42</v>
+        <v>255.26</v>
       </c>
       <c r="P378" t="n">
         <v>252.16</v>
@@ -23102,7 +23102,7 @@
         <v>248.28</v>
       </c>
       <c r="O379" t="n">
-        <v>251.8</v>
+        <v>251.9</v>
       </c>
       <c r="P379" t="n">
         <v>249.8</v>
@@ -23162,7 +23162,7 @@
         <v>244.24</v>
       </c>
       <c r="O380" t="n">
-        <v>248.08</v>
+        <v>247.98</v>
       </c>
       <c r="P380" t="n">
         <v>246.6</v>
@@ -23222,7 +23222,7 @@
         <v>256.49</v>
       </c>
       <c r="O381" t="n">
-        <v>249.46</v>
+        <v>248.98</v>
       </c>
       <c r="P381" t="n">
         <v>246.62</v>
@@ -23282,7 +23282,7 @@
         <v>257.75</v>
       </c>
       <c r="O382" t="n">
-        <v>249.94</v>
+        <v>249.69</v>
       </c>
       <c r="P382" t="n">
         <v>248.36</v>
@@ -23342,7 +23342,7 @@
         <v>258.23</v>
       </c>
       <c r="O383" t="n">
-        <v>251.03</v>
+        <v>250.62</v>
       </c>
       <c r="P383" t="n">
         <v>248.77</v>
@@ -23402,7 +23402,7 @@
         <v>258.79</v>
       </c>
       <c r="O384" t="n">
-        <v>251.93</v>
+        <v>251.37</v>
       </c>
       <c r="P384" t="n">
         <v>249.68</v>
@@ -23462,7 +23462,7 @@
         <v>265.19</v>
       </c>
       <c r="O385" t="n">
-        <v>254.2</v>
+        <v>254.01</v>
       </c>
       <c r="P385" t="n">
         <v>251.52</v>
@@ -23522,7 +23522,7 @@
         <v>266.48</v>
       </c>
       <c r="O386" t="n">
-        <v>253.92</v>
+        <v>253.65</v>
       </c>
       <c r="P386" t="n">
         <v>251.68</v>
@@ -23582,7 +23582,7 @@
         <v>266.44</v>
       </c>
       <c r="O387" t="n">
-        <v>252.85</v>
+        <v>252.37</v>
       </c>
       <c r="P387" t="n">
         <v>253.22</v>
@@ -23642,7 +23642,7 @@
         <v>267.25</v>
       </c>
       <c r="O388" t="n">
-        <v>255.73</v>
+        <v>255.18</v>
       </c>
       <c r="P388" t="n">
         <v>256.52</v>
@@ -23702,7 +23702,7 @@
         <v>268</v>
       </c>
       <c r="O389" t="n">
-        <v>257</v>
+        <v>256.48</v>
       </c>
       <c r="P389" t="n">
         <v>257.34</v>
@@ -23762,7 +23762,7 @@
         <v>266.99</v>
       </c>
       <c r="O390" t="n">
-        <v>256.38</v>
+        <v>255.86</v>
       </c>
       <c r="P390" t="n">
         <v>257.01</v>
@@ -23822,7 +23822,7 @@
         <v>264.38</v>
       </c>
       <c r="O391" t="n">
-        <v>259.13</v>
+        <v>257</v>
       </c>
       <c r="P391" t="n">
         <v>258.96</v>
@@ -23882,7 +23882,7 @@
         <v>264.38</v>
       </c>
       <c r="O392" t="n">
-        <v>259.13</v>
+        <v>257</v>
       </c>
       <c r="P392" t="n">
         <v>258.96</v>
@@ -23942,7 +23942,7 @@
         <v>264.38</v>
       </c>
       <c r="O393" t="n">
-        <v>260.93</v>
+        <v>257</v>
       </c>
       <c r="P393" t="n">
         <v>258.96</v>
@@ -24002,7 +24002,7 @@
         <v>263.24</v>
       </c>
       <c r="O394" t="n">
-        <v>263.23</v>
+        <v>259.17</v>
       </c>
       <c r="P394" t="n">
         <v>260.63</v>
@@ -24062,7 +24062,7 @@
         <v>264.17</v>
       </c>
       <c r="O395" t="n">
-        <v>264.19</v>
+        <v>260.62</v>
       </c>
       <c r="P395" t="n">
         <v>264.3</v>
@@ -24122,7 +24122,7 @@
         <v>266.5</v>
       </c>
       <c r="O396" t="n">
-        <v>265.65</v>
+        <v>262</v>
       </c>
       <c r="P396" t="n">
         <v>264.66</v>
@@ -24182,7 +24182,7 @@
         <v>266.5</v>
       </c>
       <c r="O397" t="n">
-        <v>265.65</v>
+        <v>262</v>
       </c>
       <c r="P397" t="n">
         <v>264.66</v>
@@ -24242,7 +24242,7 @@
         <v>268</v>
       </c>
       <c r="O398" t="n">
-        <v>266.38</v>
+        <v>262.84</v>
       </c>
       <c r="P398" t="n">
         <v>265.66</v>
@@ -24302,7 +24302,7 @@
         <v>268</v>
       </c>
       <c r="O399" t="n">
-        <v>267.23</v>
+        <v>264.13</v>
       </c>
       <c r="P399" t="n">
         <v>266.69</v>
@@ -24362,7 +24362,7 @@
         <v>268</v>
       </c>
       <c r="O400" t="n">
-        <v>267.2</v>
+        <v>264.25</v>
       </c>
       <c r="P400" t="n">
         <v>266.89</v>
@@ -24422,7 +24422,7 @@
         <v>268.77</v>
       </c>
       <c r="O401" t="n">
-        <v>267.61</v>
+        <v>264.77</v>
       </c>
       <c r="P401" t="n">
         <v>267.54</v>
@@ -24482,7 +24482,7 @@
         <v>268.49</v>
       </c>
       <c r="O402" t="n">
-        <v>267.4</v>
+        <v>264.79</v>
       </c>
       <c r="P402" t="n">
         <v>267.93</v>
@@ -24542,7 +24542,7 @@
         <v>261.49</v>
       </c>
       <c r="O403" t="n">
-        <v>267.69</v>
+        <v>265.13</v>
       </c>
       <c r="P403" t="n">
         <v>267.58</v>
@@ -24602,7 +24602,7 @@
         <v>255.61</v>
       </c>
       <c r="O404" t="n">
-        <v>265.44</v>
+        <v>262.94</v>
       </c>
       <c r="P404" t="n">
         <v>265.84</v>
@@ -24662,7 +24662,7 @@
         <v>247.66</v>
       </c>
       <c r="O405" t="n">
-        <v>263.08</v>
+        <v>260.3</v>
       </c>
       <c r="P405" t="n">
         <v>263.28</v>
@@ -24722,7 +24722,7 @@
         <v>237.73</v>
       </c>
       <c r="O406" t="n">
-        <v>261.82</v>
+        <v>258.6</v>
       </c>
       <c r="P406" t="n">
         <v>260.71</v>
@@ -24782,7 +24782,7 @@
         <v>232.71</v>
       </c>
       <c r="O407" t="n">
-        <v>260.9</v>
+        <v>257.27</v>
       </c>
       <c r="P407" t="n">
         <v>259.96</v>
@@ -24842,7 +24842,7 @@
         <v>237.05</v>
       </c>
       <c r="O408" t="n">
-        <v>263.11</v>
+        <v>259.95</v>
       </c>
       <c r="P408" t="n">
         <v>261.61</v>
@@ -24902,7 +24902,7 @@
         <v>238.87</v>
       </c>
       <c r="O409" t="n">
-        <v>258.03</v>
+        <v>258.94</v>
       </c>
       <c r="P409" t="n">
         <v>261.09</v>
@@ -24962,7 +24962,7 @@
         <v>238.99</v>
       </c>
       <c r="O410" t="n">
-        <v>259.99</v>
+        <v>261.06</v>
       </c>
       <c r="P410" t="n">
         <v>262.48</v>
@@ -25022,7 +25022,7 @@
         <v>270.2</v>
       </c>
       <c r="O411" t="n">
-        <v>258.83</v>
+        <v>259.71</v>
       </c>
       <c r="P411" t="n">
         <v>257.65</v>
@@ -25082,7 +25082,7 @@
         <v>273.19</v>
       </c>
       <c r="O412" t="n">
-        <v>262.55</v>
+        <v>262.59</v>
       </c>
       <c r="P412" t="n">
         <v>260.66</v>
@@ -25142,7 +25142,7 @@
         <v>267.53</v>
       </c>
       <c r="O413" t="n">
-        <v>258.24</v>
+        <v>257.79</v>
       </c>
       <c r="P413" t="n">
         <v>256.34</v>
@@ -25202,7 +25202,7 @@
         <v>259.08</v>
       </c>
       <c r="O414" t="n">
-        <v>252.11</v>
+        <v>252.06</v>
       </c>
       <c r="P414" t="n">
         <v>254.67</v>
@@ -25262,7 +25262,7 @@
         <v>249.16</v>
       </c>
       <c r="O415" t="n">
-        <v>249.27</v>
+        <v>248.25</v>
       </c>
       <c r="P415" t="n">
         <v>254.63</v>
@@ -25322,7 +25322,7 @@
         <v>245.62</v>
       </c>
       <c r="O416" t="n">
-        <v>248.86</v>
+        <v>247.66</v>
       </c>
       <c r="P416" t="n">
         <v>253.71</v>
@@ -25382,7 +25382,7 @@
         <v>244.9</v>
       </c>
       <c r="O417" t="n">
-        <v>249.04</v>
+        <v>247.88</v>
       </c>
       <c r="P417" t="n">
         <v>252.69</v>
@@ -25442,7 +25442,7 @@
         <v>242.7</v>
       </c>
       <c r="O418" t="n">
-        <v>246.73</v>
+        <v>245.44</v>
       </c>
       <c r="P418" t="n">
         <v>248.62</v>
@@ -25502,7 +25502,7 @@
         <v>242.7</v>
       </c>
       <c r="O419" t="n">
-        <v>251.23</v>
+        <v>250.16</v>
       </c>
       <c r="P419" t="n">
         <v>252.91</v>
@@ -25562,7 +25562,7 @@
         <v>242.7</v>
       </c>
       <c r="O420" t="n">
-        <v>252.41</v>
+        <v>251.6</v>
       </c>
       <c r="P420" t="n">
         <v>254.54</v>
@@ -25622,7 +25622,7 @@
         <v>245.89</v>
       </c>
       <c r="O421" t="n">
-        <v>253.64</v>
+        <v>252.78</v>
       </c>
       <c r="P421" t="n">
         <v>254.72</v>
@@ -25682,7 +25682,7 @@
         <v>247.18</v>
       </c>
       <c r="O422" t="n">
-        <v>255.51</v>
+        <v>255.09</v>
       </c>
       <c r="P422" t="n">
         <v>256.69</v>
@@ -25742,7 +25742,7 @@
         <v>243.89</v>
       </c>
       <c r="O423" t="n">
-        <v>253.98</v>
+        <v>253.8</v>
       </c>
       <c r="P423" t="n">
         <v>255.29</v>
@@ -25802,7 +25802,7 @@
         <v>242.54</v>
       </c>
       <c r="O424" t="n">
-        <v>251.76</v>
+        <v>251.48</v>
       </c>
       <c r="P424" t="n">
         <v>252.39</v>
@@ -25862,7 +25862,7 @@
         <v>244.99</v>
       </c>
       <c r="O425" t="n">
-        <v>251.55</v>
+        <v>251.39</v>
       </c>
       <c r="P425" t="n">
         <v>251.29</v>
@@ -25922,7 +25922,7 @@
         <v>245.82</v>
       </c>
       <c r="O426" t="n">
-        <v>251.14</v>
+        <v>251.03</v>
       </c>
       <c r="P426" t="n">
         <v>250.81</v>
@@ -25982,7 +25982,7 @@
         <v>251.51</v>
       </c>
       <c r="O427" t="n">
-        <v>253.58</v>
+        <v>253.23</v>
       </c>
       <c r="P427" t="n">
         <v>251.73</v>
@@ -26042,7 +26042,7 @@
         <v>250.84</v>
       </c>
       <c r="O428" t="n">
-        <v>252.45</v>
+        <v>252.3</v>
       </c>
       <c r="P428" t="n">
         <v>251.63</v>
@@ -26102,7 +26102,7 @@
         <v>256.8</v>
       </c>
       <c r="O429" t="n">
-        <v>253.77</v>
+        <v>254.06</v>
       </c>
       <c r="P429" t="n">
         <v>252.17</v>
@@ -26162,7 +26162,7 @@
         <v>256.8</v>
       </c>
       <c r="O430" t="n">
-        <v>253.02</v>
+        <v>253.06</v>
       </c>
       <c r="P430" t="n">
         <v>252.78</v>
@@ -26222,7 +26222,7 @@
         <v>255.89</v>
       </c>
       <c r="O431" t="n">
-        <v>252.37</v>
+        <v>252.27</v>
       </c>
       <c r="P431" t="n">
         <v>252.11</v>
@@ -26282,7 +26282,7 @@
         <v>258.53</v>
       </c>
       <c r="O432" t="n">
-        <v>254.03</v>
+        <v>253.97</v>
       </c>
       <c r="P432" t="n">
         <v>252.79</v>
@@ -26342,7 +26342,7 @@
         <v>263.9</v>
       </c>
       <c r="O433" t="n">
-        <v>256.57</v>
+        <v>256.73</v>
       </c>
       <c r="P433" t="n">
         <v>255.72</v>
@@ -26402,7 +26402,7 @@
         <v>266.29</v>
       </c>
       <c r="O434" t="n">
-        <v>254.63</v>
+        <v>254.85</v>
       </c>
       <c r="P434" t="n">
         <v>254.06</v>
@@ -26462,7 +26462,7 @@
         <v>267.69</v>
       </c>
       <c r="O435" t="n">
-        <v>255.42</v>
+        <v>255.43</v>
       </c>
       <c r="P435" t="n">
         <v>254.56</v>
@@ -26522,7 +26522,7 @@
         <v>270.99</v>
       </c>
       <c r="O436" t="n">
-        <v>257.73</v>
+        <v>257.59</v>
       </c>
       <c r="P436" t="n">
         <v>260.02</v>
@@ -26582,7 +26582,7 @@
         <v>271.08</v>
       </c>
       <c r="O437" t="n">
-        <v>258.52</v>
+        <v>258.34</v>
       </c>
       <c r="P437" t="n">
         <v>260.67</v>
@@ -26642,7 +26642,7 @@
         <v>270.41</v>
       </c>
       <c r="O438" t="n">
-        <v>258.88</v>
+        <v>258.57</v>
       </c>
       <c r="P438" t="n">
         <v>260.9</v>
@@ -26702,7 +26702,7 @@
         <v>271.66</v>
       </c>
       <c r="O439" t="n">
-        <v>261.97</v>
+        <v>261.74</v>
       </c>
       <c r="P439" t="n">
         <v>263.26</v>
@@ -26762,7 +26762,7 @@
         <v>271.24</v>
       </c>
       <c r="O440" t="n">
-        <v>266</v>
+        <v>265.96</v>
       </c>
       <c r="P440" t="n">
         <v>265.11</v>
@@ -26822,7 +26822,7 @@
         <v>271.24</v>
       </c>
       <c r="O441" t="n">
-        <v>266</v>
+        <v>265.96</v>
       </c>
       <c r="P441" t="n">
         <v>263.75</v>
@@ -26882,7 +26882,7 @@
         <v>274.06</v>
       </c>
       <c r="O442" t="n">
-        <v>271.83</v>
+        <v>272.16</v>
       </c>
       <c r="P442" t="n">
         <v>265.92</v>
@@ -26942,7 +26942,7 @@
         <v>272.04</v>
       </c>
       <c r="O443" t="n">
-        <v>268.99</v>
+        <v>269.1</v>
       </c>
       <c r="P443" t="n">
         <v>263.61</v>
@@ -27002,7 +27002,7 @@
         <v>272.04</v>
       </c>
       <c r="O444" t="n">
-        <v>268.27</v>
+        <v>268.36</v>
       </c>
       <c r="P444" t="n">
         <v>262.44</v>
@@ -27062,7 +27062,7 @@
         <v>273.59</v>
       </c>
       <c r="O445" t="n">
-        <v>270.66</v>
+        <v>270.8</v>
       </c>
       <c r="P445" t="n">
         <v>263.96</v>
@@ -27122,7 +27122,7 @@
         <v>273.91</v>
       </c>
       <c r="O446" t="n">
-        <v>271.15</v>
+        <v>271.07</v>
       </c>
       <c r="P446" t="n">
         <v>265.05</v>
@@ -27182,7 +27182,7 @@
         <v>271.33</v>
       </c>
       <c r="O447" t="n">
-        <v>269.67</v>
+        <v>269.58</v>
       </c>
       <c r="P447" t="n">
         <v>264.79</v>
@@ -27242,7 +27242,7 @@
         <v>270.51</v>
       </c>
       <c r="O448" t="n">
-        <v>266.76</v>
+        <v>266.85</v>
       </c>
       <c r="P448" t="n">
         <v>263.72</v>
@@ -27302,7 +27302,7 @@
         <v>269.03</v>
       </c>
       <c r="O449" t="n">
-        <v>265.13</v>
+        <v>264.94</v>
       </c>
       <c r="P449" t="n">
         <v>261.99</v>
@@ -27362,7 +27362,7 @@
         <v>268.03</v>
       </c>
       <c r="O450" t="n">
-        <v>263.38</v>
+        <v>263.29</v>
       </c>
       <c r="P450" t="n">
         <v>260.33</v>
@@ -27422,7 +27422,7 @@
         <v>266.54</v>
       </c>
       <c r="O451" t="n">
-        <v>261.44</v>
+        <v>261.28</v>
       </c>
       <c r="P451" t="n">
         <v>258.57</v>
@@ -27482,7 +27482,7 @@
         <v>266.84</v>
       </c>
       <c r="O452" t="n">
-        <v>261</v>
+        <v>260.97</v>
       </c>
       <c r="P452" t="n">
         <v>256.56</v>
@@ -27542,7 +27542,7 @@
         <v>266.93</v>
       </c>
       <c r="O453" t="n">
-        <v>260.77</v>
+        <v>260.81</v>
       </c>
       <c r="P453" t="n">
         <v>256.03</v>
@@ -27551,6 +27551,66 @@
         <v>259.79</v>
       </c>
       <c r="R453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:15:16+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>458.11</v>
+      </c>
+      <c r="C454" t="n">
+        <v>524.37</v>
+      </c>
+      <c r="D454" t="n">
+        <v>297.7</v>
+      </c>
+      <c r="E454" t="n">
+        <v>280.9</v>
+      </c>
+      <c r="F454" t="n">
+        <v>273.09</v>
+      </c>
+      <c r="G454" t="n">
+        <v>278.84</v>
+      </c>
+      <c r="H454" t="n">
+        <v>279.04</v>
+      </c>
+      <c r="I454" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="J454" t="n">
+        <v>256.31</v>
+      </c>
+      <c r="K454" t="n">
+        <v>271.15</v>
+      </c>
+      <c r="L454" t="n">
+        <v>271.78</v>
+      </c>
+      <c r="M454" t="n">
+        <v>268.9</v>
+      </c>
+      <c r="N454" t="n">
+        <v>267.39</v>
+      </c>
+      <c r="O454" t="n">
+        <v>259.81</v>
+      </c>
+      <c r="P454" t="n">
+        <v>255.18</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>260.01</v>
+      </c>
+      <c r="R454" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -27567,7 +27627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B505"/>
+  <dimension ref="A1:B506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32625,6 +32685,16 @@
       </c>
       <c r="B505" t="n">
         <v>0.28</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -32798,28 +32868,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08593390052765817</v>
+        <v>-0.08534968019970837</v>
       </c>
       <c r="J2" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K2" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003243773334113964</v>
+        <v>0.003215191230587222</v>
       </c>
       <c r="M2" t="n">
-        <v>7.951696029312263</v>
+        <v>7.936632426042062</v>
       </c>
       <c r="N2" t="n">
-        <v>121.1466018287208</v>
+        <v>120.8811874442467</v>
       </c>
       <c r="O2" t="n">
-        <v>11.00666170229288</v>
+        <v>10.99459810289793</v>
       </c>
       <c r="P2" t="n">
-        <v>459.0485000866764</v>
+        <v>459.0423495750397</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32870,34 +32940,34 @@
         <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0198</v>
+        <v>0.0199</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0381</v>
+        <v>0.0386</v>
       </c>
       <c r="I3" t="n">
-        <v>2.076336684617073</v>
+        <v>2.081353871303786</v>
       </c>
       <c r="J3" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K3" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05988479755040155</v>
+        <v>0.06042586277060025</v>
       </c>
       <c r="M3" t="n">
-        <v>41.33315010182263</v>
+        <v>41.25034530425692</v>
       </c>
       <c r="N3" t="n">
-        <v>3581.586115377452</v>
+        <v>3573.813982114712</v>
       </c>
       <c r="O3" t="n">
-        <v>59.84635423630625</v>
+        <v>59.78138491298701</v>
       </c>
       <c r="P3" t="n">
-        <v>458.756683811061</v>
+        <v>458.7034315790193</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32951,31 +33021,31 @@
         <v>0.0238</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0281</v>
+        <v>0.028</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5486038702887331</v>
+        <v>-0.5539531096740121</v>
       </c>
       <c r="J4" t="n">
+        <v>453</v>
+      </c>
+      <c r="K4" t="n">
         <v>452</v>
       </c>
-      <c r="K4" t="n">
-        <v>451</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.1027276368549603</v>
+        <v>0.1047680524966164</v>
       </c>
       <c r="M4" t="n">
-        <v>9.263525459725276</v>
+        <v>9.275075746602093</v>
       </c>
       <c r="N4" t="n">
-        <v>140.072757966589</v>
+        <v>140.0802040024701</v>
       </c>
       <c r="O4" t="n">
-        <v>11.8352337520891</v>
+        <v>11.83554831862344</v>
       </c>
       <c r="P4" t="n">
-        <v>324.1117451369356</v>
+        <v>324.1680418386394</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33032,28 +33102,28 @@
         <v>0.0494</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3750674542660709</v>
+        <v>-0.3778599646838343</v>
       </c>
       <c r="J5" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K5" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05496977225988386</v>
+        <v>0.05596381197447353</v>
       </c>
       <c r="M5" t="n">
-        <v>8.666471547437817</v>
+        <v>8.65895343350801</v>
       </c>
       <c r="N5" t="n">
-        <v>128.7149368237475</v>
+        <v>128.5170923712489</v>
       </c>
       <c r="O5" t="n">
-        <v>11.34526054455108</v>
+        <v>11.33653793586247</v>
       </c>
       <c r="P5" t="n">
-        <v>297.0162150469789</v>
+        <v>297.0456035893913</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33108,34 +33178,34 @@
         <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0525</v>
+        <v>0.0527</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0717</v>
+        <v>0.0721</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4732888587617483</v>
+        <v>-0.4753067847878275</v>
       </c>
       <c r="J6" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K6" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06034215464129489</v>
+        <v>0.06109071539084165</v>
       </c>
       <c r="M6" t="n">
-        <v>10.61057477519566</v>
+        <v>10.59658697600763</v>
       </c>
       <c r="N6" t="n">
-        <v>180.8620048051183</v>
+        <v>180.4972097435512</v>
       </c>
       <c r="O6" t="n">
-        <v>13.44849451816516</v>
+        <v>13.43492499955066</v>
       </c>
       <c r="P6" t="n">
-        <v>289.9122032905895</v>
+        <v>289.9339238397641</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33190,34 +33260,34 @@
         <v>0.14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1038</v>
+        <v>0.1043</v>
       </c>
       <c r="H7" t="n">
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1184278179483464</v>
+        <v>-0.1197267421800742</v>
       </c>
       <c r="J7" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K7" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005234985333109954</v>
+        <v>0.005374930228023489</v>
       </c>
       <c r="M7" t="n">
-        <v>9.253947476479405</v>
+        <v>9.239766615148421</v>
       </c>
       <c r="N7" t="n">
-        <v>139.6136864199594</v>
+        <v>139.3196286974466</v>
       </c>
       <c r="O7" t="n">
-        <v>11.81582356080013</v>
+        <v>11.80337361509186</v>
       </c>
       <c r="P7" t="n">
-        <v>284.8169170583715</v>
+        <v>284.8307773693269</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33272,34 +33342,34 @@
         <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1664</v>
+        <v>0.1671</v>
       </c>
       <c r="H8" t="n">
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0125724483853393</v>
+        <v>-0.01353837970073044</v>
       </c>
       <c r="J8" t="n">
+        <v>453</v>
+      </c>
+      <c r="K8" t="n">
         <v>452</v>
       </c>
-      <c r="K8" t="n">
-        <v>451</v>
-      </c>
       <c r="L8" t="n">
-        <v>0.0001196351516543626</v>
+        <v>0.000139371307090963</v>
       </c>
       <c r="M8" t="n">
-        <v>6.242749424385408</v>
+        <v>6.23396355604992</v>
       </c>
       <c r="N8" t="n">
-        <v>69.93849025231395</v>
+        <v>69.79400906935609</v>
       </c>
       <c r="O8" t="n">
-        <v>8.362923546960952</v>
+        <v>8.354280882838216</v>
       </c>
       <c r="P8" t="n">
-        <v>281.5299536908995</v>
+        <v>281.540160003423</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -33354,34 +33424,34 @@
         <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0572</v>
+        <v>0.0575</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1316</v>
+        <v>0.1322</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03140027099314695</v>
+        <v>-0.03179738657486164</v>
       </c>
       <c r="J9" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K9" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007092220998585752</v>
+        <v>0.0007307483009837412</v>
       </c>
       <c r="M9" t="n">
-        <v>6.598135634083799</v>
+        <v>6.585424549846138</v>
       </c>
       <c r="N9" t="n">
-        <v>73.93751256055744</v>
+        <v>73.77604022147899</v>
       </c>
       <c r="O9" t="n">
-        <v>8.598692491335962</v>
+        <v>8.589298005161947</v>
       </c>
       <c r="P9" t="n">
-        <v>274.6202666089386</v>
+        <v>274.6244458764685</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33439,31 +33509,31 @@
         <v>0.0329</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0517</v>
+        <v>0.0518</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02931853131011435</v>
+        <v>-0.03112130687164279</v>
       </c>
       <c r="J10" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K10" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001922162423259044</v>
+        <v>0.0002175944244786621</v>
       </c>
       <c r="M10" t="n">
-        <v>12.63068815026493</v>
+        <v>12.60965018789307</v>
       </c>
       <c r="N10" t="n">
-        <v>234.526123382629</v>
+        <v>234.0413251342842</v>
       </c>
       <c r="O10" t="n">
-        <v>15.31424576603853</v>
+        <v>15.29840923541674</v>
       </c>
       <c r="P10" t="n">
-        <v>261.0794330300131</v>
+        <v>261.0985994357218</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33514,34 +33584,34 @@
         <v>0.025</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0199</v>
+        <v>0.02</v>
       </c>
       <c r="H11" t="n">
         <v>0.027</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3351325767976062</v>
+        <v>-0.3284714932081911</v>
       </c>
       <c r="J11" t="n">
+        <v>453</v>
+      </c>
+      <c r="K11" t="n">
         <v>452</v>
       </c>
-      <c r="K11" t="n">
-        <v>451</v>
-      </c>
       <c r="L11" t="n">
-        <v>0.02347173525401913</v>
+        <v>0.02263194659642975</v>
       </c>
       <c r="M11" t="n">
-        <v>13.11483347630388</v>
+        <v>13.12025231464428</v>
       </c>
       <c r="N11" t="n">
-        <v>246.7612415397478</v>
+        <v>246.700738910088</v>
       </c>
       <c r="O11" t="n">
-        <v>15.70863589048227</v>
+        <v>15.70670999637059</v>
       </c>
       <c r="P11" t="n">
-        <v>265.0797656788638</v>
+        <v>265.0092845301521</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33592,34 +33662,34 @@
         <v>0.03</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0248</v>
+        <v>0.0249</v>
       </c>
       <c r="H12" t="n">
-        <v>0.037</v>
+        <v>0.0372</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1614247639249732</v>
+        <v>-0.1549432805375513</v>
       </c>
       <c r="J12" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K12" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002693818683233595</v>
+        <v>0.002492155020146547</v>
       </c>
       <c r="M12" t="n">
-        <v>17.7287590850945</v>
+        <v>17.71853417815063</v>
       </c>
       <c r="N12" t="n">
-        <v>503.9793327363772</v>
+        <v>503.3073118218098</v>
       </c>
       <c r="O12" t="n">
-        <v>22.44948401937954</v>
+        <v>22.43451162432135</v>
       </c>
       <c r="P12" t="n">
-        <v>261.7248473514977</v>
+        <v>261.6556247155249</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33673,31 +33743,31 @@
         <v>0.0231</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0322</v>
+        <v>0.0323</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6777200072260368</v>
+        <v>-0.6725141051520923</v>
       </c>
       <c r="J13" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K13" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07072963273930888</v>
+        <v>0.06997719874649544</v>
       </c>
       <c r="M13" t="n">
-        <v>13.40407978500545</v>
+        <v>13.39129656040665</v>
       </c>
       <c r="N13" t="n">
-        <v>315.2488828603132</v>
+        <v>314.8374002135902</v>
       </c>
       <c r="O13" t="n">
-        <v>17.75524944517292</v>
+        <v>17.7436580279713</v>
       </c>
       <c r="P13" t="n">
-        <v>275.206994840666</v>
+        <v>275.1513954905429</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33754,28 +33824,28 @@
         <v>0.035</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1825707335136678</v>
+        <v>-0.179202831412994</v>
       </c>
       <c r="J14" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K14" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005621567891773593</v>
+        <v>0.005441161181849674</v>
       </c>
       <c r="M14" t="n">
-        <v>13.60283625846527</v>
+        <v>13.58771281208526</v>
       </c>
       <c r="N14" t="n">
-        <v>309.6649454057156</v>
+        <v>309.1014940235835</v>
       </c>
       <c r="O14" t="n">
-        <v>17.59729937819197</v>
+        <v>17.58128249086464</v>
       </c>
       <c r="P14" t="n">
-        <v>264.6998330888805</v>
+        <v>264.664052036504</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33823,37 +33893,37 @@
         <v>0.1333395414187857</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G15" t="n">
         <v>0.0292</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0534</v>
+        <v>0.0531</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1965671924304531</v>
+        <v>-0.2032451024076186</v>
       </c>
       <c r="J15" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K15" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01595179999770024</v>
+        <v>0.01750331011880268</v>
       </c>
       <c r="M15" t="n">
-        <v>9.046938498326336</v>
+        <v>8.911722763161128</v>
       </c>
       <c r="N15" t="n">
-        <v>126.857798039195</v>
+        <v>123.7282484709359</v>
       </c>
       <c r="O15" t="n">
-        <v>11.26311671071533</v>
+        <v>11.12332002915208</v>
       </c>
       <c r="P15" t="n">
-        <v>259.6678331935421</v>
+        <v>259.5180919086602</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33910,28 +33980,28 @@
         <v>0.0376</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2517167200907294</v>
+        <v>-0.2521225852565296</v>
       </c>
       <c r="J16" t="n">
+        <v>453</v>
+      </c>
+      <c r="K16" t="n">
         <v>452</v>
       </c>
-      <c r="K16" t="n">
-        <v>451</v>
-      </c>
       <c r="L16" t="n">
-        <v>0.02575895846954368</v>
+        <v>0.0259608428219763</v>
       </c>
       <c r="M16" t="n">
-        <v>9.006183980985025</v>
+        <v>8.98829906383779</v>
       </c>
       <c r="N16" t="n">
-        <v>127.7782762431624</v>
+        <v>127.497408746625</v>
       </c>
       <c r="O16" t="n">
-        <v>11.30390535360069</v>
+        <v>11.29147504742516</v>
       </c>
       <c r="P16" t="n">
-        <v>262.6991884316384</v>
+        <v>262.7034574847058</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33988,28 +34058,28 @@
         <v>0.0414</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3429009547005274</v>
+        <v>-0.3431020831843479</v>
       </c>
       <c r="J17" t="n">
+        <v>453</v>
+      </c>
+      <c r="K17" t="n">
         <v>452</v>
       </c>
-      <c r="K17" t="n">
-        <v>451</v>
-      </c>
       <c r="L17" t="n">
-        <v>0.05006948735974293</v>
+        <v>0.0503544512447287</v>
       </c>
       <c r="M17" t="n">
-        <v>8.62621976698011</v>
+        <v>8.608226201984486</v>
       </c>
       <c r="N17" t="n">
-        <v>118.9462777999706</v>
+        <v>118.683571180728</v>
       </c>
       <c r="O17" t="n">
-        <v>10.90624948366626</v>
+        <v>10.89419896920962</v>
       </c>
       <c r="P17" t="n">
-        <v>269.4633794096044</v>
+        <v>269.4654949598984</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34047,7 +34117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R453"/>
+  <dimension ref="A1:R454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34196,7 +34266,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-46.559178764193135,169.55145289314433</t>
+          <t>-46.55918643046715,169.55145142481564</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -34288,7 +34358,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-46.55929447144127,169.5514307315747</t>
+          <t>-46.559298304578,169.5514299974068</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -34380,7 +34450,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-46.55931131941427,169.55142750464992</t>
+          <t>-46.55930730799214,169.55142827296555</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -34472,7 +34542,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-46.55935285991832,169.55141954830705</t>
+          <t>-46.559355445056944,169.55141905316938</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -34564,7 +34634,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-46.5593674793229,169.5514167482174</t>
+          <t>-46.55936640961037,169.5514169531021</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -34632,7 +34702,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-46.559279762893254,169.55143354872936</t>
+          <t>-46.559274057759445,169.55143464144345</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -34704,7 +34774,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-46.559279762893254,169.55143354872936</t>
+          <t>-46.559274057759445,169.55143464144345</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -34788,7 +34858,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-46.55937425416888,169.55141545061431</t>
+          <t>-46.559379335303355,169.55141447741173</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -34880,7 +34950,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-46.55934376736173,169.55142128982536</t>
+          <t>-46.5593376165146,169.55142246791087</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -34972,7 +35042,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-46.55945029289869,169.5514008867014</t>
+          <t>-46.559452521466326,169.55140045985684</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -35064,7 +35134,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-46.55944387462388,169.55140211601358</t>
+          <t>-46.55944325062493,169.55140223553002</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -35156,7 +35226,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-46.55946901286676,169.55139730120572</t>
+          <t>-46.5594658037294,169.55139791586234</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -35248,7 +35318,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-46.55950529394708,169.55139035216555</t>
+          <t>-46.55950868136976,169.55138970336026</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -35340,7 +35410,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-46.559489069975164,169.55139345960004</t>
+          <t>-46.55949129854274,169.5513930327548</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -35432,7 +35502,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-46.55947026086463,169.55139706217258</t>
+          <t>-46.55946428830341,169.5513982061168</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -35516,7 +35586,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-46.55945296717986,169.5514003744879</t>
+          <t>-46.55944833175917,169.5514012623246</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -35608,7 +35678,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-46.559518397924286,169.55138784231303</t>
+          <t>-46.559513049362174,169.5513888667428</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -35700,7 +35770,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-46.559590514368224,169.5513740295625</t>
+          <t>-46.5595799955299,169.5513760442803</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -35792,7 +35862,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-46.559645604554255,169.55136347789045</t>
+          <t>-46.55963481828821,169.55136554383463</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -35884,7 +35954,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-46.55957910410291,169.55137621501908</t>
+          <t>-46.5595682286937,169.55137829803132</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -35976,7 +36046,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-46.55957910410291,169.55137621501908</t>
+          <t>-46.5595682286937,169.55137829803132</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -36068,7 +36138,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-46.55949530996438,169.5513922644332</t>
+          <t>-46.559490317973015,169.5513932205667</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -36160,7 +36230,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-46.559428274650244,169.55140510392366</t>
+          <t>-46.55941953866493,169.55140677715247</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -36252,7 +36322,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-46.5593853970076,169.55141331639786</t>
+          <t>-46.5593771067356,169.55141490425498</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -36344,7 +36414,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-46.55935482105796,169.55141917268537</t>
+          <t>-46.559344302218,169.5514211873831</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -36436,7 +36506,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-46.559459831168176,169.55139905980633</t>
+          <t>-46.559455819746425,169.5513998281268</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -36528,7 +36598,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-46.559480066562074,169.55139518405457</t>
+          <t>-46.55948131455994,169.5513949450213</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -36620,7 +36690,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-46.55945688945889,169.55139962324134</t>
+          <t>-46.55945769174324,169.55139946957726</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -36712,7 +36782,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-46.559422212946146,169.55140626493963</t>
+          <t>-46.559416953526416,169.5514072722915</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -36804,7 +36874,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>-46.559440576343746,169.5514027477433</t>
+          <t>-46.55944039805834,169.55140278189083</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -36896,7 +36966,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>-46.559422212946146,169.55140626493963</t>
+          <t>-46.55941347696082,169.55140793816798</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -36988,7 +37058,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-46.55941829066703,169.5514070161851</t>
+          <t>-46.55940598897335,169.55140937236325</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -37080,7 +37150,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>-46.55940001641188,169.5514105163044</t>
+          <t>-46.55938771471805,169.55141287248074</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -37172,7 +37242,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>-46.55939493527748,169.55141148950779</t>
+          <t>-46.559384149009674,169.55141355543017</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -37264,7 +37334,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>-46.55939876841397,169.55141075533683</t>
+          <t>-46.559395648419155,169.55141135291785</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -37356,7 +37426,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>-46.55935865419453,169.55141843851564</t>
+          <t>-46.55934911592444,169.5514202654029</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -37448,7 +37518,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>-46.559360793619604,169.55141802874644</t>
+          <t>-46.559364894184306,169.55141724335533</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -37540,7 +37610,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>-46.559376037023085,169.55141510913975</t>
+          <t>-46.559381296442965,169.55141410178965</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -37632,7 +37702,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>-46.55936970789067,169.55141632137432</t>
+          <t>-46.55937594788038,169.55141512621347</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -37724,7 +37794,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>-46.55940081869626,169.55141036264067</t>
+          <t>-46.55940857411187,169.55140887722447</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -37816,7 +37886,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>-46.55939885755667,169.55141073826306</t>
+          <t>-46.55940491926085,169.55140957724825</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -37904,7 +37974,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>-46.55945599803185,169.55139979397921</t>
+          <t>-46.559455017462085,169.55139998179087</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -37992,7 +38062,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-46.55945599803185,169.55139979397921</t>
+          <t>-46.559455017462085,169.55139998179087</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -38084,7 +38154,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-46.559424084943004,169.5514059063906</t>
+          <t>-46.55941820152433,169.55140703325887</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -38176,7 +38246,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>-46.55943094893145,169.55140459171065</t>
+          <t>-46.559427918079415,169.55140517221875</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -38268,7 +38338,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>-46.559432018643925,169.55140438682542</t>
+          <t>-46.559434514639705,169.55140390875985</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -38360,7 +38430,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-46.55940286897855,169.55140996994447</t>
+          <t>-46.55940269069313,169.55141000409196</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -38452,7 +38522,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-46.55939671813166,169.55141114803294</t>
+          <t>-46.55939582670457,169.55141131877036</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -38544,7 +38614,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>-46.55941000039522,169.5514086040444</t>
+          <t>-46.55940866325459,169.55140886015073</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -38636,7 +38706,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>-46.55941142667854,169.55140833086435</t>
+          <t>-46.55941053525146,169.5514085016019</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -38728,7 +38798,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>-46.55940625640147,169.551409321142</t>
+          <t>-46.55940429526189,169.5514096967645</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -38820,7 +38890,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-46.55941080267958,169.55140845038065</t>
+          <t>-46.55940768268481,169.55140904796198</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -38912,7 +38982,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>-46.55939671813166,169.55141114803294</t>
+          <t>-46.559394578706645,169.55141155780277</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -39004,7 +39074,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>-46.55940616725876,169.55140933821573</t>
+          <t>-46.55940527583168,169.55140950895327</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -39096,7 +39166,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>-46.5594034038348,169.55140986750197</t>
+          <t>-46.55940304726396,169.55140993579698</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -39188,7 +39258,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>-46.55941000039522,169.5514086040444</t>
+          <t>-46.55940866325459,169.55140886015073</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -39280,7 +39350,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>-46.55943380149806,169.55140404535</t>
+          <t>-46.55943326664182,169.55140414779262</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -39372,7 +39442,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>-46.55944672719046,169.55140156965265</t>
+          <t>-46.559452699751745,169.55140042570926</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -39464,7 +39534,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>-46.55949602310601,169.55139212784266</t>
+          <t>-46.55950092595466,169.55139118878273</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -39556,7 +39626,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>-46.5595021739525,169.55139094974928</t>
+          <t>-46.559500747669254,169.5513912229304</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -39648,7 +39718,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>-46.55942248037428,169.55140621371834</t>
+          <t>-46.55941989523577,169.55140670885743</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -39740,7 +39810,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>-46.55942248037428,169.55140621371834</t>
+          <t>-46.55941989523577,169.55140670885743</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -39832,7 +39902,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>-46.559326473675526,169.551424602123</t>
+          <t>-46.55932388853686,169.55142509726008</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -39924,7 +39994,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>-46.55937514559599,169.551415279877</t>
+          <t>-46.559375056453256,169.55141529695078</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -40016,7 +40086,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>-46.55939422213581,169.55141162609772</t>
+          <t>-46.55939662898894,169.55141116510669</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -40108,7 +40178,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>-46.55940589983064,169.551409389437</t>
+          <t>-46.559405632402516,169.55140944065826</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -40200,7 +40270,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>-46.559406523829594,169.55140926992075</t>
+          <t>-46.5594121398202,169.55140819427433</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -40292,7 +40362,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>-46.55940037298273,169.5514104480094</t>
+          <t>-46.55940429526189,169.5514096967645</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -40384,7 +40454,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>-46.55940081869626,169.55141036264067</t>
+          <t>-46.55940304726396,169.55140993579698</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -40476,7 +40546,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>-46.55938842785973,169.5514127358908</t>
+          <t>-46.55939056728475,169.5514123261211</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -40568,7 +40638,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>-46.55940171012334,169.5514101919032</t>
+          <t>-46.5594043844046,169.55140967969075</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -40660,7 +40730,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>-46.559392974137886,169.55141186513012</t>
+          <t>-46.559392795852474,169.5514118992776</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -40752,7 +40822,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>-46.559430770646024,169.55140462585817</t>
+          <t>-46.559432107786634,169.55140436975165</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -40844,7 +40914,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>-46.5595058288033,169.5513902497226</t>
+          <t>-46.55950752251464,169.55138992531997</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -40936,7 +41006,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>-46.55951661507025,169.55138818378967</t>
+          <t>-46.55951706078375,169.55138809842052</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -41028,7 +41098,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>-46.55958703780302,169.55137469544394</t>
+          <t>-46.559590336082834,169.5513740637103</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -41120,7 +41190,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>-46.5596088777638,169.5513705123412</t>
+          <t>-46.55960959090535,169.55137037575005</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -41212,7 +41282,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>-46.55960771890874,169.55137073430188</t>
+          <t>-46.55960780805143,169.551370717228</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -41304,7 +41374,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>-46.559606560053666,169.5513709562625</t>
+          <t>-46.559602637775036,169.55137170751382</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -41396,7 +41466,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>-46.55957669725006,169.55137667601366</t>
+          <t>-46.55956947669147,169.5513780589972</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -41488,7 +41558,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>-46.55958186752656,169.55137568572889</t>
+          <t>-46.559572507543244,169.55137747848565</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -41580,7 +41650,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>-46.55957544925228,169.55137691504788</t>
+          <t>-46.55956974411958,169.55137800777558</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -41672,7 +41742,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>-46.55957072468926,169.55137781996302</t>
+          <t>-46.55956305841716,169.55137928831553</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -41764,7 +41834,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>-46.55954621044696,169.55138251527455</t>
+          <t>-46.55953685046342,169.5513843080286</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -41856,7 +41926,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>-46.55951447564541,169.55138859356157</t>
+          <t>-46.559506096231395,169.55139019850117</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -41948,7 +42018,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>-46.55945519574749,169.5513999476433</t>
+          <t>-46.55944672719046,169.55140156965265</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -42040,7 +42110,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>-46.55943629749385,169.55140356728444</t>
+          <t>-46.55943005750437,169.5514047624483</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -42132,7 +42202,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>-46.55941846895246,169.55140698203758</t>
+          <t>-46.55941463581602,169.55140771620916</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -42224,7 +42294,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>-46.55941071353687,169.5514084674544</t>
+          <t>-46.559405364974396,169.5514094918795</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -42316,7 +42386,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>-46.559415883813934,169.55140747717655</t>
+          <t>-46.559412318105615,169.5514081601268</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -42408,7 +42478,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>-46.559417755810784,169.55140711862765</t>
+          <t>-46.55941552724309,169.5514075454716</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -42500,7 +42570,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>-46.55937059931777,169.5514161506371</t>
+          <t>-46.55936854903542,169.55141654333275</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -42592,7 +42662,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>-46.55937042103235,169.55141618478453</t>
+          <t>-46.55936783589374,169.5514166799225</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -42684,7 +42754,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>-46.55934875935359,169.55142033369773</t>
+          <t>-46.55934840278273,169.55142040199257</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -42776,7 +42846,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>-46.5593398450824,169.55142204106832</t>
+          <t>-46.55934037993867,169.55142193862613</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -42868,7 +42938,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>-46.55937291702823,169.5514157067202</t>
+          <t>-46.55937523473869,169.5514152628033</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -42960,7 +43030,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>-46.559394311278524,169.551411609024</t>
+          <t>-46.559391726139964,169.55141210416247</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -43052,7 +43122,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>-46.55940295812127,169.55140995287073</t>
+          <t>-46.559402601550424,169.5514100211657</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -43144,7 +43214,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>-46.55937683930748,169.5514149554762</t>
+          <t>-46.55938851700243,169.5514127188171</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -43236,7 +43306,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>-46.55919445331203,169.55144988819208</t>
+          <t>-46.55918286475831,169.55145210775927</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -43328,7 +43398,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>-46.559175822483304,169.55145345657266</t>
+          <t>-46.55917715962414,169.5514532004689</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -43420,7 +43490,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>-46.5591725242026,169.55145408829523</t>
+          <t>-46.55917047392,169.55145448098762</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -43512,7 +43582,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>-46.559185984753555,169.5514515101836</t>
+          <t>-46.55918331047192,169.55145202239132</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -43604,7 +43674,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>-46.559180725333,169.5514525175254</t>
+          <t>-46.559180636190284,169.551452534599</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -43696,7 +43766,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>-46.55919391845571,169.55144999063367</t>
+          <t>-46.55919668188004,169.5514494613521</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -43788,7 +43858,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>-46.55920488301031,169.55144789058068</t>
+          <t>-46.559210231573495,169.55144686616424</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -43880,7 +43950,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>-46.55922182012701,169.55144464659446</t>
+          <t>-46.55922538583577,169.5514439636497</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -43972,7 +44042,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>-46.55930668399314,169.55142839248128</t>
+          <t>-46.55931943140119,169.55142595094458</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -44064,7 +44134,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>-46.55931782683234,169.55142625827094</t>
+          <t>-46.55932843481521,169.55142422650175</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -44156,7 +44226,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>-46.55926550005869,169.55143628051408</t>
+          <t>-46.55925881435495,169.55143756103757</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -44248,7 +44318,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>-46.55929714572272,169.55143021936456</t>
+          <t>-46.55929233201612,169.55143114134276</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -44340,7 +44410,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>-46.559231893254236,169.55144271727525</t>
+          <t>-46.55922583154936,169.5514438782816</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
@@ -44432,7 +44502,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>-46.559231893254236,169.55144271727525</t>
+          <t>-46.55922583154936,169.5514438782816</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
@@ -44524,7 +44594,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>-46.559238578958094,169.5514414367532</t>
+          <t>-46.5592302886853,169.5514430246005</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -44616,7 +44686,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>-46.559215936707545,169.55144577345308</t>
+          <t>-46.55921228185605,169.5514464734712</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -44708,7 +44778,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>-46.55922841668821,169.5514433831466</t>
+          <t>-46.55922235498333,169.55144454415276</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -44800,7 +44870,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>-46.55922948640083,169.5514431782631</t>
+          <t>-46.55922182012701,169.55144464659446</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -44892,7 +44962,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>-46.559229842971696,169.5514431099686</t>
+          <t>-46.55921976984447,169.55144503928764</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -44984,7 +45054,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>-46.559228862401795,169.55144329777846</t>
+          <t>-46.55921602585026,169.55144575637948</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -45076,7 +45146,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>-46.55928805316579,169.55143196087877</t>
+          <t>-46.559278871466105,169.551433719466</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -45168,7 +45238,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>-46.55932995024133,169.55142393624894</t>
+          <t>-46.55932540396297,169.55142480700732</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -45260,7 +45330,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>-46.55935687134032,169.55141877998994</t>
+          <t>-46.559345193645115,169.55142101664606</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -45352,7 +45422,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>-46.55940162098063,169.55141020897693</t>
+          <t>-46.55939324156602,169.55141181390889</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -45436,7 +45506,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>-46.559537385319615,169.55138420558552</t>
+          <t>-46.559555213859625,169.55138079081524</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -45520,7 +45590,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>-46.55937327359907,169.55141563842528</t>
+          <t>-46.559392974137886,169.55141186513012</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -45600,7 +45670,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>-46.55934911592444,169.5514202654029</t>
+          <t>-46.55936230904568,169.5514177384932</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -45692,7 +45762,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>-46.559451451753866,169.55140066474223</t>
+          <t>-46.55946500144506,169.55139806952647</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -45784,7 +45854,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>-46.559451451753866,169.55140066474223</t>
+          <t>-46.55946500144506,169.55139806952647</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -45876,7 +45946,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>-46.55946009859628,169.55139900858498</t>
+          <t>-46.55947302428845,169.55139653288484</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
@@ -45968,7 +46038,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>-46.5594876436919,169.551393732781</t>
+          <t>-46.55949718196114,169.5513919058831</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -46044,7 +46114,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>-46.55940269069313,169.55141000409196</t>
+          <t>-46.559412318105615,169.5514081601268</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -46120,7 +46190,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>-46.55945064946951,169.55140081840628</t>
+          <t>-46.55945911802652,169.55139919639666</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -46204,7 +46274,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>-46.559525707625795,169.55138644225866</t>
+          <t>-46.559522855059356,169.5513869886214</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -46296,7 +46366,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>-46.55950146081088,169.55139108633983</t>
+          <t>-46.5594958448206,169.5513921619903</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -46388,7 +46458,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>-46.55945287803716,169.5514003915617</t>
+          <t>-46.55944503347905,169.55140189405444</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -46480,7 +46550,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>-46.55945287803716,169.5514003915617</t>
+          <t>-46.55944503347905,169.55140189405444</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -46572,7 +46642,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>-46.55945287803716,169.5514003915617</t>
+          <t>-46.55944503347905,169.55140189405444</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -46664,7 +46734,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>-46.559455819746425,169.5513998281268</t>
+          <t>-46.55944547919258,169.55140180868554</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -46756,7 +46826,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>-46.55945680031619,169.55139964031514</t>
+          <t>-46.55944396376658,169.55140209893977</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -46848,7 +46918,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>-46.55947480714255,169.55139619140888</t>
+          <t>-46.559454482605865,169.5514000842336</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -46940,7 +47010,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>-46.559447083761285,169.55140150135753</t>
+          <t>-46.55943094893145,169.55140459171065</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -47032,7 +47102,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>-46.55953194761487,169.55138524708997</t>
+          <t>-46.55952374648638,169.55138681788304</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -47124,7 +47194,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>-46.55949771681736,169.55139180344017</t>
+          <t>-46.559493794538426,169.55139255468802</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -47216,7 +47286,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>-46.55949771681736,169.55139180344017</t>
+          <t>-46.559493794538426,169.55139255468802</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -47308,7 +47378,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>-46.55948942654597,169.5513933913048</t>
+          <t>-46.55950324366493,169.55139074486343</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -47400,7 +47470,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>-46.559438169490676,169.5514032087352</t>
+          <t>-46.559444676908235,169.55140196234956</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -47492,7 +47562,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>-46.55936649875309,169.55141693602835</t>
+          <t>-46.55937630445121,169.55141505791855</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -47584,7 +47654,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>-46.559354910200675,169.55141915561165</t>
+          <t>-46.55935936733623,169.5514183019259</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -47676,7 +47746,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>-46.559354910200675,169.55141915561165</t>
+          <t>-46.55935936733623,169.5514183019259</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -47768,7 +47838,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>-46.559354910200675,169.55141915561165</t>
+          <t>-46.55935936733623,169.5514183019259</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -47860,7 +47930,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>-46.55924490809106,169.55144022452532</t>
+          <t>-46.559232338967824,169.55144263190712</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -47948,7 +48018,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>-46.55945261060903,169.55140044278306</t>
+          <t>-46.55942684836693,169.55140537710392</t>
         </is>
       </c>
       <c r="P153" t="inlineStr"/>
@@ -48028,7 +48098,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>-46.55945261060903,169.55140044278306</t>
+          <t>-46.55942684836693,169.55140537710392</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -48120,7 +48190,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>-46.55937995930233,169.55141435789562</t>
+          <t>-46.559377909019986,169.55141475059142</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -48212,7 +48282,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>-46.55935517762881,169.5514191043905</t>
+          <t>-46.559358475909114,169.55141847266307</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -48304,7 +48374,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>-46.55932950452777,169.5514240216174</t>
+          <t>-46.559336546802044,169.5514226727953</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
@@ -48396,7 +48466,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>-46.559288498879376,169.55143187551045</t>
+          <t>-46.559306416565,169.55142844370232</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -48488,7 +48558,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>-46.559292866872404,169.55143103890074</t>
+          <t>-46.55930597085142,169.55142852907073</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -48580,7 +48650,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>-46.559297056579986,169.55143023643822</t>
+          <t>-46.559305792566,169.55142856321808</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -48672,7 +48742,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>-46.55927120519254,169.5514351878004</t>
+          <t>-46.55926870919649,169.55143566586264</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
@@ -48764,7 +48834,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>-46.55927744518265,169.55143399264452</t>
+          <t>-46.55926808519747,169.55143578537823</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -48856,7 +48926,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>-46.559220482986234,169.5514449026987</t>
+          <t>-46.55920693329287,169.55144749788772</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
@@ -48948,7 +49018,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>-46.55923759838819,169.55144162456313</t>
+          <t>-46.55922199841245,169.55144461244723</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
@@ -49040,7 +49110,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>-46.55918937217695,169.55145086138705</t>
+          <t>-46.55916672992567,169.55145519807797</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
@@ -49132,7 +49202,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>-46.55925819035594,169.55143768055308</t>
+          <t>-46.559243392664854,169.55144051477708</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -49224,7 +49294,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>-46.55923510239209,169.55144210262472</t>
+          <t>-46.55922841668821,169.5514433831466</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -49316,7 +49386,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>-46.559201228158784,169.55144859059843</t>
+          <t>-46.559193829312996,169.55145000770727</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -49408,7 +49478,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>-46.559201584729664,169.55144852230404</t>
+          <t>-46.55919632530916,169.5514495296465</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -49500,7 +49570,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>-46.55923331953772,169.55144244409723</t>
+          <t>-46.55922770354645,169.55144351973556</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -49592,7 +49662,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>-46.559252128651174,169.55143884156072</t>
+          <t>-46.559247314944436,169.55143976353716</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
@@ -49684,7 +49754,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>-46.55925052408225,169.55143914888623</t>
+          <t>-46.559244640662904,169.55144027574622</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
@@ -49776,7 +49846,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>-46.55927566232833,169.55143433411763</t>
+          <t>-46.55927218576241,169.5514349999902</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -49868,7 +49938,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>-46.55926915491007,169.5514355804944</t>
+          <t>-46.55926220177818,169.55143691223904</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -49960,7 +50030,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>-46.55926451948881,169.5514364683242</t>
+          <t>-46.55925970578212,169.55143739030112</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -50052,7 +50122,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>-46.55926451948881,169.5514364683242</t>
+          <t>-46.55925970578212,169.55143739030112</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -50144,7 +50214,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>-46.559292599444255,169.55143109012175</t>
+          <t>-46.55928894459294,169.55143179014212</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -50236,7 +50306,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>-46.55931176512783,169.55142741928148</t>
+          <t>-46.559308912560994,169.5514279656393</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -50328,7 +50398,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>-46.55931176512783,169.55142741928148</t>
+          <t>-46.559308912560994,169.5514279656393</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -50420,7 +50490,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>-46.55933779480002,169.55142243376346</t>
+          <t>-46.55933387252067,169.55142318500626</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -50512,7 +50582,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>-46.559439595773966,169.55140293555482</t>
+          <t>-46.559437991205264,169.55140324288274</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
@@ -50604,7 +50674,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>-46.55949530996438,169.5513922644332</t>
+          <t>-46.55950190652438,169.5513910009707</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -50696,7 +50766,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>-46.559475252856075,169.55139610603985</t>
+          <t>-46.55947543114148,169.55139607189224</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -50788,7 +50858,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>-46.55943888263233,169.551403072145</t>
+          <t>-46.55944262662599,169.55140235504643</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -50880,7 +50950,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>-46.559448866615405,169.55140115988192</t>
+          <t>-46.559453947749624,169.55140018667626</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -50972,7 +51042,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>-46.55944298319682,169.55140228675134</t>
+          <t>-46.55944503347905,169.55140189405444</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
@@ -51064,7 +51134,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>-46.55942640265339,169.55140546247276</t>
+          <t>-46.55942586779716,169.55140556491534</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
@@ -51156,7 +51226,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>-46.55943014664708,169.55140474537455</t>
+          <t>-46.55943121635957,169.55140454048933</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -51248,7 +51318,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>-46.55939520270561,169.55141143828658</t>
+          <t>-46.55938905185868,169.55141261637465</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -51340,7 +51410,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>-46.55940928725355,169.55140874063446</t>
+          <t>-46.55940616725876,169.55140933821573</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -51432,7 +51502,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>-46.55940768268481,169.55140904796198</t>
+          <t>-46.55940589983064,169.551409389437</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -51524,7 +51594,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>-46.55937826559083,169.55141468229652</t>
+          <t>-46.559377909019986,169.55141475059142</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -51616,7 +51686,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>-46.55934875935359,169.55142033369773</t>
+          <t>-46.559353394774575,169.55141944586478</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -51708,7 +51778,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>-46.55932781081623,169.5514243460176</t>
+          <t>-46.55933413994881,169.55142313378516</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
@@ -51800,7 +51870,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>-46.55931069541527,169.55142762416568</t>
+          <t>-46.55931871825948,169.55142608753408</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -51892,7 +51962,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>-46.559315776549944,169.55142665096574</t>
+          <t>-46.559321392540895,169.5514255753234</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
@@ -51984,7 +52054,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>-46.55927860403796,169.55143377068694</t>
+          <t>-46.55928466574261,169.55143260967802</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
@@ -52076,7 +52146,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>-46.559272542333275,169.55143493169558</t>
+          <t>-46.559279406322396,169.55143361702403</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
@@ -52168,7 +52238,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>-46.55928252631743,169.5514330194459</t>
+          <t>-46.55928707259593,169.5514321486891</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -52260,7 +52330,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>-46.55925649664432,169.5514380049523</t>
+          <t>-46.55926041892385,169.55143725371198</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -52352,7 +52422,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>-46.55925827949865,169.55143766347945</t>
+          <t>-46.55925917092581,169.551437492743</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -52444,7 +52514,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>-46.55927949546512,169.55143359995034</t>
+          <t>-46.55928136746214,169.5514332414035</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -52536,7 +52606,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>-46.55934020165325,169.5514219727735</t>
+          <t>-46.55933904279799,169.55142219473166</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -52628,7 +52698,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>-46.55933458566238,169.5514230484167</t>
+          <t>-46.559332891950845,169.55142337281694</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
@@ -52720,7 +52790,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>-46.55935045306511,169.55142000929726</t>
+          <t>-46.55934555021596,169.55142094835122</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
@@ -52812,7 +52882,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>-46.55934394564716,169.55142125567792</t>
+          <t>-46.55934189536479,169.55142164837315</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -52904,7 +52974,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>-46.55933101995387,169.5514237313646</t>
+          <t>-46.55932540396297,169.55142480700732</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
@@ -52996,7 +53066,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>-46.55926897662463,169.5514356146417</t>
+          <t>-46.55926656977129,169.55143607563028</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
@@ -53088,7 +53158,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>-46.55924883037063,169.55143947328534</t>
+          <t>-46.55924267952311,169.55144065136616</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
@@ -53180,7 +53250,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>-46.559240361812456,169.55144109528058</t>
+          <t>-46.5592366178183,169.55144181237304</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -53272,7 +53342,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>-46.559239202957116,169.55144131723776</t>
+          <t>-46.55923581553383,169.5514419660357</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
@@ -53364,7 +53434,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>-46.55918839160703,169.5514510491966</t>
+          <t>-46.5591883024643,169.5514510662702</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
@@ -53456,7 +53526,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>-46.559166819068395,169.55145518100437</t>
+          <t>-46.55916949335006,169.551454668797</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -53548,7 +53618,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>-46.559127061413754,169.55146279581382</t>
+          <t>-46.55912768541284,169.551462676299</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -53640,7 +53710,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>-46.559113957433205,169.55146530562493</t>
+          <t>-46.559114848860474,169.55146513488953</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
@@ -53732,7 +53802,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>-46.55913151854999,169.55146194213626</t>
+          <t>-46.55913365797538,169.551461532371</t>
         </is>
       </c>
       <c r="P216" t="inlineStr">
@@ -53824,7 +53894,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>-46.55915237794733,169.5514579469232</t>
+          <t>-46.559160400792386,169.55145641030182</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -53912,7 +53982,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>-46.559215936707545,169.55144577345308</t>
+          <t>-46.55922850583092,169.55144336607296</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -54000,7 +54070,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>-46.559218165275524,169.55144534661272</t>
+          <t>-46.55922583154936,169.5514438782816</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -54092,7 +54162,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>-46.559225564121206,169.55144392950248</t>
+          <t>-46.55923269553869,169.55144256361262</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -54184,7 +54254,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>-46.55924169895322,169.5514408391761</t>
+          <t>-46.559244818948336,169.55144024159895</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -54276,7 +54346,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>-46.559263093205345,169.55143674150258</t>
+          <t>-46.55925854692679,169.5514376122585</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
@@ -54368,7 +54438,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>-46.55924169895322,169.5514408391761</t>
+          <t>-46.55924027266973,169.5514411123542</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
@@ -54460,7 +54530,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>-46.55924686923085,169.55143984890535</t>
+          <t>-46.55924776065802,169.551439678169</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
@@ -54552,7 +54622,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>-46.55922306812508,169.5514444075638</t>
+          <t>-46.55922502926489,169.55144403194416</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -54644,7 +54714,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>-46.559223157267795,169.5514443904902</t>
+          <t>-46.559225653263915,169.55144391242885</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
@@ -54736,7 +54806,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>-46.55919400759843,169.55144997356007</t>
+          <t>-46.559196057881,169.55144958086728</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -54828,7 +54898,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>-46.55917849676496,169.55145294436508</t>
+          <t>-46.55918126018932,169.55145241508387</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
@@ -54920,7 +54990,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>-46.55916610592662,169.551455317593</t>
+          <t>-46.55916637335479,169.55145526637227</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -55012,7 +55082,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>-46.55914203739142,169.55145992745662</t>
+          <t>-46.55913989796605,169.55146033722204</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
@@ -55104,7 +55174,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>-46.559143463675,169.55145965427965</t>
+          <t>-46.5591438202459,169.5514595859854</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
@@ -55196,7 +55266,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>-46.5591374911125,169.5514607982081</t>
+          <t>-46.55913437111716,169.55146139578255</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
@@ -55288,7 +55358,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>-46.5591304488373,169.5514621470189</t>
+          <t>-46.55912572427289,169.55146305191707</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
@@ -55380,7 +55450,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>-46.55911511628863,169.5514650836689</t>
+          <t>-46.55911306600595,169.5514654763603</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
@@ -55472,7 +55542,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>-46.559163877358564,169.55145574443242</t>
+          <t>-46.55916218364683,169.55145606883036</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
@@ -55564,7 +55634,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>-46.55918001219122,169.55145265411412</t>
+          <t>-46.55917805105135,169.55145302973304</t>
         </is>
       </c>
       <c r="P236" t="inlineStr">
@@ -55656,7 +55726,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>-46.5591849150409,169.55145171506672</t>
+          <t>-46.559182953901036,169.55145209068567</t>
         </is>
       </c>
       <c r="P237" t="inlineStr">
@@ -55748,7 +55818,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>-46.55920318929863,169.55144821497916</t>
+          <t>-46.55920425901127,169.5514480100959</t>
         </is>
       </c>
       <c r="P238" t="inlineStr">
@@ -55840,7 +55910,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>-46.559216828134744,169.55144560271694</t>
+          <t>-46.5592188784173,169.55144521002381</t>
         </is>
       </c>
       <c r="P239" t="inlineStr">
@@ -55932,7 +56002,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>-46.55923260639597,169.55144258068626</t>
+          <t>-46.5592302886853,169.5514430246005</t>
         </is>
       </c>
       <c r="P240" t="inlineStr">
@@ -56024,7 +56094,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>-46.559253911505515,169.55143850008793</t>
+          <t>-46.55924829551432,169.55143957572716</t>
         </is>
       </c>
       <c r="P241" t="inlineStr">
@@ -56116,7 +56186,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>-46.559340023367824,169.55142200692092</t>
+          <t>-46.559332891950845,169.55142337281694</t>
         </is>
       </c>
       <c r="P242" t="inlineStr">
@@ -56208,7 +56278,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>-46.559340023367824,169.55142200692092</t>
+          <t>-46.559332891950845,169.55142337281694</t>
         </is>
       </c>
       <c r="P243" t="inlineStr">
@@ -56300,7 +56370,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>-46.55936819246459,169.55141661162762</t>
+          <t>-46.55936435932803,169.55141734579766</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
@@ -56392,7 +56462,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>-46.559418647237855,169.55140694789006</t>
+          <t>-46.55941107010771,169.55140839915936</t>
         </is>
       </c>
       <c r="P245" t="inlineStr">
@@ -56484,7 +56554,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>-46.55940456269001,169.55140964554326</t>
+          <t>-46.55939707470249,169.551411079738</t>
         </is>
       </c>
       <c r="P246" t="inlineStr">
@@ -56576,7 +56646,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>-46.5594398632021,169.5514028843335</t>
+          <t>-46.55939707470249,169.551411079738</t>
         </is>
       </c>
       <c r="P247" t="inlineStr">
@@ -56668,7 +56738,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>-46.55945180832469,169.5514005964471</t>
+          <t>-46.55939359813684,169.5514117456139</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
@@ -56760,7 +56830,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>-46.55947240028953,169.55139665240145</t>
+          <t>-46.5594239958003,169.5514059234644</t>
         </is>
       </c>
       <c r="P249" t="inlineStr">
@@ -56852,7 +56922,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>-46.559495220821674,169.551392281507</t>
+          <t>-46.55945769174324,169.55139946957726</t>
         </is>
       </c>
       <c r="P250" t="inlineStr">
@@ -56944,7 +57014,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>-46.5595097510822,169.55138949847438</t>
+          <t>-46.55948113627453,169.5513949791689</t>
         </is>
       </c>
       <c r="P251" t="inlineStr">
@@ -57036,7 +57106,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>-46.5595097510822,169.55138949847438</t>
+          <t>-46.55948113627453,169.5513949791689</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
@@ -57128,7 +57198,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>-46.559512781934075,169.5513889179643</t>
+          <t>-46.559489337403264,169.55139340837863</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
@@ -57220,7 +57290,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>-46.55950324366493,169.55139074486343</t>
+          <t>-46.55947480714255,169.55139619140888</t>
         </is>
       </c>
       <c r="P254" t="inlineStr">
@@ -57312,7 +57382,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>-46.559485949980534,169.5513940571834</t>
+          <t>-46.55945867231299,169.55139928176558</t>
         </is>
       </c>
       <c r="P255" t="inlineStr">
@@ -57404,7 +57474,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>-46.559485949980534,169.5513940571834</t>
+          <t>-46.55945867231299,169.55139928176558</t>
         </is>
       </c>
       <c r="P256" t="inlineStr">
@@ -57496,7 +57566,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>-46.55947257857494,169.55139661825385</t>
+          <t>-46.55943781291985,169.5514032770303</t>
         </is>
       </c>
       <c r="P257" t="inlineStr">
@@ -57588,7 +57658,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>-46.55943923920315,169.5514030038499</t>
+          <t>-46.55940688040042,169.55140920162575</t>
         </is>
       </c>
       <c r="P258" t="inlineStr">
@@ -57680,7 +57750,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>-46.55942667008152,169.55140541125144</t>
+          <t>-46.55939841184313,169.5514108236318</t>
         </is>
       </c>
       <c r="P259" t="inlineStr">
@@ -57772,7 +57842,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>-46.559439595773966,169.55140293555482</t>
+          <t>-46.55941249639103,169.55140812597932</t>
         </is>
       </c>
       <c r="P260" t="inlineStr">
@@ -57864,7 +57934,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>-46.55944262662599,169.55140235504643</t>
+          <t>-46.55941936037952,169.55140681129998</t>
         </is>
       </c>
       <c r="P261" t="inlineStr">
@@ -57956,7 +58026,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>-46.559419092951394,169.55140686252128</t>
+          <t>-46.55942577865445,169.5514055819891</t>
         </is>
       </c>
       <c r="P262" t="inlineStr">
@@ -58048,7 +58118,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>-46.55941249639103,169.55140812597932</t>
+          <t>-46.55942337180135,169.55140604298072</t>
         </is>
       </c>
       <c r="P263" t="inlineStr">
@@ -58140,7 +58210,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>-46.55940625640147,169.551409321142</t>
+          <t>-46.55941766666808,169.5514071357014</t>
         </is>
       </c>
       <c r="P264" t="inlineStr">
@@ -58232,7 +58302,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>-46.55939983812646,169.55141055045186</t>
+          <t>-46.55941080267958,169.55140845038065</t>
         </is>
       </c>
       <c r="P265" t="inlineStr">
@@ -58324,7 +58394,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>-46.55940946553898,169.55140870648694</t>
+          <t>-46.55941953866493,169.55140677715247</t>
         </is>
       </c>
       <c r="P266" t="inlineStr">
@@ -58416,7 +58486,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>-46.55946437744612,169.551398189043</t>
+          <t>-46.55947560942688,169.55139603774467</t>
         </is>
       </c>
       <c r="P267" t="inlineStr">
@@ -58508,7 +58578,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>-46.55948951568866,169.551393374231</t>
+          <t>-46.559498786529794,169.55139159855437</t>
         </is>
       </c>
       <c r="P268" t="inlineStr">
@@ -58600,7 +58670,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>-46.55951251450598,169.55138896918578</t>
+          <t>-46.559521072205335,169.55138733009807</t>
         </is>
       </c>
       <c r="P269" t="inlineStr">
@@ -58692,7 +58762,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>-46.5595196459221,169.5513876032794</t>
+          <t>-46.55952704476631,169.5513861861511</t>
         </is>
       </c>
       <c r="P270" t="inlineStr">
@@ -58784,7 +58854,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>-46.55954219902544,169.5513832835978</t>
+          <t>-46.55954799330095,169.55138217379752</t>
         </is>
       </c>
       <c r="P271" t="inlineStr">
@@ -58876,7 +58946,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>-46.55954219902544,169.5513832835978</t>
+          <t>-46.55954799330095,169.55138217379752</t>
         </is>
       </c>
       <c r="P272" t="inlineStr">
@@ -58968,7 +59038,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>-46.559572507543244,169.55137747848565</t>
+          <t>-46.559574112111804,169.55137717115596</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
@@ -59060,7 +59130,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>-46.55955485728883,169.55138085911068</t>
+          <t>-46.55954906301334,169.55138196891127</t>
         </is>
       </c>
       <c r="P274" t="inlineStr">
@@ -59152,7 +59222,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>-46.55954237731084,169.5513832494501</t>
+          <t>-46.55953257161378,169.55138512757307</t>
         </is>
       </c>
       <c r="P275" t="inlineStr">
@@ -59244,7 +59314,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>-46.55954237731084,169.5513832494501</t>
+          <t>-46.55953257161378,169.55138512757307</t>
         </is>
       </c>
       <c r="P276" t="inlineStr">
@@ -59336,7 +59406,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>-46.55951331679029,169.55138881552134</t>
+          <t>-46.55950065852655,169.5513912400042</t>
         </is>
       </c>
       <c r="P277" t="inlineStr">
@@ -59428,7 +59498,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>-46.55949637967682,169.5513920595474</t>
+          <t>-46.55948737626379,169.55139378400244</t>
         </is>
       </c>
       <c r="P278" t="inlineStr">
@@ -59520,7 +59590,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>-46.55949637967682,169.5513920595474</t>
+          <t>-46.55948737626379,169.55139378400244</t>
         </is>
       </c>
       <c r="P279" t="inlineStr">
@@ -59612,7 +59682,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>-46.559490763686526,169.55139313519766</t>
+          <t>-46.55948211684428,169.55139479135704</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
@@ -59704,7 +59774,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>-46.55945965288276,169.5513990939539</t>
+          <t>-46.55945457174856,169.5514000671598</t>
         </is>
       </c>
       <c r="P281" t="inlineStr">
@@ -59796,7 +59866,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>-46.55946714086997,169.55139765975542</t>
+          <t>-46.559464823159644,169.55139810367405</t>
         </is>
       </c>
       <c r="P282" t="inlineStr">
@@ -59888,7 +59958,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>-46.55944102205728,169.55140266237441</t>
+          <t>-46.559435673494896,169.55140368680082</t>
         </is>
       </c>
       <c r="P283" t="inlineStr">
@@ -59980,7 +60050,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>-46.55938334672529,169.55141370909377</t>
+          <t>-46.559387001576376,169.55141300907061</t>
         </is>
       </c>
       <c r="P284" t="inlineStr">
@@ -60072,7 +60142,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>-46.55938334672529,169.55141370909377</t>
+          <t>-46.559387001576376,169.55141300907061</t>
         </is>
       </c>
       <c r="P285" t="inlineStr">
@@ -60164,7 +60234,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>-46.559400283840006,169.55141046508314</t>
+          <t>-46.55940696954313,169.551409184552</t>
         </is>
       </c>
       <c r="P286" t="inlineStr">
@@ -60256,7 +60326,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>-46.559422212946146,169.55140626493963</t>
+          <t>-46.55942497637009,169.551405735653</t>
         </is>
       </c>
       <c r="P287" t="inlineStr">
@@ -60348,7 +60418,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>-46.559444498622824,169.55140199649713</t>
+          <t>-46.55945064946951,169.55140081840628</t>
         </is>
       </c>
       <c r="P288" t="inlineStr">
@@ -60440,7 +60510,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>-46.55940803925563,169.55140897966697</t>
+          <t>-46.55940616725876,169.55140933821573</t>
         </is>
       </c>
       <c r="P289" t="inlineStr">
@@ -60532,7 +60602,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>-46.559429700933556,169.5514048307434</t>
+          <t>-46.559435673494896,169.55140368680082</t>
         </is>
       </c>
       <c r="P290" t="inlineStr">
@@ -60624,7 +60694,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>-46.55939217185351,169.5514120187938</t>
+          <t>-46.559435673494896,169.55140368680082</t>
         </is>
       </c>
       <c r="P291" t="inlineStr">
@@ -60716,7 +60786,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>-46.55940411697648,169.55140973091198</t>
+          <t>-46.55944351805305,169.55140218430867</t>
         </is>
       </c>
       <c r="P292" t="inlineStr">
@@ -60808,7 +60878,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>-46.55941142667854,169.55140833086435</t>
+          <t>-46.5594460140488,169.5514017062429</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
@@ -60900,7 +60970,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>-46.559414992386856,169.55140764791412</t>
+          <t>-46.55944547919258,169.55140180868554</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
@@ -60992,7 +61062,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>-46.55943540606678,169.55140373802215</t>
+          <t>-46.55946339687637,169.55139837685473</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
@@ -61084,7 +61154,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>-46.55944030891563,169.5514027989646</t>
+          <t>-46.55946767572619,169.55139755731267</t>
         </is>
       </c>
       <c r="P296" t="inlineStr">
@@ -61176,7 +61246,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>-46.55942435237113,169.55140585516932</t>
+          <t>-46.55944940147164,169.55140105743922</t>
         </is>
       </c>
       <c r="P297" t="inlineStr">
@@ -61268,7 +61338,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>-46.55942435237113,169.55140585516932</t>
+          <t>-46.55944940147164,169.55140105743922</t>
         </is>
       </c>
       <c r="P298" t="inlineStr">
@@ -61360,7 +61430,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>-46.559425332940904,169.55140566735793</t>
+          <t>-46.559448242616455,169.55140127939836</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
@@ -61452,7 +61522,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>-46.55940179926605,169.55141017482947</t>
+          <t>-46.55941944952223,169.5514067942262</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
@@ -61544,7 +61614,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>-46.55941659695559,169.5514073405865</t>
+          <t>-46.55943781291985,169.5514032770303</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
@@ -61636,7 +61706,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>-46.55939208271079,169.55141203586751</t>
+          <t>-46.55941080267958,169.55140845038065</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
@@ -61728,7 +61798,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>-46.55937371931262,169.55141555305667</t>
+          <t>-46.55937033188964,169.55141620185825</t>
         </is>
       </c>
       <c r="P303" t="inlineStr">
@@ -61820,7 +61890,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>-46.55935473191525,169.5514191897591</t>
+          <t>-46.55934982906613,169.55142012881322</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
@@ -61912,7 +61982,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>-46.55928671602506,169.55143221698376</t>
+          <t>-46.55928110003399,169.55143329262447</t>
         </is>
       </c>
       <c r="P305" t="inlineStr">
@@ -62004,7 +62074,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>-46.559314974265526,169.55142680462887</t>
+          <t>-46.55931247826954,169.55142728269203</t>
         </is>
       </c>
       <c r="P306" t="inlineStr">
@@ -62096,7 +62166,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>-46.55931675711979,169.55142646315517</t>
+          <t>-46.55931078455797,169.551427607092</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
@@ -62188,7 +62258,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>-46.55933110909659,169.5514237142909</t>
+          <t>-46.55933208966643,169.55142352648025</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
@@ -62280,7 +62350,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>-46.55942417408572,169.55140588931684</t>
+          <t>-46.55943130550228,169.55140452341558</t>
         </is>
       </c>
       <c r="P309" t="inlineStr">
@@ -62372,7 +62442,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>-46.55942453065654,169.5514058210218</t>
+          <t>-46.55943371235535,169.55140406242379</t>
         </is>
       </c>
       <c r="P310" t="inlineStr">
@@ -62464,7 +62534,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>-46.559394311278524,169.551411609024</t>
+          <t>-46.559405364974396,169.5514094918795</t>
         </is>
       </c>
       <c r="P311" t="inlineStr">
@@ -62556,7 +62626,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>-46.559381920441936,169.55141398227352</t>
+          <t>-46.55939484613477,169.55141150658153</t>
         </is>
       </c>
       <c r="P312" t="inlineStr">
@@ -62648,7 +62718,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>-46.55935669305489,169.55141881413738</t>
+          <t>-46.55936480504158,169.55141726042905</t>
         </is>
       </c>
       <c r="P313" t="inlineStr">
@@ -62740,7 +62810,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>-46.55934020165325,169.5514219727735</t>
+          <t>-46.55934492621699,169.55142106786718</t>
         </is>
       </c>
       <c r="P314" t="inlineStr">
@@ -62832,7 +62902,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>-46.55930445542528,169.55142881932326</t>
+          <t>-46.55930882341827,169.551427982713</t>
         </is>
       </c>
       <c r="P315" t="inlineStr">
@@ -62924,7 +62994,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>-46.55927165090612,169.55143510243212</t>
+          <t>-46.559275840613765,169.55143429997034</t>
         </is>
       </c>
       <c r="P316" t="inlineStr">
@@ -63016,7 +63086,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>-46.55927165090612,169.55143510243212</t>
+          <t>-46.559275840613765,169.55143429997034</t>
         </is>
       </c>
       <c r="P317" t="inlineStr">
@@ -63108,7 +63178,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>-46.55925159379487,169.55143894400254</t>
+          <t>-46.55925827949865,169.55143766347945</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
@@ -63200,7 +63270,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>-46.559240985811485,169.55144097576516</t>
+          <t>-46.55924401666388,169.55144039526166</t>
         </is>
       </c>
       <c r="P319" t="inlineStr">
@@ -63292,7 +63362,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>-46.559232338967824,169.55144263190712</t>
+          <t>-46.55923465667849,169.55144218799282</t>
         </is>
       </c>
       <c r="P320" t="inlineStr">
@@ -63384,7 +63454,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>-46.55923884638625,169.55144138553229</t>
+          <t>-46.559242501237684,169.5514406855134</t>
         </is>
       </c>
       <c r="P321" t="inlineStr">
@@ -63476,7 +63546,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>-46.55928011946412,169.55143348043475</t>
+          <t>-46.55928110003399,169.55143329262447</t>
         </is>
       </c>
       <c r="P322" t="inlineStr">
@@ -63568,7 +63638,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>-46.55931078455797,169.551427607092</t>
+          <t>-46.559310338844405,169.55142769246044</t>
         </is>
       </c>
       <c r="P323" t="inlineStr">
@@ -63660,7 +63730,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>-46.559368994748986,169.5514164579641</t>
+          <t>-46.55937773073458,169.55141478473888</t>
         </is>
       </c>
       <c r="P324" t="inlineStr">
@@ -63752,7 +63822,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>-46.559348491925455,169.55142038491888</t>
+          <t>-46.559349650780696,169.55142016296062</t>
         </is>
       </c>
       <c r="P325" t="inlineStr">
@@ -63844,7 +63914,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>-46.559347957069185,169.55142048736113</t>
+          <t>-46.559346085072235,169.55142084590898</t>
         </is>
       </c>
       <c r="P326" t="inlineStr">
@@ -63936,7 +64006,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>-46.55933440737695,169.5514230825641</t>
+          <t>-46.55933307023627,169.55142333866954</t>
         </is>
       </c>
       <c r="P327" t="inlineStr">
@@ -64028,7 +64098,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>-46.55933832965629,169.55142233132128</t>
+          <t>-46.559337349086455,169.551422519132</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
@@ -64120,7 +64190,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>-46.55933931022613,169.55142214351056</t>
+          <t>-46.55933387252067,169.55142318500626</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
@@ -64212,7 +64282,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>-46.55934626335766,169.55142081176157</t>
+          <t>-46.55933957765427,169.55142209228944</t>
         </is>
       </c>
       <c r="P330" t="inlineStr">
@@ -64304,7 +64374,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>-46.55934626335766,169.55142081176157</t>
+          <t>-46.55933957765427,169.55142209228944</t>
         </is>
       </c>
       <c r="P331" t="inlineStr">
@@ -64396,7 +64466,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>-46.55934626335766,169.55142081176157</t>
+          <t>-46.55933957765427,169.55142209228944</t>
         </is>
       </c>
       <c r="P332" t="inlineStr">
@@ -64488,7 +64558,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>-46.559346085072235,169.55142084590898</t>
+          <t>-46.55934216279291,169.55142159715206</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
@@ -64580,7 +64650,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>-46.559346085072235,169.55142084590898</t>
+          <t>-46.55934216279291,169.55142159715206</t>
         </is>
       </c>
       <c r="P334" t="inlineStr">
@@ -64672,7 +64742,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>-46.559345015359696,169.55142105079346</t>
+          <t>-46.55934055822409,169.55142190447873</t>
         </is>
       </c>
       <c r="P335" t="inlineStr">
@@ -64764,7 +64834,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>-46.559324155964994,169.55142504603901</t>
+          <t>-46.55932032282833,169.5514257802077</t>
         </is>
       </c>
       <c r="P336" t="inlineStr">
@@ -64856,7 +64926,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>-46.55931506340823,169.55142678755522</t>
+          <t>-46.55931140855698,169.55142748757623</t>
         </is>
       </c>
       <c r="P337" t="inlineStr">
@@ -64948,7 +65018,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>-46.559302137714724,169.55142926323882</t>
+          <t>-46.559299196005135,169.5514298266701</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
@@ -65040,7 +65110,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>-46.559302137714724,169.55142926323882</t>
+          <t>-46.559299196005135,169.5514298266701</t>
         </is>
       </c>
       <c r="P339" t="inlineStr">
@@ -65132,7 +65202,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>-46.559265232630544,169.55143633173503</t>
+          <t>-46.55926273663449,169.55143680979714</t>
         </is>
       </c>
       <c r="P340" t="inlineStr">
@@ -65224,7 +65294,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>-46.559265232630544,169.55143633173503</t>
+          <t>-46.55926273663449,169.55143680979714</t>
         </is>
       </c>
       <c r="P341" t="inlineStr">
@@ -65316,7 +65386,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>-46.559265232630544,169.55143633173503</t>
+          <t>-46.55926273663449,169.55143680979714</t>
         </is>
       </c>
       <c r="P342" t="inlineStr">
@@ -65408,7 +65478,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>-46.55924784980074,169.55143966109534</t>
+          <t>-46.55925070236769,169.55143911473894</t>
         </is>
       </c>
       <c r="P343" t="inlineStr">
@@ -65500,7 +65570,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>-46.55924784980074,169.55143966109534</t>
+          <t>-46.55925070236769,169.55143911473894</t>
         </is>
       </c>
       <c r="P344" t="inlineStr">
@@ -65592,7 +65662,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>-46.559190441889605,169.5514506565039</t>
+          <t>-46.55919445331203,169.55144988819208</t>
         </is>
       </c>
       <c r="P345" t="inlineStr">
@@ -65684,7 +65754,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>-46.559202565299586,169.55144833449438</t>
+          <t>-46.5592071115783,169.55144746374052</t>
         </is>
       </c>
       <c r="P346" t="inlineStr">
@@ -65776,7 +65846,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>-46.55919623616644,169.55144954672008</t>
+          <t>-46.5592008715879,169.55144865889287</t>
         </is>
       </c>
       <c r="P347" t="inlineStr">
@@ -65868,7 +65938,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>-46.559209518431736,169.5514470027531</t>
+          <t>-46.55921620413571,169.55144572223224</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
@@ -65960,7 +66030,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>-46.559205774437515,169.5514477198446</t>
+          <t>-46.55920818129095,169.55144725885722</t>
         </is>
       </c>
       <c r="P349" t="inlineStr">
@@ -66052,7 +66122,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>-46.55922993211441,169.551443092895</t>
+          <t>-46.55923287382413,169.55144252946536</t>
         </is>
       </c>
       <c r="P350" t="inlineStr">
@@ -66144,7 +66214,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>-46.559256229216146,169.55143805617323</t>
+          <t>-46.55926166692189,169.55143701468091</t>
         </is>
       </c>
       <c r="P351" t="inlineStr">
@@ -66236,7 +66306,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>-46.559263093205345,169.55143674150258</t>
+          <t>-46.55926808519747,169.55143578537823</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
@@ -66328,7 +66398,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>-46.55928814230851,169.55143194380508</t>
+          <t>-46.55929233201612,169.55143114134276</t>
         </is>
       </c>
       <c r="P353" t="inlineStr">
@@ -66420,7 +66490,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>-46.55928814230851,169.55143194380508</t>
+          <t>-46.55929233201612,169.55143114134276</t>
         </is>
       </c>
       <c r="P354" t="inlineStr">
@@ -66512,7 +66582,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>-46.55933271366542,169.55142340696435</t>
+          <t>-46.559333515949824,169.55142325330107</t>
         </is>
       </c>
       <c r="P355" t="inlineStr">
@@ -66604,7 +66674,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>-46.55933850794172,169.55142229717387</t>
+          <t>-46.559336546802044,169.5514226727953</t>
         </is>
       </c>
       <c r="P356" t="inlineStr">
@@ -66696,7 +66766,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>-46.55934920506714,169.55142024832918</t>
+          <t>-46.55934822449732,169.55142043614</t>
         </is>
       </c>
       <c r="P357" t="inlineStr">
@@ -66788,7 +66858,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>-46.55935580162779,169.55141898487452</t>
+          <t>-46.5593527707756,169.55141956538077</t>
         </is>
       </c>
       <c r="P358" t="inlineStr">
@@ -66880,7 +66950,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>-46.559360169620625,169.55141814826246</t>
+          <t>-46.55935838676641,169.55141848973676</t>
         </is>
       </c>
       <c r="P359" t="inlineStr">
@@ -66972,7 +67042,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>-46.55942453065654,169.5514058210218</t>
+          <t>-46.5594203409493,169.55140662348862</t>
         </is>
       </c>
       <c r="P360" t="inlineStr">
@@ -67064,7 +67134,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>-46.55942453065654,169.5514058210218</t>
+          <t>-46.5594203409493,169.55140662348862</t>
         </is>
       </c>
       <c r="P361" t="inlineStr">
@@ -67156,7 +67226,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>-46.55943906091774,169.55140303799746</t>
+          <t>-46.55943692149279,169.55140344776802</t>
         </is>
       </c>
       <c r="P362" t="inlineStr">
@@ -67248,7 +67318,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>-46.55944120034269,169.55140262822687</t>
+          <t>-46.55943915006044,169.5514030209237</t>
         </is>
       </c>
       <c r="P363" t="inlineStr">
@@ -67340,7 +67410,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>-46.559439417488576,169.55140296970237</t>
+          <t>-46.55943808034797,169.55140322580897</t>
         </is>
       </c>
       <c r="P364" t="inlineStr">
@@ -67432,7 +67502,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>-46.55942693750964,169.55140536003017</t>
+          <t>-46.55942310437323,169.551406094202</t>
         </is>
       </c>
       <c r="P365" t="inlineStr">
@@ -67524,7 +67594,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>-46.55944030891563,169.5514027989646</t>
+          <t>-46.559439417488576,169.55140296970237</t>
         </is>
       </c>
       <c r="P366" t="inlineStr">
@@ -67616,7 +67686,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>-46.5594264917961,169.55140544539898</t>
+          <t>-46.55942274780241,169.55140616249705</t>
         </is>
       </c>
       <c r="P367" t="inlineStr">
@@ -67708,7 +67778,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>-46.559428274650244,169.55140510392366</t>
+          <t>-46.55942577865445,169.5514055819891</t>
         </is>
       </c>
       <c r="P368" t="inlineStr">
@@ -67800,7 +67870,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>-46.55942756150858,169.5514052405138</t>
+          <t>-46.559425332940904,169.55140566735793</t>
         </is>
       </c>
       <c r="P369" t="inlineStr">
@@ -67892,7 +67962,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>-46.55942693750964,169.55140536003017</t>
+          <t>-46.559425332940904,169.55140566735793</t>
         </is>
       </c>
       <c r="P370" t="inlineStr">
@@ -67984,7 +68054,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>-46.55942809636482,169.55140513807117</t>
+          <t>-46.5594264917961,169.55140544539898</t>
         </is>
       </c>
       <c r="P371" t="inlineStr">
@@ -68076,7 +68146,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>-46.55941124839312,169.55140836501187</t>
+          <t>-46.55940991125251,169.55140862111816</t>
         </is>
       </c>
       <c r="P372" t="inlineStr">
@@ -68168,7 +68238,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>-46.55940768268481,169.55140904796198</t>
+          <t>-46.55940589983064,169.551409389437</t>
         </is>
       </c>
       <c r="P373" t="inlineStr">
@@ -68260,7 +68330,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>-46.5593982335577,169.55141085777927</t>
+          <t>-46.55939787698688,169.55141092607425</t>
         </is>
       </c>
       <c r="P374" t="inlineStr">
@@ -68352,7 +68422,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>-46.55939145871183,169.5514121553837</t>
+          <t>-46.55938940842954,169.5514125480797</t>
         </is>
       </c>
       <c r="P375" t="inlineStr">
@@ -68444,7 +68514,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>-46.55936756846561,169.5514167311437</t>
+          <t>-46.55936765760832,169.55141671406997</t>
         </is>
       </c>
       <c r="P376" t="inlineStr">
@@ -68536,7 +68606,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>-46.55936756846561,169.5514167311437</t>
+          <t>-46.55936765760832,169.55141671406997</t>
         </is>
       </c>
       <c r="P377" t="inlineStr">
@@ -68628,7 +68698,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>-46.559359991335214,169.55141818240986</t>
+          <t>-46.559358565051824,169.55141845558933</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
@@ -68720,7 +68790,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>-46.55932772167351,169.55142436309131</t>
+          <t>-46.559328613100625,169.55142419235438</t>
         </is>
       </c>
       <c r="P379" t="inlineStr">
@@ -68812,7 +68882,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>-46.55929456058397,169.551430714501</t>
+          <t>-46.55929366915684,169.55143088523772</t>
         </is>
       </c>
       <c r="P380" t="inlineStr">
@@ -68904,7 +68974,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>-46.559306862278575,169.55142835833394</t>
+          <t>-46.559302583428284,169.55142917787046</t>
         </is>
       </c>
       <c r="P381" t="inlineStr">
@@ -68996,7 +69066,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>-46.55931114112884,169.55142753879727</t>
+          <t>-46.559308912560994,169.5514279656393</t>
         </is>
       </c>
       <c r="P382" t="inlineStr">
@@ -69088,7 +69158,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>-46.55932085768461,169.55142567776556</t>
+          <t>-46.559317202833356,169.55142637778675</t>
         </is>
       </c>
       <c r="P383" t="inlineStr">
@@ -69180,7 +69250,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>-46.559328880528774,169.55142414113328</t>
+          <t>-46.55932388853686,169.55142509726008</t>
         </is>
       </c>
       <c r="P384" t="inlineStr">
@@ -69272,7 +69342,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>-46.55934911592444,169.5514202654029</t>
+          <t>-46.55934742221291,169.55142058980337</t>
         </is>
       </c>
       <c r="P385" t="inlineStr">
@@ -69364,7 +69434,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>-46.559346619928505,169.55142074346674</t>
+          <t>-46.559344213075285,169.55142120445683</t>
         </is>
       </c>
       <c r="P386" t="inlineStr">
@@ -69456,7 +69526,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>-46.55933708165831,169.55142257035308</t>
+          <t>-46.55933280280812,169.55142338989066</t>
         </is>
       </c>
       <c r="P387" t="inlineStr">
@@ -69548,7 +69618,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>-46.55936275475925,169.55141765312462</t>
+          <t>-46.55935785191015,169.5514185921791</t>
         </is>
       </c>
       <c r="P388" t="inlineStr">
@@ -69640,7 +69710,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>-46.55937407588346,169.55141548476175</t>
+          <t>-46.559369440462525,169.5514163725955</t>
         </is>
       </c>
       <c r="P389" t="inlineStr">
@@ -69732,7 +69802,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>-46.55936854903542,169.55141654333275</t>
+          <t>-46.55936391361447,169.55141743116627</t>
         </is>
       </c>
       <c r="P390" t="inlineStr">
@@ -69824,7 +69894,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>-46.559393063280595,169.55141184805638</t>
+          <t>-46.55937407588346,169.55141548476175</t>
         </is>
       </c>
       <c r="P391" t="inlineStr">
@@ -69916,7 +69986,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>-46.559393063280595,169.55141184805638</t>
+          <t>-46.55937407588346,169.55141548476175</t>
         </is>
       </c>
       <c r="P392" t="inlineStr">
@@ -70008,7 +70078,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>-46.559409108968126,169.55140877478195</t>
+          <t>-46.55937407588346,169.55141548476175</t>
         </is>
       </c>
       <c r="P393" t="inlineStr">
@@ -70100,7 +70170,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>-46.55942961179085,169.55140484781717</t>
+          <t>-46.55939341985144,169.55141177976142</t>
         </is>
       </c>
       <c r="P394" t="inlineStr">
@@ -70192,7 +70262,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>-46.559438169490676,169.5514032087352</t>
+          <t>-46.559406345544176,169.55140930406824</t>
         </is>
       </c>
       <c r="P395" t="inlineStr">
@@ -70284,7 +70354,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>-46.559451184325745,169.55140071596358</t>
+          <t>-46.559418647237855,169.55140694789006</t>
         </is>
       </c>
       <c r="P396" t="inlineStr">
@@ -70376,7 +70446,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>-46.559451184325745,169.55140071596358</t>
+          <t>-46.559418647237855,169.55140694789006</t>
         </is>
       </c>
       <c r="P397" t="inlineStr">
@@ -70468,7 +70538,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>-46.55945769174324,169.55139946957726</t>
+          <t>-46.55942613522527,169.55140551369402</t>
         </is>
       </c>
       <c r="P398" t="inlineStr">
@@ -70560,7 +70630,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>-46.55946526887317,169.55139801830506</t>
+          <t>-46.559437634634435,169.55140331117786</t>
         </is>
       </c>
       <c r="P399" t="inlineStr">
@@ -70652,7 +70722,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>-46.55946500144506,169.55139806952647</t>
+          <t>-46.55943870434692,169.55140310629255</t>
         </is>
       </c>
       <c r="P400" t="inlineStr">
@@ -70744,7 +70814,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>-46.55946865629595,169.5513973695009</t>
+          <t>-46.55944333976763,169.55140221845622</t>
         </is>
       </c>
       <c r="P401" t="inlineStr">
@@ -70836,7 +70906,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>-46.559466784299154,169.55139772805057</t>
+          <t>-46.55944351805305,169.55140218430867</t>
         </is>
       </c>
       <c r="P402" t="inlineStr">
@@ -70928,7 +70998,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>-46.55946936943758,169.55139723291055</t>
+          <t>-46.55944654890504,169.5514016038002</t>
         </is>
       </c>
       <c r="P403" t="inlineStr">
@@ -71020,7 +71090,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>-46.55944931232893,169.551401074513</t>
+          <t>-46.559427026652344,169.55140534295637</t>
         </is>
       </c>
       <c r="P404" t="inlineStr">
@@ -71112,7 +71182,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>-46.559428274650244,169.55140510392366</t>
+          <t>-46.559403492977516,169.55140985042826</t>
         </is>
       </c>
       <c r="P405" t="inlineStr">
@@ -71204,7 +71274,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>-46.55941704266912,169.55140725521773</t>
+          <t>-46.559388338717014,169.55141275296455</t>
         </is>
       </c>
       <c r="P406" t="inlineStr">
@@ -71296,7 +71366,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>-46.55940884154002,169.5514088260032</t>
+          <t>-46.559376482736646,169.55141502377109</t>
         </is>
       </c>
       <c r="P407" t="inlineStr">
@@ -71388,7 +71458,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>-46.55942854207835,169.55140505270236</t>
+          <t>-46.55940037298273,169.5514104480094</t>
         </is>
       </c>
       <c r="P408" t="inlineStr">
@@ -71480,7 +71550,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>-46.559383257582574,169.5514137261675</t>
+          <t>-46.55939136956913,169.55141217245745</t>
         </is>
       </c>
       <c r="P409" t="inlineStr">
@@ -71572,7 +71642,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>-46.559400729553545,169.5514103797144</t>
+          <t>-46.559410267823324,169.55140855282315</t>
         </is>
       </c>
       <c r="P410" t="inlineStr">
@@ -71664,7 +71734,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>-46.55939038899932,169.55141236026859</t>
+          <t>-46.5593982335577,169.55141085777927</t>
         </is>
       </c>
       <c r="P411" t="inlineStr">
@@ -71756,7 +71826,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>-46.55942355008676,169.5514060088332</t>
+          <t>-46.5594239066576,169.55140594053813</t>
         </is>
       </c>
       <c r="P412" t="inlineStr">
@@ -71848,7 +71918,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>-46.55938512957947,169.55141336761906</t>
+          <t>-46.55938111815754,169.55141413593708</t>
         </is>
       </c>
       <c r="P413" t="inlineStr">
@@ -71940,7 +72010,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>-46.559330485097604,169.55142383380675</t>
+          <t>-46.559330039384044,169.55142391917522</t>
         </is>
       </c>
       <c r="P414" t="inlineStr">
@@ -72032,7 +72102,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>-46.55930516856699,169.55142868273384</t>
+          <t>-46.55929607601013,169.55143042424862</t>
         </is>
       </c>
       <c r="P415" t="inlineStr">
@@ -72124,7 +72194,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>-46.55930151371571,169.55142938275455</t>
+          <t>-46.559290816589964,169.55143143159512</t>
         </is>
       </c>
       <c r="P416" t="inlineStr">
@@ -72216,7 +72286,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>-46.559303118284575,169.5514290754284</t>
+          <t>-46.55929277772969,169.55143105597443</t>
         </is>
       </c>
       <c r="P417" t="inlineStr">
@@ -72308,7 +72378,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>-46.55928252631743,169.5514330194459</t>
+          <t>-46.559271026907105,169.55143522194768</t>
         </is>
       </c>
       <c r="P418" t="inlineStr">
@@ -72400,7 +72470,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>-46.55932264053887,169.55142533629174</t>
+          <t>-46.55931310226853,169.55142716317624</t>
         </is>
       </c>
       <c r="P419" t="inlineStr">
@@ -72492,7 +72562,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>-46.55933315937898,169.55142332159585</t>
+          <t>-46.55932593881925,169.55142470456516</t>
         </is>
       </c>
       <c r="P420" t="inlineStr">
@@ -72584,7 +72654,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>-46.55934412393257,169.55142122153052</t>
+          <t>-46.55933645765934,169.55142268986899</t>
         </is>
       </c>
       <c r="P421" t="inlineStr">
@@ -72676,7 +72746,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>-46.559360793619604,169.55141802874644</t>
+          <t>-46.55935704962573,169.5514187458425</t>
         </is>
       </c>
       <c r="P422" t="inlineStr">
@@ -72768,7 +72838,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>-46.559347154784774,169.5514206410245</t>
+          <t>-46.55934555021596,169.55142094835122</t>
         </is>
       </c>
       <c r="P423" t="inlineStr">
@@ -72860,7 +72930,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>-46.55932736510267,169.5514244313861</t>
+          <t>-46.559324869106696,169.55142490944948</t>
         </is>
       </c>
       <c r="P424" t="inlineStr">
@@ -72952,7 +73022,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>-46.559325493105696,169.55142478993363</t>
+          <t>-46.55932406682227,169.5514250631127</t>
         </is>
       </c>
       <c r="P425" t="inlineStr">
@@ -73044,7 +73114,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>-46.559321838254455,169.551425489955</t>
+          <t>-46.55932085768461,169.55142567776556</t>
         </is>
       </c>
       <c r="P426" t="inlineStr">
@@ -73136,7 +73206,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>-46.559343589076306,169.55142132397276</t>
+          <t>-46.559340469081384,169.55142192155242</t>
         </is>
       </c>
       <c r="P427" t="inlineStr">
@@ -73228,7 +73298,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>-46.559333515949824,169.55142325330107</t>
+          <t>-46.55933217880914,169.55142350940653</t>
         </is>
       </c>
       <c r="P428" t="inlineStr">
@@ -73320,7 +73390,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>-46.55934528278783,169.55142099957234</t>
+          <t>-46.55934786792647,169.55142050443484</t>
         </is>
       </c>
       <c r="P429" t="inlineStr">
@@ -73412,7 +73482,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>-46.559338597084434,169.55142228010016</t>
+          <t>-46.55933895365528,169.55142221180537</t>
         </is>
       </c>
       <c r="P430" t="inlineStr">
@@ -73504,7 +73574,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>-46.55933280280812,169.55142338989066</t>
+          <t>-46.55933191138101,169.55142356062763</t>
         </is>
       </c>
       <c r="P431" t="inlineStr">
@@ -73596,7 +73666,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>-46.55934760049833,169.55142055565597</t>
+          <t>-46.55934706564206,169.55142065809818</t>
         </is>
       </c>
       <c r="P432" t="inlineStr">
@@ -73688,7 +73758,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>-46.55937024274693,169.55141621893196</t>
+          <t>-46.559371669030284,169.55141594575238</t>
         </is>
       </c>
       <c r="P433" t="inlineStr">
@@ -73780,7 +73850,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>-46.55935294906104,169.55141953123334</t>
+          <t>-46.559354910200675,169.55141915561165</t>
         </is>
       </c>
       <c r="P434" t="inlineStr">
@@ -73872,7 +73942,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>-46.559359991335214,169.55141818240986</t>
+          <t>-46.55936008047791,169.55141816533617</t>
         </is>
       </c>
       <c r="P435" t="inlineStr">
@@ -73964,7 +74034,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>-46.559380583301284,169.5514142383795</t>
+          <t>-46.559379335303355,169.55141447741173</t>
         </is>
       </c>
       <c r="P436" t="inlineStr">
@@ -74056,7 +74126,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>-46.55938762557533,169.55141288955446</t>
+          <t>-46.55938602100657,169.55141319688173</t>
         </is>
       </c>
       <c r="P437" t="inlineStr">
@@ -74148,7 +74218,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>-46.55939083471286,169.5514122748999</t>
+          <t>-46.55938807128888,169.55141280418576</t>
         </is>
       </c>
       <c r="P438" t="inlineStr">
@@ -74240,7 +74310,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>-46.559418379809735,169.55140699911132</t>
+          <t>-46.559416329527465,169.55140739180777</t>
         </is>
       </c>
       <c r="P439" t="inlineStr">
@@ -74332,7 +74402,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>-46.55945430432043,169.55140011838114</t>
+          <t>-46.559453947749624,169.55140018667626</t>
         </is>
       </c>
       <c r="P440" t="inlineStr">
@@ -74424,7 +74494,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>-46.55945430432043,169.55140011838114</t>
+          <t>-46.559453947749624,169.55140018667626</t>
         </is>
       </c>
       <c r="P441" t="inlineStr">
@@ -74516,7 +74586,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>-46.55950627451681,169.5513901643535</t>
+          <t>-46.55950921622599,169.55138960091733</t>
         </is>
       </c>
       <c r="P442" t="inlineStr">
@@ -74608,7 +74678,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>-46.55948095798912,169.55139501331652</t>
+          <t>-46.55948193855887,169.55139482550467</t>
         </is>
       </c>
       <c r="P443" t="inlineStr">
@@ -74700,7 +74770,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>-46.55947453971444,169.55139624263026</t>
+          <t>-46.55947534199877,169.55139608896604</t>
         </is>
       </c>
       <c r="P444" t="inlineStr">
@@ -74792,7 +74862,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>-46.5594958448206,169.5513921619903</t>
+          <t>-46.55949709281844,169.5513919229569</t>
         </is>
       </c>
       <c r="P445" t="inlineStr">
@@ -74884,7 +74954,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>-46.559500212813035,169.5513913253733</t>
+          <t>-46.55949949967142,169.55139146196382</t>
         </is>
       </c>
       <c r="P446" t="inlineStr">
@@ -74976,7 +75046,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>-46.55948701969298,169.55139385229768</t>
+          <t>-46.55948621740865,169.55139400596195</t>
         </is>
       </c>
       <c r="P447" t="inlineStr">
@@ -75068,7 +75138,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>-46.559461079166034,169.5513988207733</t>
+          <t>-46.55946188145039,169.55139866710917</t>
         </is>
       </c>
       <c r="P448" t="inlineStr">
@@ -75160,7 +75230,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>-46.55944654890504,169.5514016038002</t>
+          <t>-46.55944485519365,169.551401928202</t>
         </is>
       </c>
       <c r="P449" t="inlineStr">
@@ -75252,7 +75322,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>-46.55943094893145,169.55140459171065</t>
+          <t>-46.55943014664708,169.55140474537455</t>
         </is>
       </c>
       <c r="P450" t="inlineStr">
@@ -75344,7 +75414,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>-46.559413655246225,169.5514079040205</t>
+          <t>-46.55941222896291,169.55140817720056</t>
         </is>
       </c>
       <c r="P451" t="inlineStr">
@@ -75436,7 +75506,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>-46.55940973296708,169.55140865526567</t>
+          <t>-46.55940946553898,169.55140870648694</t>
         </is>
       </c>
       <c r="P452" t="inlineStr">
@@ -75528,7 +75598,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>-46.55940768268481,169.55140904796198</t>
+          <t>-46.55940803925563,169.55140897966697</t>
         </is>
       </c>
       <c r="P453" t="inlineStr">
@@ -75542,6 +75612,98 @@
         </is>
       </c>
       <c r="R453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:15:16+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>-46.5623219168419,169.56256741134</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>-46.56282343697568,169.56153221833057</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>-46.560728666030585,169.56114054072603</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-46.56049401269177,169.56028783126112</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>-46.56033903945733,169.55941537437053</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>-46.56030425045974,169.5585131272636</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>-46.56022078745619,169.55762812523304</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>-46.56007315108098,169.55676038852576</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>-46.559831841990786,169.555912800266</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>-46.559868312045936,169.5549897075286</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>-46.55977916710014,169.55410051501417</t>
+        </is>
+      </c>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>-46.55965899413459,169.55321969707745</t>
+        </is>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>-46.559549730774414,169.55232458445983</t>
+        </is>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>-46.55939912498479,169.55141068704182</t>
+        </is>
+      </c>
+      <c r="P454" t="inlineStr">
+        <is>
+          <t>-46.55931069901653,169.55049253906347</t>
+        </is>
+      </c>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>-46.55930882230444,169.54959014149833</t>
+        </is>
+      </c>
+      <c r="R454" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
